--- a/pe_sample/23SU-SWT301-FINAL-PE-Template_ANSWER.xlsx
+++ b/pe_sample/23SU-SWT301-FINAL-PE-Template_ANSWER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="5" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
   <si>
     <t>Function Code</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Test requirement</t>
   </si>
   <si>
-    <t>&lt;Brief description about requirements which are tested in this function&gt;</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>Input condition</t>
   </si>
   <si>
     <t>Don't edit the grey cell</t>
@@ -265,12 +259,6 @@
     <t>Valid Partitions</t>
   </si>
   <si>
-    <t>Valid Boundaries</t>
-  </si>
-  <si>
-    <t>Invalid Boundaries</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blue text is sample, needed to be deleted in the answer </t>
   </si>
   <si>
@@ -280,51 +268,24 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Line</t>
-  </si>
-  <si>
     <t>Issue No</t>
   </si>
   <si>
     <t>Table 3.2 Test case design</t>
   </si>
   <si>
-    <t>Table 3.3 Test case</t>
-  </si>
-  <si>
     <t>Table 3.1 Test Analysis</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>vicDiff</t>
-  </si>
-  <si>
     <t>Lê Văn Tám</t>
   </si>
   <si>
-    <t>ar 1</t>
-  </si>
-  <si>
-    <t>ar 2</t>
-  </si>
-  <si>
-    <t>{1,2}</t>
-  </si>
-  <si>
-    <t>{2,3}</t>
-  </si>
-  <si>
-    <t>Output{2}</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
-    <t>Null</t>
-  </si>
-  <si>
     <t>a new receipt is successfully created</t>
   </si>
   <si>
@@ -332,12 +293,6 @@
   </si>
   <si>
     <t>TC001</t>
-  </si>
-  <si>
-    <t>Create new receipt success</t>
-  </si>
-  <si>
-    <t>User log into system with correct role</t>
   </si>
   <si>
     <t>1. Key in "Đối tượng": Lê Văn Tám 
@@ -357,19 +312,399 @@
     <t>UTCID02</t>
   </si>
   <si>
-    <t>{3,4}</t>
-  </si>
-  <si>
-    <t>Output{}</t>
-  </si>
-  <si>
     <t>UTCID03</t>
   </si>
   <si>
-    <t>Detail</t>
-  </si>
-  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Wrong coding convention</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calculateTriangleArea(), should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alculateTriangleArea()</t>
+    </r>
+  </si>
+  <si>
+    <t>Những sai sót trong code có thể "gài" trong đề thi</t>
+  </si>
+  <si>
+    <t>1. Code sai định dạng, quy tắc đặt tên, gióng lề (lạcĐà - camel Case, Pascal Case), tên hàm ko là động từ</t>
+  </si>
+  <si>
+    <t>2. Biến trùng tên, tham số đầu vào hàm trùng tên biến trong hàm</t>
+  </si>
+  <si>
+    <t>3. Sai sót cú pháp, thiếu ; {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>5. int a = 5;  a = 10; giá trị gán 5 vô nghĩa</t>
+  </si>
+  <si>
+    <t>7. For vượt, tràn mảng, list, int a = new int[5];  -&gt; for (int I = 0; I &lt;= 5; i++) a[i]…</t>
+  </si>
+  <si>
+    <t>4. Không khởi động biến trước khi sử dụng (int a; sout(a);)    Student x;  sout(x) -&gt; null pointer</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>8. Không khai báo biến, mà lại sử dụng</t>
+  </si>
+  <si>
+    <t>TRẢ LỜI SAI, KO BỊ TRỪ ĐIỂM, NHƯNG TRẢ LỜI THIẾU, THÌ TRỪ ĐIỂM</t>
+  </si>
+  <si>
+    <t>6. Lỗi logic, tư duy viết code, vòng lặp vô tận, ko thoát đc, LỖI CHIA 0</t>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (mô tả sai cái gì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Detail </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(copy chỗ sai vào đây)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dòng bị sai code)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Input condition 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NƠI KHAI BÁO CÁC ĐẦU VÀO VÀ GIÁ TRỊ ĐẦU VÀO CỦA HÀM)</t>
+    </r>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>calculateTriangleArea(double a, double b, double)</t>
+  </si>
+  <si>
+    <t>MATH.SHAPE.TRIANGLE</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Trinh</t>
+  </si>
+  <si>
+    <t>Develop a math method to calculate the area of a triangle</t>
+  </si>
+  <si>
+    <t>valid partition</t>
+  </si>
+  <si>
+    <t>invalid partition</t>
+  </si>
+  <si>
+    <t>"Invalid triangle edges"</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>PHÂN TÍCH, LIỆT KÊ CÁC GIÁ TRỊ ĐẦU VÀO CỦA HÀM, CỦA MÀN HÌNH/CỦA APP THEO TIÊU CHÍ: EQUIVALENCE PARTITIONING (PHÂN VÙNG TƯƠNG ĐƯƠNG, VÀ THEO TIÊU CHÍ GIÁ TRỊ BIÊN (BOUNDARY VALUE)</t>
+  </si>
+  <si>
+    <t>RÁP CÁC GIÁ TRỊ ĐẦU VÀO THÀNH TEST CASE, NHƯ BÊN QUESTION 2 VỪA LÀM XONG</t>
+  </si>
+  <si>
+    <t>BookID</t>
+  </si>
+  <si>
+    <t>Book Name</t>
+  </si>
+  <si>
+    <t>Released Date</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>13 chars</t>
+  </si>
+  <si>
+    <t>&lt; 13 chars</t>
+  </si>
+  <si>
+    <t>&gt;= 14 chars</t>
+  </si>
+  <si>
+    <t>!B 1st</t>
+  </si>
+  <si>
+    <t>B  1st</t>
+  </si>
+  <si>
+    <t>B123456789000</t>
+  </si>
+  <si>
+    <t>B223456789000</t>
+  </si>
+  <si>
+    <t>A123456789000</t>
+  </si>
+  <si>
+    <t>B22345678900</t>
+  </si>
+  <si>
+    <t>Invalid Boundaries (+-1)</t>
+  </si>
+  <si>
+    <t>Valid Boundaries (+-1)</t>
+  </si>
+  <si>
+    <t>1 - 50 chars</t>
+  </si>
+  <si>
+    <t>&lt; 1 chars</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>&gt;= 51 chars</t>
+  </si>
+  <si>
+    <t>50 chars</t>
+  </si>
+  <si>
+    <t>0 char</t>
+  </si>
+  <si>
+    <t>51 chars</t>
+  </si>
+  <si>
+    <t>10 - 1000</t>
+  </si>
+  <si>
+    <t>&lt;= 9</t>
+  </si>
+  <si>
+    <t>&gt;= 1001</t>
+  </si>
+  <si>
+    <t>VP1</t>
+  </si>
+  <si>
+    <t>VP2</t>
+  </si>
+  <si>
+    <t>VP3</t>
+  </si>
+  <si>
+    <t>VP4</t>
+  </si>
+  <si>
+    <t>IP1</t>
+  </si>
+  <si>
+    <t>IP2</t>
+  </si>
+  <si>
+    <t>IP3</t>
+  </si>
+  <si>
+    <t>IP4</t>
+  </si>
+  <si>
+    <t>ỊP5</t>
+  </si>
+  <si>
+    <t>ỊP6</t>
+  </si>
+  <si>
+    <t>IP7</t>
+  </si>
+  <si>
+    <t>VB1</t>
+  </si>
+  <si>
+    <t>VB2</t>
+  </si>
+  <si>
+    <t>VB3</t>
+  </si>
+  <si>
+    <t>VB4</t>
+  </si>
+  <si>
+    <t>IB1</t>
+  </si>
+  <si>
+    <t>IB2</t>
+  </si>
+  <si>
+    <t>IB3</t>
+  </si>
+  <si>
+    <t>IB4</t>
+  </si>
+  <si>
+    <t>VP1, VP2
+VP3 
+…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID: B123456789000
+Name: 50 chars
+Desc: </t>
+  </si>
+  <si>
+    <t>The new book is saved successfully</t>
+  </si>
+  <si>
+    <t>ID: B1
+Name: 50 chars</t>
+  </si>
+  <si>
+    <t>IP1
+VP3</t>
+  </si>
+  <si>
+    <t>"Invalid ID"</t>
+  </si>
+  <si>
+    <t>Create new receipt successfully</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>User logs into system with correct role</t>
+  </si>
+  <si>
+    <t>User logs into system with the Admin role</t>
+  </si>
+  <si>
+    <t>CHỈ DẪN TỪNG BƯỚC XÀI APP, ĐƯA DATA, NHẤN NÚT…</t>
+  </si>
+  <si>
+    <t>CHUẨN BỊ NHỮNG GÌ ĐỂ CÓ THỂ ACTION ĐC CÁI MÀN HÌNH</t>
+  </si>
+  <si>
+    <t>MỤC ĐÍCH TEST CÁI GÌ, MUỐN ĐẠT ĐC GÌ Ở MÀN HÌNH CẦN TEST</t>
+  </si>
+  <si>
+    <t>1. Open the New Book form/page by clicking the [Add button]
+2. Input a valid ID: B123456789000
+3. Input a Name: 50 randomly chars
+4. Input a random Description…
+….
+xxx. Hit [Save] button</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Verify Creating a new book failed due to wrong ID</t>
+  </si>
+  <si>
+    <t>Verify Creating a new book successfully</t>
+  </si>
+  <si>
+    <t>1. Open the New Book form/page by clicking the [Add button]
+2. Input a valid ID: B1
+3. Input a Name: 50 randomly chars
+4. Input a random Description…
+….
+xxx. Hit [Save] button</t>
+  </si>
+  <si>
+    <t>TC02</t>
   </si>
 </sst>
 </file>
@@ -380,7 +715,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,13 +835,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="4"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -523,13 +851,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -578,13 +899,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -596,8 +910,161 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC00000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,8 +1143,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="66">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1133,26 +1630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1225,19 +1702,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1399,17 +1863,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1497,7 +1950,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1509,9 +1962,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1522,9 +1972,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1540,9 +1987,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1558,9 +2002,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1576,63 +2017,54 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1641,35 +2073,17 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1677,36 +2091,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,15 +2148,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1755,121 +2163,160 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1895,161 +2342,267 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="14" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="17" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2069,6 +2622,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>404485</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>93008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>578410</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>124576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17362449" y="5704099"/>
+          <a:ext cx="7489125" cy="4714405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2368,91 +2964,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="107" t="s">
+    <row r="2" spans="1:4" ht="28.8">
+      <c r="A2" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="154" t="s">
         <v>77</v>
       </c>
+      <c r="D2" s="87" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="135">
+      <c r="A3" s="104">
         <v>1</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
+      <c r="B3" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="106">
+        <v>1</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="135">
+      <c r="A4" s="104">
         <v>2</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="140"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="109"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="135">
+      <c r="A5" s="104">
         <v>3</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="140"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="109"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="135">
+      <c r="A6" s="104">
         <v>4</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="140"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="109"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="135">
+      <c r="A7" s="104">
         <v>5</v>
       </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="144"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="108"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="135">
+      <c r="A8" s="104">
         <v>6</v>
       </c>
-      <c r="B8" s="140"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="144"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="108"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="155"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="158"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="86"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="153" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D7:D8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2460,26 +3120,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
     <col min="1" max="1" width="8.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="1.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="181" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.88671875" style="181" customWidth="1"/>
     <col min="9" max="10" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="2.88671875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" style="1" customWidth="1"/>
     <col min="21" max="21" width="2.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="97"/>
+    <col min="22" max="22" width="9" style="82"/>
     <col min="23" max="23" width="24.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="1"/>
     <col min="25" max="25" width="15.109375" style="1" bestFit="1" customWidth="1"/>
@@ -3243,60 +3904,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="9.6" customHeight="1" thickBot="1">
-      <c r="A1" s="129"/>
-      <c r="B1" s="127"/>
-    </row>
-    <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="151" t="s">
+      <c r="A1" s="103"/>
+      <c r="B1" s="102"/>
+    </row>
+    <row r="2" spans="1:22" ht="33" customHeight="1">
+      <c r="A2" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="153" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="158" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="160"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="172"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="165"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -3305,1006 +3966,1279 @@
       <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="195">
-        <v>21</v>
-      </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="166" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="167">
+        <v>8</v>
+      </c>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="197">
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124">
         <v>-1</v>
       </c>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="199"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="126"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="200" t="s">
+      <c r="B5" s="120"/>
+      <c r="C5" s="170" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="170"/>
+      <c r="S5" s="170"/>
+      <c r="T5" s="170"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A6" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="200"/>
-      <c r="R5" s="200"/>
-      <c r="S5" s="200"/>
-      <c r="T5" s="200"/>
-    </row>
-    <row r="6" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A6" s="202" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="203"/>
-      <c r="C6" s="145" t="s">
+      <c r="D6" s="142"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="145" t="s">
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="146" t="s">
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="149" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="150"/>
+      <c r="P6" s="142"/>
+      <c r="Q6" s="142"/>
+      <c r="R6" s="142"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="146"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="188">
-        <f>COUNTIF(F41:HQ41,"P")</f>
+      <c r="A7" s="135">
+        <f>COUNTIF(F49:HQ49,"P")</f>
         <v>0</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="190">
-        <f>COUNTIF(F41:HQ41,"F")</f>
+      <c r="B7" s="136"/>
+      <c r="C7" s="114">
+        <f>COUNTIF(F49:HQ49,"F")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190">
+      <c r="D7" s="115"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="114">
         <f>SUM(O7,- A7,- C7)</f>
         <v>3</v>
       </c>
-      <c r="G7" s="191"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="30">
-        <f>COUNTIF(E40:HQ40,"N")</f>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="26">
+        <f>COUNTIF(E47:HQ47,"N")</f>
         <v>2</v>
       </c>
-      <c r="M7" s="30">
-        <f>COUNTIF(E40:HQ40,"A")</f>
-        <v>1</v>
-      </c>
-      <c r="N7" s="30">
-        <f>COUNTIF(E40:HQ40,"B")</f>
+      <c r="M7" s="26">
+        <f>COUNTIF(E47:HQ47,"A")</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="26">
+        <f>COUNTIF(E47:HQ47,"B")</f>
         <v>0</v>
       </c>
-      <c r="O7" s="193">
+      <c r="O7" s="117">
         <f>COUNTA(E9:HT9)</f>
         <v>3</v>
       </c>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="191"/>
-      <c r="R7" s="191"/>
-      <c r="S7" s="191"/>
-      <c r="T7" s="194"/>
-      <c r="U7" s="6"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:22" ht="10.8" thickBot="1"/>
     <row r="9" spans="1:22" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A9" s="182"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="52" t="s">
+      <c r="A9" s="129"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="182" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="83"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A10" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="98"/>
-    </row>
-    <row r="10" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A10" s="46" t="s">
+      <c r="B10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="30"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="41"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="31"/>
+      <c r="V11" s="83"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A12" s="41"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" spans="1:22" ht="34.799999999999997" customHeight="1">
+      <c r="A13" s="41"/>
+      <c r="B13" s="159" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.6" customHeight="1">
+      <c r="A14" s="41"/>
+      <c r="B14" s="178" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="173"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="31"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A15" s="177"/>
+      <c r="B15" s="179" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="31"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A16" s="177"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180">
+        <v>1</v>
+      </c>
+      <c r="E16" s="53"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="31"/>
+    </row>
+    <row r="17" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A17" s="177"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180">
+        <v>3</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="34"/>
-    </row>
-    <row r="11" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="35"/>
-      <c r="V11" s="98"/>
-    </row>
-    <row r="12" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="35"/>
-    </row>
-    <row r="13" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="35"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.6" customHeight="1">
-      <c r="A14" s="47"/>
-      <c r="B14" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="35"/>
-    </row>
-    <row r="15" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="28" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A18" s="177"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180">
+        <v>6</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="184"/>
+      <c r="I18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="31"/>
+    </row>
+    <row r="19" spans="1:21" ht="28.2" customHeight="1">
+      <c r="A19" s="177"/>
+      <c r="B19" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="179"/>
+      <c r="D19" s="193">
+        <v>0</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A20" s="177"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="184" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A21" s="177"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180">
+        <v>-5.5</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A22" s="41"/>
+      <c r="B22" s="178" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="10"/>
+    </row>
+    <row r="23" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A23" s="177"/>
+      <c r="B23" s="179" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="53"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="31"/>
+    </row>
+    <row r="24" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A24" s="177"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180">
+        <v>1</v>
+      </c>
+      <c r="E24" s="53"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="184" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="31"/>
+    </row>
+    <row r="25" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A25" s="177"/>
+      <c r="B25" s="179"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180">
+        <v>4</v>
+      </c>
+      <c r="E25" s="53"/>
+      <c r="F25" s="184" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="31"/>
+    </row>
+    <row r="26" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A26" s="177"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179"/>
+      <c r="D26" s="180">
+        <v>8</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="184"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="31"/>
+    </row>
+    <row r="27" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A27" s="177"/>
+      <c r="B27" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180">
+        <v>0</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="31"/>
+    </row>
+    <row r="28" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A28" s="177"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="180">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="111"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="31"/>
+    </row>
+    <row r="29" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A29" s="177"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180">
+        <v>-5.5</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="31"/>
+    </row>
+    <row r="30" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A30" s="41"/>
+      <c r="B30" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="175"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="10"/>
+    </row>
+    <row r="31" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A31" s="177"/>
+      <c r="B31" s="179" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="179"/>
+      <c r="D31" s="180">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" spans="1:21" ht="13.5" customHeight="1">
+      <c r="A32" s="177"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="180">
+        <v>1</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="184" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="31"/>
+    </row>
+    <row r="33" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A33" s="177"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="180">
+        <v>5</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="184" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="31"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A34" s="177"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="180">
+        <v>10</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="184"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="31"/>
+    </row>
+    <row r="35" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A35" s="177"/>
+      <c r="B35" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="179"/>
+      <c r="D35" s="180">
+        <v>0</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="31"/>
+    </row>
+    <row r="36" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A36" s="177"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="180">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="31"/>
+    </row>
+    <row r="37" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A37" s="177"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="180">
+        <v>-5.5</v>
+      </c>
+      <c r="E37" s="53"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="31"/>
+    </row>
+    <row r="38" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A38" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="62"/>
+    </row>
+    <row r="39" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A39" s="42"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="180">
+        <v>6</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="184" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="31"/>
+    </row>
+    <row r="40" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A40" s="42"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="180">
+        <v>24</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="31"/>
+    </row>
+    <row r="41" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A41" s="42"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="184"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="31"/>
+    </row>
+    <row r="42" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A42" s="42"/>
+      <c r="B42" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="184"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="31"/>
+    </row>
+    <row r="43" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A43" s="42"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="180" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="184" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="31"/>
+    </row>
+    <row r="44" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A44" s="42"/>
+      <c r="B44" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="184"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="31"/>
+    </row>
+    <row r="45" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A45" s="42"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="31"/>
+    </row>
+    <row r="46" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A46" s="43"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="186"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="69"/>
+    </row>
+    <row r="47" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A47" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="132"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="190" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="191" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="35"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A16" s="47"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="35"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="35"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="12"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="180" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="181"/>
-      <c r="F19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="35"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="174" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="175"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="35"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="176" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="177"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="35"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="47"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="35"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="35"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="35"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="35"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="35"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="35"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="35"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="35"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="36"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A31" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="75"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="35"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="35"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="35"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="35"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="35"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A37" s="48"/>
-      <c r="B37" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="35"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="35"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A39" s="49"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="82"/>
-    </row>
-    <row r="40" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A40" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="184" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="68" t="s">
+      <c r="I47" s="190" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="190" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="56"/>
+    </row>
+    <row r="48" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A48" s="42"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="190"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="190"/>
+      <c r="I48" s="190"/>
+      <c r="J48" s="190" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="56"/>
+    </row>
+    <row r="49" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A49" s="42"/>
+      <c r="B49" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="H40" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="69"/>
-    </row>
-    <row r="41" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="186" t="s">
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="32"/>
+    </row>
+    <row r="50" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A50" s="42"/>
+      <c r="B50" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="37"/>
-    </row>
-    <row r="42" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="170" t="s">
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="188"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="33"/>
+    </row>
+    <row r="51" spans="1:20" ht="10.8" thickBot="1">
+      <c r="A51" s="43"/>
+      <c r="B51" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="171"/>
-      <c r="D42" s="171"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="38"/>
-    </row>
-    <row r="43" spans="1:20" ht="10.8" thickBot="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="172" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="173"/>
-      <c r="D43" s="173"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="41"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="23"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="105" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="B48" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="32"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="189"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="189"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="36"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="20"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="B56" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B35:C37"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C21"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="A4:B4"/>
@@ -4314,39 +5248,19 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:T5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN983051:WWB983079 F65547:T65575 JB65547:JP65575 SX65547:TL65575 ACT65547:ADH65575 AMP65547:AND65575 AWL65547:AWZ65575 BGH65547:BGV65575 BQD65547:BQR65575 BZZ65547:CAN65575 CJV65547:CKJ65575 CTR65547:CUF65575 DDN65547:DEB65575 DNJ65547:DNX65575 DXF65547:DXT65575 EHB65547:EHP65575 EQX65547:ERL65575 FAT65547:FBH65575 FKP65547:FLD65575 FUL65547:FUZ65575 GEH65547:GEV65575 GOD65547:GOR65575 GXZ65547:GYN65575 HHV65547:HIJ65575 HRR65547:HSF65575 IBN65547:ICB65575 ILJ65547:ILX65575 IVF65547:IVT65575 JFB65547:JFP65575 JOX65547:JPL65575 JYT65547:JZH65575 KIP65547:KJD65575 KSL65547:KSZ65575 LCH65547:LCV65575 LMD65547:LMR65575 LVZ65547:LWN65575 MFV65547:MGJ65575 MPR65547:MQF65575 MZN65547:NAB65575 NJJ65547:NJX65575 NTF65547:NTT65575 ODB65547:ODP65575 OMX65547:ONL65575 OWT65547:OXH65575 PGP65547:PHD65575 PQL65547:PQZ65575 QAH65547:QAV65575 QKD65547:QKR65575 QTZ65547:QUN65575 RDV65547:REJ65575 RNR65547:ROF65575 RXN65547:RYB65575 SHJ65547:SHX65575 SRF65547:SRT65575 TBB65547:TBP65575 TKX65547:TLL65575 TUT65547:TVH65575 UEP65547:UFD65575 UOL65547:UOZ65575 UYH65547:UYV65575 VID65547:VIR65575 VRZ65547:VSN65575 WBV65547:WCJ65575 WLR65547:WMF65575 WVN65547:WWB65575 F131083:T131111 JB131083:JP131111 SX131083:TL131111 ACT131083:ADH131111 AMP131083:AND131111 AWL131083:AWZ131111 BGH131083:BGV131111 BQD131083:BQR131111 BZZ131083:CAN131111 CJV131083:CKJ131111 CTR131083:CUF131111 DDN131083:DEB131111 DNJ131083:DNX131111 DXF131083:DXT131111 EHB131083:EHP131111 EQX131083:ERL131111 FAT131083:FBH131111 FKP131083:FLD131111 FUL131083:FUZ131111 GEH131083:GEV131111 GOD131083:GOR131111 GXZ131083:GYN131111 HHV131083:HIJ131111 HRR131083:HSF131111 IBN131083:ICB131111 ILJ131083:ILX131111 IVF131083:IVT131111 JFB131083:JFP131111 JOX131083:JPL131111 JYT131083:JZH131111 KIP131083:KJD131111 KSL131083:KSZ131111 LCH131083:LCV131111 LMD131083:LMR131111 LVZ131083:LWN131111 MFV131083:MGJ131111 MPR131083:MQF131111 MZN131083:NAB131111 NJJ131083:NJX131111 NTF131083:NTT131111 ODB131083:ODP131111 OMX131083:ONL131111 OWT131083:OXH131111 PGP131083:PHD131111 PQL131083:PQZ131111 QAH131083:QAV131111 QKD131083:QKR131111 QTZ131083:QUN131111 RDV131083:REJ131111 RNR131083:ROF131111 RXN131083:RYB131111 SHJ131083:SHX131111 SRF131083:SRT131111 TBB131083:TBP131111 TKX131083:TLL131111 TUT131083:TVH131111 UEP131083:UFD131111 UOL131083:UOZ131111 UYH131083:UYV131111 VID131083:VIR131111 VRZ131083:VSN131111 WBV131083:WCJ131111 WLR131083:WMF131111 WVN131083:WWB131111 F196619:T196647 JB196619:JP196647 SX196619:TL196647 ACT196619:ADH196647 AMP196619:AND196647 AWL196619:AWZ196647 BGH196619:BGV196647 BQD196619:BQR196647 BZZ196619:CAN196647 CJV196619:CKJ196647 CTR196619:CUF196647 DDN196619:DEB196647 DNJ196619:DNX196647 DXF196619:DXT196647 EHB196619:EHP196647 EQX196619:ERL196647 FAT196619:FBH196647 FKP196619:FLD196647 FUL196619:FUZ196647 GEH196619:GEV196647 GOD196619:GOR196647 GXZ196619:GYN196647 HHV196619:HIJ196647 HRR196619:HSF196647 IBN196619:ICB196647 ILJ196619:ILX196647 IVF196619:IVT196647 JFB196619:JFP196647 JOX196619:JPL196647 JYT196619:JZH196647 KIP196619:KJD196647 KSL196619:KSZ196647 LCH196619:LCV196647 LMD196619:LMR196647 LVZ196619:LWN196647 MFV196619:MGJ196647 MPR196619:MQF196647 MZN196619:NAB196647 NJJ196619:NJX196647 NTF196619:NTT196647 ODB196619:ODP196647 OMX196619:ONL196647 OWT196619:OXH196647 PGP196619:PHD196647 PQL196619:PQZ196647 QAH196619:QAV196647 QKD196619:QKR196647 QTZ196619:QUN196647 RDV196619:REJ196647 RNR196619:ROF196647 RXN196619:RYB196647 SHJ196619:SHX196647 SRF196619:SRT196647 TBB196619:TBP196647 TKX196619:TLL196647 TUT196619:TVH196647 UEP196619:UFD196647 UOL196619:UOZ196647 UYH196619:UYV196647 VID196619:VIR196647 VRZ196619:VSN196647 WBV196619:WCJ196647 WLR196619:WMF196647 WVN196619:WWB196647 F262155:T262183 JB262155:JP262183 SX262155:TL262183 ACT262155:ADH262183 AMP262155:AND262183 AWL262155:AWZ262183 BGH262155:BGV262183 BQD262155:BQR262183 BZZ262155:CAN262183 CJV262155:CKJ262183 CTR262155:CUF262183 DDN262155:DEB262183 DNJ262155:DNX262183 DXF262155:DXT262183 EHB262155:EHP262183 EQX262155:ERL262183 FAT262155:FBH262183 FKP262155:FLD262183 FUL262155:FUZ262183 GEH262155:GEV262183 GOD262155:GOR262183 GXZ262155:GYN262183 HHV262155:HIJ262183 HRR262155:HSF262183 IBN262155:ICB262183 ILJ262155:ILX262183 IVF262155:IVT262183 JFB262155:JFP262183 JOX262155:JPL262183 JYT262155:JZH262183 KIP262155:KJD262183 KSL262155:KSZ262183 LCH262155:LCV262183 LMD262155:LMR262183 LVZ262155:LWN262183 MFV262155:MGJ262183 MPR262155:MQF262183 MZN262155:NAB262183 NJJ262155:NJX262183 NTF262155:NTT262183 ODB262155:ODP262183 OMX262155:ONL262183 OWT262155:OXH262183 PGP262155:PHD262183 PQL262155:PQZ262183 QAH262155:QAV262183 QKD262155:QKR262183 QTZ262155:QUN262183 RDV262155:REJ262183 RNR262155:ROF262183 RXN262155:RYB262183 SHJ262155:SHX262183 SRF262155:SRT262183 TBB262155:TBP262183 TKX262155:TLL262183 TUT262155:TVH262183 UEP262155:UFD262183 UOL262155:UOZ262183 UYH262155:UYV262183 VID262155:VIR262183 VRZ262155:VSN262183 WBV262155:WCJ262183 WLR262155:WMF262183 WVN262155:WWB262183 F327691:T327719 JB327691:JP327719 SX327691:TL327719 ACT327691:ADH327719 AMP327691:AND327719 AWL327691:AWZ327719 BGH327691:BGV327719 BQD327691:BQR327719 BZZ327691:CAN327719 CJV327691:CKJ327719 CTR327691:CUF327719 DDN327691:DEB327719 DNJ327691:DNX327719 DXF327691:DXT327719 EHB327691:EHP327719 EQX327691:ERL327719 FAT327691:FBH327719 FKP327691:FLD327719 FUL327691:FUZ327719 GEH327691:GEV327719 GOD327691:GOR327719 GXZ327691:GYN327719 HHV327691:HIJ327719 HRR327691:HSF327719 IBN327691:ICB327719 ILJ327691:ILX327719 IVF327691:IVT327719 JFB327691:JFP327719 JOX327691:JPL327719 JYT327691:JZH327719 KIP327691:KJD327719 KSL327691:KSZ327719 LCH327691:LCV327719 LMD327691:LMR327719 LVZ327691:LWN327719 MFV327691:MGJ327719 MPR327691:MQF327719 MZN327691:NAB327719 NJJ327691:NJX327719 NTF327691:NTT327719 ODB327691:ODP327719 OMX327691:ONL327719 OWT327691:OXH327719 PGP327691:PHD327719 PQL327691:PQZ327719 QAH327691:QAV327719 QKD327691:QKR327719 QTZ327691:QUN327719 RDV327691:REJ327719 RNR327691:ROF327719 RXN327691:RYB327719 SHJ327691:SHX327719 SRF327691:SRT327719 TBB327691:TBP327719 TKX327691:TLL327719 TUT327691:TVH327719 UEP327691:UFD327719 UOL327691:UOZ327719 UYH327691:UYV327719 VID327691:VIR327719 VRZ327691:VSN327719 WBV327691:WCJ327719 WLR327691:WMF327719 WVN327691:WWB327719 F393227:T393255 JB393227:JP393255 SX393227:TL393255 ACT393227:ADH393255 AMP393227:AND393255 AWL393227:AWZ393255 BGH393227:BGV393255 BQD393227:BQR393255 BZZ393227:CAN393255 CJV393227:CKJ393255 CTR393227:CUF393255 DDN393227:DEB393255 DNJ393227:DNX393255 DXF393227:DXT393255 EHB393227:EHP393255 EQX393227:ERL393255 FAT393227:FBH393255 FKP393227:FLD393255 FUL393227:FUZ393255 GEH393227:GEV393255 GOD393227:GOR393255 GXZ393227:GYN393255 HHV393227:HIJ393255 HRR393227:HSF393255 IBN393227:ICB393255 ILJ393227:ILX393255 IVF393227:IVT393255 JFB393227:JFP393255 JOX393227:JPL393255 JYT393227:JZH393255 KIP393227:KJD393255 KSL393227:KSZ393255 LCH393227:LCV393255 LMD393227:LMR393255 LVZ393227:LWN393255 MFV393227:MGJ393255 MPR393227:MQF393255 MZN393227:NAB393255 NJJ393227:NJX393255 NTF393227:NTT393255 ODB393227:ODP393255 OMX393227:ONL393255 OWT393227:OXH393255 PGP393227:PHD393255 PQL393227:PQZ393255 QAH393227:QAV393255 QKD393227:QKR393255 QTZ393227:QUN393255 RDV393227:REJ393255 RNR393227:ROF393255 RXN393227:RYB393255 SHJ393227:SHX393255 SRF393227:SRT393255 TBB393227:TBP393255 TKX393227:TLL393255 TUT393227:TVH393255 UEP393227:UFD393255 UOL393227:UOZ393255 UYH393227:UYV393255 VID393227:VIR393255 VRZ393227:VSN393255 WBV393227:WCJ393255 WLR393227:WMF393255 WVN393227:WWB393255 F458763:T458791 JB458763:JP458791 SX458763:TL458791 ACT458763:ADH458791 AMP458763:AND458791 AWL458763:AWZ458791 BGH458763:BGV458791 BQD458763:BQR458791 BZZ458763:CAN458791 CJV458763:CKJ458791 CTR458763:CUF458791 DDN458763:DEB458791 DNJ458763:DNX458791 DXF458763:DXT458791 EHB458763:EHP458791 EQX458763:ERL458791 FAT458763:FBH458791 FKP458763:FLD458791 FUL458763:FUZ458791 GEH458763:GEV458791 GOD458763:GOR458791 GXZ458763:GYN458791 HHV458763:HIJ458791 HRR458763:HSF458791 IBN458763:ICB458791 ILJ458763:ILX458791 IVF458763:IVT458791 JFB458763:JFP458791 JOX458763:JPL458791 JYT458763:JZH458791 KIP458763:KJD458791 KSL458763:KSZ458791 LCH458763:LCV458791 LMD458763:LMR458791 LVZ458763:LWN458791 MFV458763:MGJ458791 MPR458763:MQF458791 MZN458763:NAB458791 NJJ458763:NJX458791 NTF458763:NTT458791 ODB458763:ODP458791 OMX458763:ONL458791 OWT458763:OXH458791 PGP458763:PHD458791 PQL458763:PQZ458791 QAH458763:QAV458791 QKD458763:QKR458791 QTZ458763:QUN458791 RDV458763:REJ458791 RNR458763:ROF458791 RXN458763:RYB458791 SHJ458763:SHX458791 SRF458763:SRT458791 TBB458763:TBP458791 TKX458763:TLL458791 TUT458763:TVH458791 UEP458763:UFD458791 UOL458763:UOZ458791 UYH458763:UYV458791 VID458763:VIR458791 VRZ458763:VSN458791 WBV458763:WCJ458791 WLR458763:WMF458791 WVN458763:WWB458791 F524299:T524327 JB524299:JP524327 SX524299:TL524327 ACT524299:ADH524327 AMP524299:AND524327 AWL524299:AWZ524327 BGH524299:BGV524327 BQD524299:BQR524327 BZZ524299:CAN524327 CJV524299:CKJ524327 CTR524299:CUF524327 DDN524299:DEB524327 DNJ524299:DNX524327 DXF524299:DXT524327 EHB524299:EHP524327 EQX524299:ERL524327 FAT524299:FBH524327 FKP524299:FLD524327 FUL524299:FUZ524327 GEH524299:GEV524327 GOD524299:GOR524327 GXZ524299:GYN524327 HHV524299:HIJ524327 HRR524299:HSF524327 IBN524299:ICB524327 ILJ524299:ILX524327 IVF524299:IVT524327 JFB524299:JFP524327 JOX524299:JPL524327 JYT524299:JZH524327 KIP524299:KJD524327 KSL524299:KSZ524327 LCH524299:LCV524327 LMD524299:LMR524327 LVZ524299:LWN524327 MFV524299:MGJ524327 MPR524299:MQF524327 MZN524299:NAB524327 NJJ524299:NJX524327 NTF524299:NTT524327 ODB524299:ODP524327 OMX524299:ONL524327 OWT524299:OXH524327 PGP524299:PHD524327 PQL524299:PQZ524327 QAH524299:QAV524327 QKD524299:QKR524327 QTZ524299:QUN524327 RDV524299:REJ524327 RNR524299:ROF524327 RXN524299:RYB524327 SHJ524299:SHX524327 SRF524299:SRT524327 TBB524299:TBP524327 TKX524299:TLL524327 TUT524299:TVH524327 UEP524299:UFD524327 UOL524299:UOZ524327 UYH524299:UYV524327 VID524299:VIR524327 VRZ524299:VSN524327 WBV524299:WCJ524327 WLR524299:WMF524327 WVN524299:WWB524327 F589835:T589863 JB589835:JP589863 SX589835:TL589863 ACT589835:ADH589863 AMP589835:AND589863 AWL589835:AWZ589863 BGH589835:BGV589863 BQD589835:BQR589863 BZZ589835:CAN589863 CJV589835:CKJ589863 CTR589835:CUF589863 DDN589835:DEB589863 DNJ589835:DNX589863 DXF589835:DXT589863 EHB589835:EHP589863 EQX589835:ERL589863 FAT589835:FBH589863 FKP589835:FLD589863 FUL589835:FUZ589863 GEH589835:GEV589863 GOD589835:GOR589863 GXZ589835:GYN589863 HHV589835:HIJ589863 HRR589835:HSF589863 IBN589835:ICB589863 ILJ589835:ILX589863 IVF589835:IVT589863 JFB589835:JFP589863 JOX589835:JPL589863 JYT589835:JZH589863 KIP589835:KJD589863 KSL589835:KSZ589863 LCH589835:LCV589863 LMD589835:LMR589863 LVZ589835:LWN589863 MFV589835:MGJ589863 MPR589835:MQF589863 MZN589835:NAB589863 NJJ589835:NJX589863 NTF589835:NTT589863 ODB589835:ODP589863 OMX589835:ONL589863 OWT589835:OXH589863 PGP589835:PHD589863 PQL589835:PQZ589863 QAH589835:QAV589863 QKD589835:QKR589863 QTZ589835:QUN589863 RDV589835:REJ589863 RNR589835:ROF589863 RXN589835:RYB589863 SHJ589835:SHX589863 SRF589835:SRT589863 TBB589835:TBP589863 TKX589835:TLL589863 TUT589835:TVH589863 UEP589835:UFD589863 UOL589835:UOZ589863 UYH589835:UYV589863 VID589835:VIR589863 VRZ589835:VSN589863 WBV589835:WCJ589863 WLR589835:WMF589863 WVN589835:WWB589863 F655371:T655399 JB655371:JP655399 SX655371:TL655399 ACT655371:ADH655399 AMP655371:AND655399 AWL655371:AWZ655399 BGH655371:BGV655399 BQD655371:BQR655399 BZZ655371:CAN655399 CJV655371:CKJ655399 CTR655371:CUF655399 DDN655371:DEB655399 DNJ655371:DNX655399 DXF655371:DXT655399 EHB655371:EHP655399 EQX655371:ERL655399 FAT655371:FBH655399 FKP655371:FLD655399 FUL655371:FUZ655399 GEH655371:GEV655399 GOD655371:GOR655399 GXZ655371:GYN655399 HHV655371:HIJ655399 HRR655371:HSF655399 IBN655371:ICB655399 ILJ655371:ILX655399 IVF655371:IVT655399 JFB655371:JFP655399 JOX655371:JPL655399 JYT655371:JZH655399 KIP655371:KJD655399 KSL655371:KSZ655399 LCH655371:LCV655399 LMD655371:LMR655399 LVZ655371:LWN655399 MFV655371:MGJ655399 MPR655371:MQF655399 MZN655371:NAB655399 NJJ655371:NJX655399 NTF655371:NTT655399 ODB655371:ODP655399 OMX655371:ONL655399 OWT655371:OXH655399 PGP655371:PHD655399 PQL655371:PQZ655399 QAH655371:QAV655399 QKD655371:QKR655399 QTZ655371:QUN655399 RDV655371:REJ655399 RNR655371:ROF655399 RXN655371:RYB655399 SHJ655371:SHX655399 SRF655371:SRT655399 TBB655371:TBP655399 TKX655371:TLL655399 TUT655371:TVH655399 UEP655371:UFD655399 UOL655371:UOZ655399 UYH655371:UYV655399 VID655371:VIR655399 VRZ655371:VSN655399 WBV655371:WCJ655399 WLR655371:WMF655399 WVN655371:WWB655399 F720907:T720935 JB720907:JP720935 SX720907:TL720935 ACT720907:ADH720935 AMP720907:AND720935 AWL720907:AWZ720935 BGH720907:BGV720935 BQD720907:BQR720935 BZZ720907:CAN720935 CJV720907:CKJ720935 CTR720907:CUF720935 DDN720907:DEB720935 DNJ720907:DNX720935 DXF720907:DXT720935 EHB720907:EHP720935 EQX720907:ERL720935 FAT720907:FBH720935 FKP720907:FLD720935 FUL720907:FUZ720935 GEH720907:GEV720935 GOD720907:GOR720935 GXZ720907:GYN720935 HHV720907:HIJ720935 HRR720907:HSF720935 IBN720907:ICB720935 ILJ720907:ILX720935 IVF720907:IVT720935 JFB720907:JFP720935 JOX720907:JPL720935 JYT720907:JZH720935 KIP720907:KJD720935 KSL720907:KSZ720935 LCH720907:LCV720935 LMD720907:LMR720935 LVZ720907:LWN720935 MFV720907:MGJ720935 MPR720907:MQF720935 MZN720907:NAB720935 NJJ720907:NJX720935 NTF720907:NTT720935 ODB720907:ODP720935 OMX720907:ONL720935 OWT720907:OXH720935 PGP720907:PHD720935 PQL720907:PQZ720935 QAH720907:QAV720935 QKD720907:QKR720935 QTZ720907:QUN720935 RDV720907:REJ720935 RNR720907:ROF720935 RXN720907:RYB720935 SHJ720907:SHX720935 SRF720907:SRT720935 TBB720907:TBP720935 TKX720907:TLL720935 TUT720907:TVH720935 UEP720907:UFD720935 UOL720907:UOZ720935 UYH720907:UYV720935 VID720907:VIR720935 VRZ720907:VSN720935 WBV720907:WCJ720935 WLR720907:WMF720935 WVN720907:WWB720935 F786443:T786471 JB786443:JP786471 SX786443:TL786471 ACT786443:ADH786471 AMP786443:AND786471 AWL786443:AWZ786471 BGH786443:BGV786471 BQD786443:BQR786471 BZZ786443:CAN786471 CJV786443:CKJ786471 CTR786443:CUF786471 DDN786443:DEB786471 DNJ786443:DNX786471 DXF786443:DXT786471 EHB786443:EHP786471 EQX786443:ERL786471 FAT786443:FBH786471 FKP786443:FLD786471 FUL786443:FUZ786471 GEH786443:GEV786471 GOD786443:GOR786471 GXZ786443:GYN786471 HHV786443:HIJ786471 HRR786443:HSF786471 IBN786443:ICB786471 ILJ786443:ILX786471 IVF786443:IVT786471 JFB786443:JFP786471 JOX786443:JPL786471 JYT786443:JZH786471 KIP786443:KJD786471 KSL786443:KSZ786471 LCH786443:LCV786471 LMD786443:LMR786471 LVZ786443:LWN786471 MFV786443:MGJ786471 MPR786443:MQF786471 MZN786443:NAB786471 NJJ786443:NJX786471 NTF786443:NTT786471 ODB786443:ODP786471 OMX786443:ONL786471 OWT786443:OXH786471 PGP786443:PHD786471 PQL786443:PQZ786471 QAH786443:QAV786471 QKD786443:QKR786471 QTZ786443:QUN786471 RDV786443:REJ786471 RNR786443:ROF786471 RXN786443:RYB786471 SHJ786443:SHX786471 SRF786443:SRT786471 TBB786443:TBP786471 TKX786443:TLL786471 TUT786443:TVH786471 UEP786443:UFD786471 UOL786443:UOZ786471 UYH786443:UYV786471 VID786443:VIR786471 VRZ786443:VSN786471 WBV786443:WCJ786471 WLR786443:WMF786471 WVN786443:WWB786471 F851979:T852007 JB851979:JP852007 SX851979:TL852007 ACT851979:ADH852007 AMP851979:AND852007 AWL851979:AWZ852007 BGH851979:BGV852007 BQD851979:BQR852007 BZZ851979:CAN852007 CJV851979:CKJ852007 CTR851979:CUF852007 DDN851979:DEB852007 DNJ851979:DNX852007 DXF851979:DXT852007 EHB851979:EHP852007 EQX851979:ERL852007 FAT851979:FBH852007 FKP851979:FLD852007 FUL851979:FUZ852007 GEH851979:GEV852007 GOD851979:GOR852007 GXZ851979:GYN852007 HHV851979:HIJ852007 HRR851979:HSF852007 IBN851979:ICB852007 ILJ851979:ILX852007 IVF851979:IVT852007 JFB851979:JFP852007 JOX851979:JPL852007 JYT851979:JZH852007 KIP851979:KJD852007 KSL851979:KSZ852007 LCH851979:LCV852007 LMD851979:LMR852007 LVZ851979:LWN852007 MFV851979:MGJ852007 MPR851979:MQF852007 MZN851979:NAB852007 NJJ851979:NJX852007 NTF851979:NTT852007 ODB851979:ODP852007 OMX851979:ONL852007 OWT851979:OXH852007 PGP851979:PHD852007 PQL851979:PQZ852007 QAH851979:QAV852007 QKD851979:QKR852007 QTZ851979:QUN852007 RDV851979:REJ852007 RNR851979:ROF852007 RXN851979:RYB852007 SHJ851979:SHX852007 SRF851979:SRT852007 TBB851979:TBP852007 TKX851979:TLL852007 TUT851979:TVH852007 UEP851979:UFD852007 UOL851979:UOZ852007 UYH851979:UYV852007 VID851979:VIR852007 VRZ851979:VSN852007 WBV851979:WCJ852007 WLR851979:WMF852007 WVN851979:WWB852007 F917515:T917543 JB917515:JP917543 SX917515:TL917543 ACT917515:ADH917543 AMP917515:AND917543 AWL917515:AWZ917543 BGH917515:BGV917543 BQD917515:BQR917543 BZZ917515:CAN917543 CJV917515:CKJ917543 CTR917515:CUF917543 DDN917515:DEB917543 DNJ917515:DNX917543 DXF917515:DXT917543 EHB917515:EHP917543 EQX917515:ERL917543 FAT917515:FBH917543 FKP917515:FLD917543 FUL917515:FUZ917543 GEH917515:GEV917543 GOD917515:GOR917543 GXZ917515:GYN917543 HHV917515:HIJ917543 HRR917515:HSF917543 IBN917515:ICB917543 ILJ917515:ILX917543 IVF917515:IVT917543 JFB917515:JFP917543 JOX917515:JPL917543 JYT917515:JZH917543 KIP917515:KJD917543 KSL917515:KSZ917543 LCH917515:LCV917543 LMD917515:LMR917543 LVZ917515:LWN917543 MFV917515:MGJ917543 MPR917515:MQF917543 MZN917515:NAB917543 NJJ917515:NJX917543 NTF917515:NTT917543 ODB917515:ODP917543 OMX917515:ONL917543 OWT917515:OXH917543 PGP917515:PHD917543 PQL917515:PQZ917543 QAH917515:QAV917543 QKD917515:QKR917543 QTZ917515:QUN917543 RDV917515:REJ917543 RNR917515:ROF917543 RXN917515:RYB917543 SHJ917515:SHX917543 SRF917515:SRT917543 TBB917515:TBP917543 TKX917515:TLL917543 TUT917515:TVH917543 UEP917515:UFD917543 UOL917515:UOZ917543 UYH917515:UYV917543 VID917515:VIR917543 VRZ917515:VSN917543 WBV917515:WCJ917543 WLR917515:WMF917543 WVN917515:WWB917543 F983051:T983079 JB983051:JP983079 SX983051:TL983079 ACT983051:ADH983079 AMP983051:AND983079 AWL983051:AWZ983079 BGH983051:BGV983079 BQD983051:BQR983079 BZZ983051:CAN983079 CJV983051:CKJ983079 CTR983051:CUF983079 DDN983051:DEB983079 DNJ983051:DNX983079 DXF983051:DXT983079 EHB983051:EHP983079 EQX983051:ERL983079 FAT983051:FBH983079 FKP983051:FLD983079 FUL983051:FUZ983079 GEH983051:GEV983079 GOD983051:GOR983079 GXZ983051:GYN983079 HHV983051:HIJ983079 HRR983051:HSF983079 IBN983051:ICB983079 ILJ983051:ILX983079 IVF983051:IVT983079 JFB983051:JFP983079 JOX983051:JPL983079 JYT983051:JZH983079 KIP983051:KJD983079 KSL983051:KSZ983079 LCH983051:LCV983079 LMD983051:LMR983079 LVZ983051:LWN983079 MFV983051:MGJ983079 MPR983051:MQF983079 MZN983051:NAB983079 NJJ983051:NJX983079 NTF983051:NTT983079 ODB983051:ODP983079 OMX983051:ONL983079 OWT983051:OXH983079 PGP983051:PHD983079 PQL983051:PQZ983079 QAH983051:QAV983079 QKD983051:QKR983079 QTZ983051:QUN983079 RDV983051:REJ983079 RNR983051:ROF983079 RXN983051:RYB983079 SHJ983051:SHX983079 SRF983051:SRT983079 TBB983051:TBP983079 TKX983051:TLL983079 TUT983051:TVH983079 UEP983051:UFD983079 UOL983051:UOZ983079 UYH983051:UYV983079 VID983051:VIR983079 VRZ983051:VSN983079 WBV983051:WCJ983079 WLR983051:WMF983079 JB10:JP39 WVN10:WWB39 WLR10:WMF39 WBV10:WCJ39 VRZ10:VSN39 VID10:VIR39 UYH10:UYV39 UOL10:UOZ39 UEP10:UFD39 TUT10:TVH39 TKX10:TLL39 TBB10:TBP39 SRF10:SRT39 SHJ10:SHX39 RXN10:RYB39 RNR10:ROF39 RDV10:REJ39 QTZ10:QUN39 QKD10:QKR39 QAH10:QAV39 PQL10:PQZ39 PGP10:PHD39 OWT10:OXH39 OMX10:ONL39 ODB10:ODP39 NTF10:NTT39 NJJ10:NJX39 MZN10:NAB39 MPR10:MQF39 MFV10:MGJ39 LVZ10:LWN39 LMD10:LMR39 LCH10:LCV39 KSL10:KSZ39 KIP10:KJD39 JYT10:JZH39 JOX10:JPL39 JFB10:JFP39 IVF10:IVT39 ILJ10:ILX39 IBN10:ICB39 HRR10:HSF39 HHV10:HIJ39 GXZ10:GYN39 GOD10:GOR39 GEH10:GEV39 FUL10:FUZ39 FKP10:FLD39 FAT10:FBH39 EQX10:ERL39 EHB10:EHP39 DXF10:DXT39 DNJ10:DNX39 DDN10:DEB39 CTR10:CUF39 CJV10:CKJ39 BZZ10:CAN39 BQD10:BQR39 BGH10:BGV39 AWL10:AWZ39 AMP10:AND39 ACT10:ADH39 SX10:TL39 H34 F10:T32 F35:T39 F33:G34 I33:T34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN983059:WWB983087 F65555:T65583 JB65555:JP65583 SX65555:TL65583 ACT65555:ADH65583 AMP65555:AND65583 AWL65555:AWZ65583 BGH65555:BGV65583 BQD65555:BQR65583 BZZ65555:CAN65583 CJV65555:CKJ65583 CTR65555:CUF65583 DDN65555:DEB65583 DNJ65555:DNX65583 DXF65555:DXT65583 EHB65555:EHP65583 EQX65555:ERL65583 FAT65555:FBH65583 FKP65555:FLD65583 FUL65555:FUZ65583 GEH65555:GEV65583 GOD65555:GOR65583 GXZ65555:GYN65583 HHV65555:HIJ65583 HRR65555:HSF65583 IBN65555:ICB65583 ILJ65555:ILX65583 IVF65555:IVT65583 JFB65555:JFP65583 JOX65555:JPL65583 JYT65555:JZH65583 KIP65555:KJD65583 KSL65555:KSZ65583 LCH65555:LCV65583 LMD65555:LMR65583 LVZ65555:LWN65583 MFV65555:MGJ65583 MPR65555:MQF65583 MZN65555:NAB65583 NJJ65555:NJX65583 NTF65555:NTT65583 ODB65555:ODP65583 OMX65555:ONL65583 OWT65555:OXH65583 PGP65555:PHD65583 PQL65555:PQZ65583 QAH65555:QAV65583 QKD65555:QKR65583 QTZ65555:QUN65583 RDV65555:REJ65583 RNR65555:ROF65583 RXN65555:RYB65583 SHJ65555:SHX65583 SRF65555:SRT65583 TBB65555:TBP65583 TKX65555:TLL65583 TUT65555:TVH65583 UEP65555:UFD65583 UOL65555:UOZ65583 UYH65555:UYV65583 VID65555:VIR65583 VRZ65555:VSN65583 WBV65555:WCJ65583 WLR65555:WMF65583 WVN65555:WWB65583 F131091:T131119 JB131091:JP131119 SX131091:TL131119 ACT131091:ADH131119 AMP131091:AND131119 AWL131091:AWZ131119 BGH131091:BGV131119 BQD131091:BQR131119 BZZ131091:CAN131119 CJV131091:CKJ131119 CTR131091:CUF131119 DDN131091:DEB131119 DNJ131091:DNX131119 DXF131091:DXT131119 EHB131091:EHP131119 EQX131091:ERL131119 FAT131091:FBH131119 FKP131091:FLD131119 FUL131091:FUZ131119 GEH131091:GEV131119 GOD131091:GOR131119 GXZ131091:GYN131119 HHV131091:HIJ131119 HRR131091:HSF131119 IBN131091:ICB131119 ILJ131091:ILX131119 IVF131091:IVT131119 JFB131091:JFP131119 JOX131091:JPL131119 JYT131091:JZH131119 KIP131091:KJD131119 KSL131091:KSZ131119 LCH131091:LCV131119 LMD131091:LMR131119 LVZ131091:LWN131119 MFV131091:MGJ131119 MPR131091:MQF131119 MZN131091:NAB131119 NJJ131091:NJX131119 NTF131091:NTT131119 ODB131091:ODP131119 OMX131091:ONL131119 OWT131091:OXH131119 PGP131091:PHD131119 PQL131091:PQZ131119 QAH131091:QAV131119 QKD131091:QKR131119 QTZ131091:QUN131119 RDV131091:REJ131119 RNR131091:ROF131119 RXN131091:RYB131119 SHJ131091:SHX131119 SRF131091:SRT131119 TBB131091:TBP131119 TKX131091:TLL131119 TUT131091:TVH131119 UEP131091:UFD131119 UOL131091:UOZ131119 UYH131091:UYV131119 VID131091:VIR131119 VRZ131091:VSN131119 WBV131091:WCJ131119 WLR131091:WMF131119 WVN131091:WWB131119 F196627:T196655 JB196627:JP196655 SX196627:TL196655 ACT196627:ADH196655 AMP196627:AND196655 AWL196627:AWZ196655 BGH196627:BGV196655 BQD196627:BQR196655 BZZ196627:CAN196655 CJV196627:CKJ196655 CTR196627:CUF196655 DDN196627:DEB196655 DNJ196627:DNX196655 DXF196627:DXT196655 EHB196627:EHP196655 EQX196627:ERL196655 FAT196627:FBH196655 FKP196627:FLD196655 FUL196627:FUZ196655 GEH196627:GEV196655 GOD196627:GOR196655 GXZ196627:GYN196655 HHV196627:HIJ196655 HRR196627:HSF196655 IBN196627:ICB196655 ILJ196627:ILX196655 IVF196627:IVT196655 JFB196627:JFP196655 JOX196627:JPL196655 JYT196627:JZH196655 KIP196627:KJD196655 KSL196627:KSZ196655 LCH196627:LCV196655 LMD196627:LMR196655 LVZ196627:LWN196655 MFV196627:MGJ196655 MPR196627:MQF196655 MZN196627:NAB196655 NJJ196627:NJX196655 NTF196627:NTT196655 ODB196627:ODP196655 OMX196627:ONL196655 OWT196627:OXH196655 PGP196627:PHD196655 PQL196627:PQZ196655 QAH196627:QAV196655 QKD196627:QKR196655 QTZ196627:QUN196655 RDV196627:REJ196655 RNR196627:ROF196655 RXN196627:RYB196655 SHJ196627:SHX196655 SRF196627:SRT196655 TBB196627:TBP196655 TKX196627:TLL196655 TUT196627:TVH196655 UEP196627:UFD196655 UOL196627:UOZ196655 UYH196627:UYV196655 VID196627:VIR196655 VRZ196627:VSN196655 WBV196627:WCJ196655 WLR196627:WMF196655 WVN196627:WWB196655 F262163:T262191 JB262163:JP262191 SX262163:TL262191 ACT262163:ADH262191 AMP262163:AND262191 AWL262163:AWZ262191 BGH262163:BGV262191 BQD262163:BQR262191 BZZ262163:CAN262191 CJV262163:CKJ262191 CTR262163:CUF262191 DDN262163:DEB262191 DNJ262163:DNX262191 DXF262163:DXT262191 EHB262163:EHP262191 EQX262163:ERL262191 FAT262163:FBH262191 FKP262163:FLD262191 FUL262163:FUZ262191 GEH262163:GEV262191 GOD262163:GOR262191 GXZ262163:GYN262191 HHV262163:HIJ262191 HRR262163:HSF262191 IBN262163:ICB262191 ILJ262163:ILX262191 IVF262163:IVT262191 JFB262163:JFP262191 JOX262163:JPL262191 JYT262163:JZH262191 KIP262163:KJD262191 KSL262163:KSZ262191 LCH262163:LCV262191 LMD262163:LMR262191 LVZ262163:LWN262191 MFV262163:MGJ262191 MPR262163:MQF262191 MZN262163:NAB262191 NJJ262163:NJX262191 NTF262163:NTT262191 ODB262163:ODP262191 OMX262163:ONL262191 OWT262163:OXH262191 PGP262163:PHD262191 PQL262163:PQZ262191 QAH262163:QAV262191 QKD262163:QKR262191 QTZ262163:QUN262191 RDV262163:REJ262191 RNR262163:ROF262191 RXN262163:RYB262191 SHJ262163:SHX262191 SRF262163:SRT262191 TBB262163:TBP262191 TKX262163:TLL262191 TUT262163:TVH262191 UEP262163:UFD262191 UOL262163:UOZ262191 UYH262163:UYV262191 VID262163:VIR262191 VRZ262163:VSN262191 WBV262163:WCJ262191 WLR262163:WMF262191 WVN262163:WWB262191 F327699:T327727 JB327699:JP327727 SX327699:TL327727 ACT327699:ADH327727 AMP327699:AND327727 AWL327699:AWZ327727 BGH327699:BGV327727 BQD327699:BQR327727 BZZ327699:CAN327727 CJV327699:CKJ327727 CTR327699:CUF327727 DDN327699:DEB327727 DNJ327699:DNX327727 DXF327699:DXT327727 EHB327699:EHP327727 EQX327699:ERL327727 FAT327699:FBH327727 FKP327699:FLD327727 FUL327699:FUZ327727 GEH327699:GEV327727 GOD327699:GOR327727 GXZ327699:GYN327727 HHV327699:HIJ327727 HRR327699:HSF327727 IBN327699:ICB327727 ILJ327699:ILX327727 IVF327699:IVT327727 JFB327699:JFP327727 JOX327699:JPL327727 JYT327699:JZH327727 KIP327699:KJD327727 KSL327699:KSZ327727 LCH327699:LCV327727 LMD327699:LMR327727 LVZ327699:LWN327727 MFV327699:MGJ327727 MPR327699:MQF327727 MZN327699:NAB327727 NJJ327699:NJX327727 NTF327699:NTT327727 ODB327699:ODP327727 OMX327699:ONL327727 OWT327699:OXH327727 PGP327699:PHD327727 PQL327699:PQZ327727 QAH327699:QAV327727 QKD327699:QKR327727 QTZ327699:QUN327727 RDV327699:REJ327727 RNR327699:ROF327727 RXN327699:RYB327727 SHJ327699:SHX327727 SRF327699:SRT327727 TBB327699:TBP327727 TKX327699:TLL327727 TUT327699:TVH327727 UEP327699:UFD327727 UOL327699:UOZ327727 UYH327699:UYV327727 VID327699:VIR327727 VRZ327699:VSN327727 WBV327699:WCJ327727 WLR327699:WMF327727 WVN327699:WWB327727 F393235:T393263 JB393235:JP393263 SX393235:TL393263 ACT393235:ADH393263 AMP393235:AND393263 AWL393235:AWZ393263 BGH393235:BGV393263 BQD393235:BQR393263 BZZ393235:CAN393263 CJV393235:CKJ393263 CTR393235:CUF393263 DDN393235:DEB393263 DNJ393235:DNX393263 DXF393235:DXT393263 EHB393235:EHP393263 EQX393235:ERL393263 FAT393235:FBH393263 FKP393235:FLD393263 FUL393235:FUZ393263 GEH393235:GEV393263 GOD393235:GOR393263 GXZ393235:GYN393263 HHV393235:HIJ393263 HRR393235:HSF393263 IBN393235:ICB393263 ILJ393235:ILX393263 IVF393235:IVT393263 JFB393235:JFP393263 JOX393235:JPL393263 JYT393235:JZH393263 KIP393235:KJD393263 KSL393235:KSZ393263 LCH393235:LCV393263 LMD393235:LMR393263 LVZ393235:LWN393263 MFV393235:MGJ393263 MPR393235:MQF393263 MZN393235:NAB393263 NJJ393235:NJX393263 NTF393235:NTT393263 ODB393235:ODP393263 OMX393235:ONL393263 OWT393235:OXH393263 PGP393235:PHD393263 PQL393235:PQZ393263 QAH393235:QAV393263 QKD393235:QKR393263 QTZ393235:QUN393263 RDV393235:REJ393263 RNR393235:ROF393263 RXN393235:RYB393263 SHJ393235:SHX393263 SRF393235:SRT393263 TBB393235:TBP393263 TKX393235:TLL393263 TUT393235:TVH393263 UEP393235:UFD393263 UOL393235:UOZ393263 UYH393235:UYV393263 VID393235:VIR393263 VRZ393235:VSN393263 WBV393235:WCJ393263 WLR393235:WMF393263 WVN393235:WWB393263 F458771:T458799 JB458771:JP458799 SX458771:TL458799 ACT458771:ADH458799 AMP458771:AND458799 AWL458771:AWZ458799 BGH458771:BGV458799 BQD458771:BQR458799 BZZ458771:CAN458799 CJV458771:CKJ458799 CTR458771:CUF458799 DDN458771:DEB458799 DNJ458771:DNX458799 DXF458771:DXT458799 EHB458771:EHP458799 EQX458771:ERL458799 FAT458771:FBH458799 FKP458771:FLD458799 FUL458771:FUZ458799 GEH458771:GEV458799 GOD458771:GOR458799 GXZ458771:GYN458799 HHV458771:HIJ458799 HRR458771:HSF458799 IBN458771:ICB458799 ILJ458771:ILX458799 IVF458771:IVT458799 JFB458771:JFP458799 JOX458771:JPL458799 JYT458771:JZH458799 KIP458771:KJD458799 KSL458771:KSZ458799 LCH458771:LCV458799 LMD458771:LMR458799 LVZ458771:LWN458799 MFV458771:MGJ458799 MPR458771:MQF458799 MZN458771:NAB458799 NJJ458771:NJX458799 NTF458771:NTT458799 ODB458771:ODP458799 OMX458771:ONL458799 OWT458771:OXH458799 PGP458771:PHD458799 PQL458771:PQZ458799 QAH458771:QAV458799 QKD458771:QKR458799 QTZ458771:QUN458799 RDV458771:REJ458799 RNR458771:ROF458799 RXN458771:RYB458799 SHJ458771:SHX458799 SRF458771:SRT458799 TBB458771:TBP458799 TKX458771:TLL458799 TUT458771:TVH458799 UEP458771:UFD458799 UOL458771:UOZ458799 UYH458771:UYV458799 VID458771:VIR458799 VRZ458771:VSN458799 WBV458771:WCJ458799 WLR458771:WMF458799 WVN458771:WWB458799 F524307:T524335 JB524307:JP524335 SX524307:TL524335 ACT524307:ADH524335 AMP524307:AND524335 AWL524307:AWZ524335 BGH524307:BGV524335 BQD524307:BQR524335 BZZ524307:CAN524335 CJV524307:CKJ524335 CTR524307:CUF524335 DDN524307:DEB524335 DNJ524307:DNX524335 DXF524307:DXT524335 EHB524307:EHP524335 EQX524307:ERL524335 FAT524307:FBH524335 FKP524307:FLD524335 FUL524307:FUZ524335 GEH524307:GEV524335 GOD524307:GOR524335 GXZ524307:GYN524335 HHV524307:HIJ524335 HRR524307:HSF524335 IBN524307:ICB524335 ILJ524307:ILX524335 IVF524307:IVT524335 JFB524307:JFP524335 JOX524307:JPL524335 JYT524307:JZH524335 KIP524307:KJD524335 KSL524307:KSZ524335 LCH524307:LCV524335 LMD524307:LMR524335 LVZ524307:LWN524335 MFV524307:MGJ524335 MPR524307:MQF524335 MZN524307:NAB524335 NJJ524307:NJX524335 NTF524307:NTT524335 ODB524307:ODP524335 OMX524307:ONL524335 OWT524307:OXH524335 PGP524307:PHD524335 PQL524307:PQZ524335 QAH524307:QAV524335 QKD524307:QKR524335 QTZ524307:QUN524335 RDV524307:REJ524335 RNR524307:ROF524335 RXN524307:RYB524335 SHJ524307:SHX524335 SRF524307:SRT524335 TBB524307:TBP524335 TKX524307:TLL524335 TUT524307:TVH524335 UEP524307:UFD524335 UOL524307:UOZ524335 UYH524307:UYV524335 VID524307:VIR524335 VRZ524307:VSN524335 WBV524307:WCJ524335 WLR524307:WMF524335 WVN524307:WWB524335 F589843:T589871 JB589843:JP589871 SX589843:TL589871 ACT589843:ADH589871 AMP589843:AND589871 AWL589843:AWZ589871 BGH589843:BGV589871 BQD589843:BQR589871 BZZ589843:CAN589871 CJV589843:CKJ589871 CTR589843:CUF589871 DDN589843:DEB589871 DNJ589843:DNX589871 DXF589843:DXT589871 EHB589843:EHP589871 EQX589843:ERL589871 FAT589843:FBH589871 FKP589843:FLD589871 FUL589843:FUZ589871 GEH589843:GEV589871 GOD589843:GOR589871 GXZ589843:GYN589871 HHV589843:HIJ589871 HRR589843:HSF589871 IBN589843:ICB589871 ILJ589843:ILX589871 IVF589843:IVT589871 JFB589843:JFP589871 JOX589843:JPL589871 JYT589843:JZH589871 KIP589843:KJD589871 KSL589843:KSZ589871 LCH589843:LCV589871 LMD589843:LMR589871 LVZ589843:LWN589871 MFV589843:MGJ589871 MPR589843:MQF589871 MZN589843:NAB589871 NJJ589843:NJX589871 NTF589843:NTT589871 ODB589843:ODP589871 OMX589843:ONL589871 OWT589843:OXH589871 PGP589843:PHD589871 PQL589843:PQZ589871 QAH589843:QAV589871 QKD589843:QKR589871 QTZ589843:QUN589871 RDV589843:REJ589871 RNR589843:ROF589871 RXN589843:RYB589871 SHJ589843:SHX589871 SRF589843:SRT589871 TBB589843:TBP589871 TKX589843:TLL589871 TUT589843:TVH589871 UEP589843:UFD589871 UOL589843:UOZ589871 UYH589843:UYV589871 VID589843:VIR589871 VRZ589843:VSN589871 WBV589843:WCJ589871 WLR589843:WMF589871 WVN589843:WWB589871 F655379:T655407 JB655379:JP655407 SX655379:TL655407 ACT655379:ADH655407 AMP655379:AND655407 AWL655379:AWZ655407 BGH655379:BGV655407 BQD655379:BQR655407 BZZ655379:CAN655407 CJV655379:CKJ655407 CTR655379:CUF655407 DDN655379:DEB655407 DNJ655379:DNX655407 DXF655379:DXT655407 EHB655379:EHP655407 EQX655379:ERL655407 FAT655379:FBH655407 FKP655379:FLD655407 FUL655379:FUZ655407 GEH655379:GEV655407 GOD655379:GOR655407 GXZ655379:GYN655407 HHV655379:HIJ655407 HRR655379:HSF655407 IBN655379:ICB655407 ILJ655379:ILX655407 IVF655379:IVT655407 JFB655379:JFP655407 JOX655379:JPL655407 JYT655379:JZH655407 KIP655379:KJD655407 KSL655379:KSZ655407 LCH655379:LCV655407 LMD655379:LMR655407 LVZ655379:LWN655407 MFV655379:MGJ655407 MPR655379:MQF655407 MZN655379:NAB655407 NJJ655379:NJX655407 NTF655379:NTT655407 ODB655379:ODP655407 OMX655379:ONL655407 OWT655379:OXH655407 PGP655379:PHD655407 PQL655379:PQZ655407 QAH655379:QAV655407 QKD655379:QKR655407 QTZ655379:QUN655407 RDV655379:REJ655407 RNR655379:ROF655407 RXN655379:RYB655407 SHJ655379:SHX655407 SRF655379:SRT655407 TBB655379:TBP655407 TKX655379:TLL655407 TUT655379:TVH655407 UEP655379:UFD655407 UOL655379:UOZ655407 UYH655379:UYV655407 VID655379:VIR655407 VRZ655379:VSN655407 WBV655379:WCJ655407 WLR655379:WMF655407 WVN655379:WWB655407 F720915:T720943 JB720915:JP720943 SX720915:TL720943 ACT720915:ADH720943 AMP720915:AND720943 AWL720915:AWZ720943 BGH720915:BGV720943 BQD720915:BQR720943 BZZ720915:CAN720943 CJV720915:CKJ720943 CTR720915:CUF720943 DDN720915:DEB720943 DNJ720915:DNX720943 DXF720915:DXT720943 EHB720915:EHP720943 EQX720915:ERL720943 FAT720915:FBH720943 FKP720915:FLD720943 FUL720915:FUZ720943 GEH720915:GEV720943 GOD720915:GOR720943 GXZ720915:GYN720943 HHV720915:HIJ720943 HRR720915:HSF720943 IBN720915:ICB720943 ILJ720915:ILX720943 IVF720915:IVT720943 JFB720915:JFP720943 JOX720915:JPL720943 JYT720915:JZH720943 KIP720915:KJD720943 KSL720915:KSZ720943 LCH720915:LCV720943 LMD720915:LMR720943 LVZ720915:LWN720943 MFV720915:MGJ720943 MPR720915:MQF720943 MZN720915:NAB720943 NJJ720915:NJX720943 NTF720915:NTT720943 ODB720915:ODP720943 OMX720915:ONL720943 OWT720915:OXH720943 PGP720915:PHD720943 PQL720915:PQZ720943 QAH720915:QAV720943 QKD720915:QKR720943 QTZ720915:QUN720943 RDV720915:REJ720943 RNR720915:ROF720943 RXN720915:RYB720943 SHJ720915:SHX720943 SRF720915:SRT720943 TBB720915:TBP720943 TKX720915:TLL720943 TUT720915:TVH720943 UEP720915:UFD720943 UOL720915:UOZ720943 UYH720915:UYV720943 VID720915:VIR720943 VRZ720915:VSN720943 WBV720915:WCJ720943 WLR720915:WMF720943 WVN720915:WWB720943 F786451:T786479 JB786451:JP786479 SX786451:TL786479 ACT786451:ADH786479 AMP786451:AND786479 AWL786451:AWZ786479 BGH786451:BGV786479 BQD786451:BQR786479 BZZ786451:CAN786479 CJV786451:CKJ786479 CTR786451:CUF786479 DDN786451:DEB786479 DNJ786451:DNX786479 DXF786451:DXT786479 EHB786451:EHP786479 EQX786451:ERL786479 FAT786451:FBH786479 FKP786451:FLD786479 FUL786451:FUZ786479 GEH786451:GEV786479 GOD786451:GOR786479 GXZ786451:GYN786479 HHV786451:HIJ786479 HRR786451:HSF786479 IBN786451:ICB786479 ILJ786451:ILX786479 IVF786451:IVT786479 JFB786451:JFP786479 JOX786451:JPL786479 JYT786451:JZH786479 KIP786451:KJD786479 KSL786451:KSZ786479 LCH786451:LCV786479 LMD786451:LMR786479 LVZ786451:LWN786479 MFV786451:MGJ786479 MPR786451:MQF786479 MZN786451:NAB786479 NJJ786451:NJX786479 NTF786451:NTT786479 ODB786451:ODP786479 OMX786451:ONL786479 OWT786451:OXH786479 PGP786451:PHD786479 PQL786451:PQZ786479 QAH786451:QAV786479 QKD786451:QKR786479 QTZ786451:QUN786479 RDV786451:REJ786479 RNR786451:ROF786479 RXN786451:RYB786479 SHJ786451:SHX786479 SRF786451:SRT786479 TBB786451:TBP786479 TKX786451:TLL786479 TUT786451:TVH786479 UEP786451:UFD786479 UOL786451:UOZ786479 UYH786451:UYV786479 VID786451:VIR786479 VRZ786451:VSN786479 WBV786451:WCJ786479 WLR786451:WMF786479 WVN786451:WWB786479 F851987:T852015 JB851987:JP852015 SX851987:TL852015 ACT851987:ADH852015 AMP851987:AND852015 AWL851987:AWZ852015 BGH851987:BGV852015 BQD851987:BQR852015 BZZ851987:CAN852015 CJV851987:CKJ852015 CTR851987:CUF852015 DDN851987:DEB852015 DNJ851987:DNX852015 DXF851987:DXT852015 EHB851987:EHP852015 EQX851987:ERL852015 FAT851987:FBH852015 FKP851987:FLD852015 FUL851987:FUZ852015 GEH851987:GEV852015 GOD851987:GOR852015 GXZ851987:GYN852015 HHV851987:HIJ852015 HRR851987:HSF852015 IBN851987:ICB852015 ILJ851987:ILX852015 IVF851987:IVT852015 JFB851987:JFP852015 JOX851987:JPL852015 JYT851987:JZH852015 KIP851987:KJD852015 KSL851987:KSZ852015 LCH851987:LCV852015 LMD851987:LMR852015 LVZ851987:LWN852015 MFV851987:MGJ852015 MPR851987:MQF852015 MZN851987:NAB852015 NJJ851987:NJX852015 NTF851987:NTT852015 ODB851987:ODP852015 OMX851987:ONL852015 OWT851987:OXH852015 PGP851987:PHD852015 PQL851987:PQZ852015 QAH851987:QAV852015 QKD851987:QKR852015 QTZ851987:QUN852015 RDV851987:REJ852015 RNR851987:ROF852015 RXN851987:RYB852015 SHJ851987:SHX852015 SRF851987:SRT852015 TBB851987:TBP852015 TKX851987:TLL852015 TUT851987:TVH852015 UEP851987:UFD852015 UOL851987:UOZ852015 UYH851987:UYV852015 VID851987:VIR852015 VRZ851987:VSN852015 WBV851987:WCJ852015 WLR851987:WMF852015 WVN851987:WWB852015 F917523:T917551 JB917523:JP917551 SX917523:TL917551 ACT917523:ADH917551 AMP917523:AND917551 AWL917523:AWZ917551 BGH917523:BGV917551 BQD917523:BQR917551 BZZ917523:CAN917551 CJV917523:CKJ917551 CTR917523:CUF917551 DDN917523:DEB917551 DNJ917523:DNX917551 DXF917523:DXT917551 EHB917523:EHP917551 EQX917523:ERL917551 FAT917523:FBH917551 FKP917523:FLD917551 FUL917523:FUZ917551 GEH917523:GEV917551 GOD917523:GOR917551 GXZ917523:GYN917551 HHV917523:HIJ917551 HRR917523:HSF917551 IBN917523:ICB917551 ILJ917523:ILX917551 IVF917523:IVT917551 JFB917523:JFP917551 JOX917523:JPL917551 JYT917523:JZH917551 KIP917523:KJD917551 KSL917523:KSZ917551 LCH917523:LCV917551 LMD917523:LMR917551 LVZ917523:LWN917551 MFV917523:MGJ917551 MPR917523:MQF917551 MZN917523:NAB917551 NJJ917523:NJX917551 NTF917523:NTT917551 ODB917523:ODP917551 OMX917523:ONL917551 OWT917523:OXH917551 PGP917523:PHD917551 PQL917523:PQZ917551 QAH917523:QAV917551 QKD917523:QKR917551 QTZ917523:QUN917551 RDV917523:REJ917551 RNR917523:ROF917551 RXN917523:RYB917551 SHJ917523:SHX917551 SRF917523:SRT917551 TBB917523:TBP917551 TKX917523:TLL917551 TUT917523:TVH917551 UEP917523:UFD917551 UOL917523:UOZ917551 UYH917523:UYV917551 VID917523:VIR917551 VRZ917523:VSN917551 WBV917523:WCJ917551 WLR917523:WMF917551 WVN917523:WWB917551 F983059:T983087 JB983059:JP983087 SX983059:TL983087 ACT983059:ADH983087 AMP983059:AND983087 AWL983059:AWZ983087 BGH983059:BGV983087 BQD983059:BQR983087 BZZ983059:CAN983087 CJV983059:CKJ983087 CTR983059:CUF983087 DDN983059:DEB983087 DNJ983059:DNX983087 DXF983059:DXT983087 EHB983059:EHP983087 EQX983059:ERL983087 FAT983059:FBH983087 FKP983059:FLD983087 FUL983059:FUZ983087 GEH983059:GEV983087 GOD983059:GOR983087 GXZ983059:GYN983087 HHV983059:HIJ983087 HRR983059:HSF983087 IBN983059:ICB983087 ILJ983059:ILX983087 IVF983059:IVT983087 JFB983059:JFP983087 JOX983059:JPL983087 JYT983059:JZH983087 KIP983059:KJD983087 KSL983059:KSZ983087 LCH983059:LCV983087 LMD983059:LMR983087 LVZ983059:LWN983087 MFV983059:MGJ983087 MPR983059:MQF983087 MZN983059:NAB983087 NJJ983059:NJX983087 NTF983059:NTT983087 ODB983059:ODP983087 OMX983059:ONL983087 OWT983059:OXH983087 PGP983059:PHD983087 PQL983059:PQZ983087 QAH983059:QAV983087 QKD983059:QKR983087 QTZ983059:QUN983087 RDV983059:REJ983087 RNR983059:ROF983087 RXN983059:RYB983087 SHJ983059:SHX983087 SRF983059:SRT983087 TBB983059:TBP983087 TKX983059:TLL983087 TUT983059:TVH983087 UEP983059:UFD983087 UOL983059:UOZ983087 UYH983059:UYV983087 VID983059:VIR983087 VRZ983059:VSN983087 WBV983059:WCJ983087 WLR983059:WMF983087 H41 I40:T41 F42:T46 F40:G41 JB10:JP46 WVN10:WWB46 WLR10:WMF46 WBV10:WCJ46 VRZ10:VSN46 VID10:VIR46 UYH10:UYV46 UOL10:UOZ46 UEP10:UFD46 TUT10:TVH46 TKX10:TLL46 TBB10:TBP46 SRF10:SRT46 SHJ10:SHX46 RXN10:RYB46 RNR10:ROF46 RDV10:REJ46 QTZ10:QUN46 QKD10:QKR46 QAH10:QAV46 PQL10:PQZ46 PGP10:PHD46 OWT10:OXH46 OMX10:ONL46 ODB10:ODP46 NTF10:NTT46 NJJ10:NJX46 MZN10:NAB46 MPR10:MQF46 MFV10:MGJ46 LVZ10:LWN46 LMD10:LMR46 LCH10:LCV46 KSL10:KSZ46 KIP10:KJD46 JYT10:JZH46 JOX10:JPL46 JFB10:JFP46 IVF10:IVT46 ILJ10:ILX46 IBN10:ICB46 HRR10:HSF46 HHV10:HIJ46 GXZ10:GYN46 GOD10:GOR46 GEH10:GEV46 FUL10:FUZ46 FKP10:FLD46 FAT10:FBH46 EQX10:ERL46 EHB10:EHP46 DXF10:DXT46 DNJ10:DNX46 DDN10:DEB46 CTR10:CUF46 CJV10:CKJ46 BZZ10:CAN46 BQD10:BQR46 BGH10:BGV46 AWL10:AWZ46 AMP10:AND46 ACT10:ADH46 SX10:TL46 F10:T39">
       <formula1>"O, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:T41 JB41:JP41 SX41:TL41 ACT41:ADH41 AMP41:AND41 AWL41:AWZ41 BGH41:BGV41 BQD41:BQR41 BZZ41:CAN41 CJV41:CKJ41 CTR41:CUF41 DDN41:DEB41 DNJ41:DNX41 DXF41:DXT41 EHB41:EHP41 EQX41:ERL41 FAT41:FBH41 FKP41:FLD41 FUL41:FUZ41 GEH41:GEV41 GOD41:GOR41 GXZ41:GYN41 HHV41:HIJ41 HRR41:HSF41 IBN41:ICB41 ILJ41:ILX41 IVF41:IVT41 JFB41:JFP41 JOX41:JPL41 JYT41:JZH41 KIP41:KJD41 KSL41:KSZ41 LCH41:LCV41 LMD41:LMR41 LVZ41:LWN41 MFV41:MGJ41 MPR41:MQF41 MZN41:NAB41 NJJ41:NJX41 NTF41:NTT41 ODB41:ODP41 OMX41:ONL41 OWT41:OXH41 PGP41:PHD41 PQL41:PQZ41 QAH41:QAV41 QKD41:QKR41 QTZ41:QUN41 RDV41:REJ41 RNR41:ROF41 RXN41:RYB41 SHJ41:SHX41 SRF41:SRT41 TBB41:TBP41 TKX41:TLL41 TUT41:TVH41 UEP41:UFD41 UOL41:UOZ41 UYH41:UYV41 VID41:VIR41 VRZ41:VSN41 WBV41:WCJ41 WLR41:WMF41 WVN41:WWB41 F65577:T65577 JB65577:JP65577 SX65577:TL65577 ACT65577:ADH65577 AMP65577:AND65577 AWL65577:AWZ65577 BGH65577:BGV65577 BQD65577:BQR65577 BZZ65577:CAN65577 CJV65577:CKJ65577 CTR65577:CUF65577 DDN65577:DEB65577 DNJ65577:DNX65577 DXF65577:DXT65577 EHB65577:EHP65577 EQX65577:ERL65577 FAT65577:FBH65577 FKP65577:FLD65577 FUL65577:FUZ65577 GEH65577:GEV65577 GOD65577:GOR65577 GXZ65577:GYN65577 HHV65577:HIJ65577 HRR65577:HSF65577 IBN65577:ICB65577 ILJ65577:ILX65577 IVF65577:IVT65577 JFB65577:JFP65577 JOX65577:JPL65577 JYT65577:JZH65577 KIP65577:KJD65577 KSL65577:KSZ65577 LCH65577:LCV65577 LMD65577:LMR65577 LVZ65577:LWN65577 MFV65577:MGJ65577 MPR65577:MQF65577 MZN65577:NAB65577 NJJ65577:NJX65577 NTF65577:NTT65577 ODB65577:ODP65577 OMX65577:ONL65577 OWT65577:OXH65577 PGP65577:PHD65577 PQL65577:PQZ65577 QAH65577:QAV65577 QKD65577:QKR65577 QTZ65577:QUN65577 RDV65577:REJ65577 RNR65577:ROF65577 RXN65577:RYB65577 SHJ65577:SHX65577 SRF65577:SRT65577 TBB65577:TBP65577 TKX65577:TLL65577 TUT65577:TVH65577 UEP65577:UFD65577 UOL65577:UOZ65577 UYH65577:UYV65577 VID65577:VIR65577 VRZ65577:VSN65577 WBV65577:WCJ65577 WLR65577:WMF65577 WVN65577:WWB65577 F131113:T131113 JB131113:JP131113 SX131113:TL131113 ACT131113:ADH131113 AMP131113:AND131113 AWL131113:AWZ131113 BGH131113:BGV131113 BQD131113:BQR131113 BZZ131113:CAN131113 CJV131113:CKJ131113 CTR131113:CUF131113 DDN131113:DEB131113 DNJ131113:DNX131113 DXF131113:DXT131113 EHB131113:EHP131113 EQX131113:ERL131113 FAT131113:FBH131113 FKP131113:FLD131113 FUL131113:FUZ131113 GEH131113:GEV131113 GOD131113:GOR131113 GXZ131113:GYN131113 HHV131113:HIJ131113 HRR131113:HSF131113 IBN131113:ICB131113 ILJ131113:ILX131113 IVF131113:IVT131113 JFB131113:JFP131113 JOX131113:JPL131113 JYT131113:JZH131113 KIP131113:KJD131113 KSL131113:KSZ131113 LCH131113:LCV131113 LMD131113:LMR131113 LVZ131113:LWN131113 MFV131113:MGJ131113 MPR131113:MQF131113 MZN131113:NAB131113 NJJ131113:NJX131113 NTF131113:NTT131113 ODB131113:ODP131113 OMX131113:ONL131113 OWT131113:OXH131113 PGP131113:PHD131113 PQL131113:PQZ131113 QAH131113:QAV131113 QKD131113:QKR131113 QTZ131113:QUN131113 RDV131113:REJ131113 RNR131113:ROF131113 RXN131113:RYB131113 SHJ131113:SHX131113 SRF131113:SRT131113 TBB131113:TBP131113 TKX131113:TLL131113 TUT131113:TVH131113 UEP131113:UFD131113 UOL131113:UOZ131113 UYH131113:UYV131113 VID131113:VIR131113 VRZ131113:VSN131113 WBV131113:WCJ131113 WLR131113:WMF131113 WVN131113:WWB131113 F196649:T196649 JB196649:JP196649 SX196649:TL196649 ACT196649:ADH196649 AMP196649:AND196649 AWL196649:AWZ196649 BGH196649:BGV196649 BQD196649:BQR196649 BZZ196649:CAN196649 CJV196649:CKJ196649 CTR196649:CUF196649 DDN196649:DEB196649 DNJ196649:DNX196649 DXF196649:DXT196649 EHB196649:EHP196649 EQX196649:ERL196649 FAT196649:FBH196649 FKP196649:FLD196649 FUL196649:FUZ196649 GEH196649:GEV196649 GOD196649:GOR196649 GXZ196649:GYN196649 HHV196649:HIJ196649 HRR196649:HSF196649 IBN196649:ICB196649 ILJ196649:ILX196649 IVF196649:IVT196649 JFB196649:JFP196649 JOX196649:JPL196649 JYT196649:JZH196649 KIP196649:KJD196649 KSL196649:KSZ196649 LCH196649:LCV196649 LMD196649:LMR196649 LVZ196649:LWN196649 MFV196649:MGJ196649 MPR196649:MQF196649 MZN196649:NAB196649 NJJ196649:NJX196649 NTF196649:NTT196649 ODB196649:ODP196649 OMX196649:ONL196649 OWT196649:OXH196649 PGP196649:PHD196649 PQL196649:PQZ196649 QAH196649:QAV196649 QKD196649:QKR196649 QTZ196649:QUN196649 RDV196649:REJ196649 RNR196649:ROF196649 RXN196649:RYB196649 SHJ196649:SHX196649 SRF196649:SRT196649 TBB196649:TBP196649 TKX196649:TLL196649 TUT196649:TVH196649 UEP196649:UFD196649 UOL196649:UOZ196649 UYH196649:UYV196649 VID196649:VIR196649 VRZ196649:VSN196649 WBV196649:WCJ196649 WLR196649:WMF196649 WVN196649:WWB196649 F262185:T262185 JB262185:JP262185 SX262185:TL262185 ACT262185:ADH262185 AMP262185:AND262185 AWL262185:AWZ262185 BGH262185:BGV262185 BQD262185:BQR262185 BZZ262185:CAN262185 CJV262185:CKJ262185 CTR262185:CUF262185 DDN262185:DEB262185 DNJ262185:DNX262185 DXF262185:DXT262185 EHB262185:EHP262185 EQX262185:ERL262185 FAT262185:FBH262185 FKP262185:FLD262185 FUL262185:FUZ262185 GEH262185:GEV262185 GOD262185:GOR262185 GXZ262185:GYN262185 HHV262185:HIJ262185 HRR262185:HSF262185 IBN262185:ICB262185 ILJ262185:ILX262185 IVF262185:IVT262185 JFB262185:JFP262185 JOX262185:JPL262185 JYT262185:JZH262185 KIP262185:KJD262185 KSL262185:KSZ262185 LCH262185:LCV262185 LMD262185:LMR262185 LVZ262185:LWN262185 MFV262185:MGJ262185 MPR262185:MQF262185 MZN262185:NAB262185 NJJ262185:NJX262185 NTF262185:NTT262185 ODB262185:ODP262185 OMX262185:ONL262185 OWT262185:OXH262185 PGP262185:PHD262185 PQL262185:PQZ262185 QAH262185:QAV262185 QKD262185:QKR262185 QTZ262185:QUN262185 RDV262185:REJ262185 RNR262185:ROF262185 RXN262185:RYB262185 SHJ262185:SHX262185 SRF262185:SRT262185 TBB262185:TBP262185 TKX262185:TLL262185 TUT262185:TVH262185 UEP262185:UFD262185 UOL262185:UOZ262185 UYH262185:UYV262185 VID262185:VIR262185 VRZ262185:VSN262185 WBV262185:WCJ262185 WLR262185:WMF262185 WVN262185:WWB262185 F327721:T327721 JB327721:JP327721 SX327721:TL327721 ACT327721:ADH327721 AMP327721:AND327721 AWL327721:AWZ327721 BGH327721:BGV327721 BQD327721:BQR327721 BZZ327721:CAN327721 CJV327721:CKJ327721 CTR327721:CUF327721 DDN327721:DEB327721 DNJ327721:DNX327721 DXF327721:DXT327721 EHB327721:EHP327721 EQX327721:ERL327721 FAT327721:FBH327721 FKP327721:FLD327721 FUL327721:FUZ327721 GEH327721:GEV327721 GOD327721:GOR327721 GXZ327721:GYN327721 HHV327721:HIJ327721 HRR327721:HSF327721 IBN327721:ICB327721 ILJ327721:ILX327721 IVF327721:IVT327721 JFB327721:JFP327721 JOX327721:JPL327721 JYT327721:JZH327721 KIP327721:KJD327721 KSL327721:KSZ327721 LCH327721:LCV327721 LMD327721:LMR327721 LVZ327721:LWN327721 MFV327721:MGJ327721 MPR327721:MQF327721 MZN327721:NAB327721 NJJ327721:NJX327721 NTF327721:NTT327721 ODB327721:ODP327721 OMX327721:ONL327721 OWT327721:OXH327721 PGP327721:PHD327721 PQL327721:PQZ327721 QAH327721:QAV327721 QKD327721:QKR327721 QTZ327721:QUN327721 RDV327721:REJ327721 RNR327721:ROF327721 RXN327721:RYB327721 SHJ327721:SHX327721 SRF327721:SRT327721 TBB327721:TBP327721 TKX327721:TLL327721 TUT327721:TVH327721 UEP327721:UFD327721 UOL327721:UOZ327721 UYH327721:UYV327721 VID327721:VIR327721 VRZ327721:VSN327721 WBV327721:WCJ327721 WLR327721:WMF327721 WVN327721:WWB327721 F393257:T393257 JB393257:JP393257 SX393257:TL393257 ACT393257:ADH393257 AMP393257:AND393257 AWL393257:AWZ393257 BGH393257:BGV393257 BQD393257:BQR393257 BZZ393257:CAN393257 CJV393257:CKJ393257 CTR393257:CUF393257 DDN393257:DEB393257 DNJ393257:DNX393257 DXF393257:DXT393257 EHB393257:EHP393257 EQX393257:ERL393257 FAT393257:FBH393257 FKP393257:FLD393257 FUL393257:FUZ393257 GEH393257:GEV393257 GOD393257:GOR393257 GXZ393257:GYN393257 HHV393257:HIJ393257 HRR393257:HSF393257 IBN393257:ICB393257 ILJ393257:ILX393257 IVF393257:IVT393257 JFB393257:JFP393257 JOX393257:JPL393257 JYT393257:JZH393257 KIP393257:KJD393257 KSL393257:KSZ393257 LCH393257:LCV393257 LMD393257:LMR393257 LVZ393257:LWN393257 MFV393257:MGJ393257 MPR393257:MQF393257 MZN393257:NAB393257 NJJ393257:NJX393257 NTF393257:NTT393257 ODB393257:ODP393257 OMX393257:ONL393257 OWT393257:OXH393257 PGP393257:PHD393257 PQL393257:PQZ393257 QAH393257:QAV393257 QKD393257:QKR393257 QTZ393257:QUN393257 RDV393257:REJ393257 RNR393257:ROF393257 RXN393257:RYB393257 SHJ393257:SHX393257 SRF393257:SRT393257 TBB393257:TBP393257 TKX393257:TLL393257 TUT393257:TVH393257 UEP393257:UFD393257 UOL393257:UOZ393257 UYH393257:UYV393257 VID393257:VIR393257 VRZ393257:VSN393257 WBV393257:WCJ393257 WLR393257:WMF393257 WVN393257:WWB393257 F458793:T458793 JB458793:JP458793 SX458793:TL458793 ACT458793:ADH458793 AMP458793:AND458793 AWL458793:AWZ458793 BGH458793:BGV458793 BQD458793:BQR458793 BZZ458793:CAN458793 CJV458793:CKJ458793 CTR458793:CUF458793 DDN458793:DEB458793 DNJ458793:DNX458793 DXF458793:DXT458793 EHB458793:EHP458793 EQX458793:ERL458793 FAT458793:FBH458793 FKP458793:FLD458793 FUL458793:FUZ458793 GEH458793:GEV458793 GOD458793:GOR458793 GXZ458793:GYN458793 HHV458793:HIJ458793 HRR458793:HSF458793 IBN458793:ICB458793 ILJ458793:ILX458793 IVF458793:IVT458793 JFB458793:JFP458793 JOX458793:JPL458793 JYT458793:JZH458793 KIP458793:KJD458793 KSL458793:KSZ458793 LCH458793:LCV458793 LMD458793:LMR458793 LVZ458793:LWN458793 MFV458793:MGJ458793 MPR458793:MQF458793 MZN458793:NAB458793 NJJ458793:NJX458793 NTF458793:NTT458793 ODB458793:ODP458793 OMX458793:ONL458793 OWT458793:OXH458793 PGP458793:PHD458793 PQL458793:PQZ458793 QAH458793:QAV458793 QKD458793:QKR458793 QTZ458793:QUN458793 RDV458793:REJ458793 RNR458793:ROF458793 RXN458793:RYB458793 SHJ458793:SHX458793 SRF458793:SRT458793 TBB458793:TBP458793 TKX458793:TLL458793 TUT458793:TVH458793 UEP458793:UFD458793 UOL458793:UOZ458793 UYH458793:UYV458793 VID458793:VIR458793 VRZ458793:VSN458793 WBV458793:WCJ458793 WLR458793:WMF458793 WVN458793:WWB458793 F524329:T524329 JB524329:JP524329 SX524329:TL524329 ACT524329:ADH524329 AMP524329:AND524329 AWL524329:AWZ524329 BGH524329:BGV524329 BQD524329:BQR524329 BZZ524329:CAN524329 CJV524329:CKJ524329 CTR524329:CUF524329 DDN524329:DEB524329 DNJ524329:DNX524329 DXF524329:DXT524329 EHB524329:EHP524329 EQX524329:ERL524329 FAT524329:FBH524329 FKP524329:FLD524329 FUL524329:FUZ524329 GEH524329:GEV524329 GOD524329:GOR524329 GXZ524329:GYN524329 HHV524329:HIJ524329 HRR524329:HSF524329 IBN524329:ICB524329 ILJ524329:ILX524329 IVF524329:IVT524329 JFB524329:JFP524329 JOX524329:JPL524329 JYT524329:JZH524329 KIP524329:KJD524329 KSL524329:KSZ524329 LCH524329:LCV524329 LMD524329:LMR524329 LVZ524329:LWN524329 MFV524329:MGJ524329 MPR524329:MQF524329 MZN524329:NAB524329 NJJ524329:NJX524329 NTF524329:NTT524329 ODB524329:ODP524329 OMX524329:ONL524329 OWT524329:OXH524329 PGP524329:PHD524329 PQL524329:PQZ524329 QAH524329:QAV524329 QKD524329:QKR524329 QTZ524329:QUN524329 RDV524329:REJ524329 RNR524329:ROF524329 RXN524329:RYB524329 SHJ524329:SHX524329 SRF524329:SRT524329 TBB524329:TBP524329 TKX524329:TLL524329 TUT524329:TVH524329 UEP524329:UFD524329 UOL524329:UOZ524329 UYH524329:UYV524329 VID524329:VIR524329 VRZ524329:VSN524329 WBV524329:WCJ524329 WLR524329:WMF524329 WVN524329:WWB524329 F589865:T589865 JB589865:JP589865 SX589865:TL589865 ACT589865:ADH589865 AMP589865:AND589865 AWL589865:AWZ589865 BGH589865:BGV589865 BQD589865:BQR589865 BZZ589865:CAN589865 CJV589865:CKJ589865 CTR589865:CUF589865 DDN589865:DEB589865 DNJ589865:DNX589865 DXF589865:DXT589865 EHB589865:EHP589865 EQX589865:ERL589865 FAT589865:FBH589865 FKP589865:FLD589865 FUL589865:FUZ589865 GEH589865:GEV589865 GOD589865:GOR589865 GXZ589865:GYN589865 HHV589865:HIJ589865 HRR589865:HSF589865 IBN589865:ICB589865 ILJ589865:ILX589865 IVF589865:IVT589865 JFB589865:JFP589865 JOX589865:JPL589865 JYT589865:JZH589865 KIP589865:KJD589865 KSL589865:KSZ589865 LCH589865:LCV589865 LMD589865:LMR589865 LVZ589865:LWN589865 MFV589865:MGJ589865 MPR589865:MQF589865 MZN589865:NAB589865 NJJ589865:NJX589865 NTF589865:NTT589865 ODB589865:ODP589865 OMX589865:ONL589865 OWT589865:OXH589865 PGP589865:PHD589865 PQL589865:PQZ589865 QAH589865:QAV589865 QKD589865:QKR589865 QTZ589865:QUN589865 RDV589865:REJ589865 RNR589865:ROF589865 RXN589865:RYB589865 SHJ589865:SHX589865 SRF589865:SRT589865 TBB589865:TBP589865 TKX589865:TLL589865 TUT589865:TVH589865 UEP589865:UFD589865 UOL589865:UOZ589865 UYH589865:UYV589865 VID589865:VIR589865 VRZ589865:VSN589865 WBV589865:WCJ589865 WLR589865:WMF589865 WVN589865:WWB589865 F655401:T655401 JB655401:JP655401 SX655401:TL655401 ACT655401:ADH655401 AMP655401:AND655401 AWL655401:AWZ655401 BGH655401:BGV655401 BQD655401:BQR655401 BZZ655401:CAN655401 CJV655401:CKJ655401 CTR655401:CUF655401 DDN655401:DEB655401 DNJ655401:DNX655401 DXF655401:DXT655401 EHB655401:EHP655401 EQX655401:ERL655401 FAT655401:FBH655401 FKP655401:FLD655401 FUL655401:FUZ655401 GEH655401:GEV655401 GOD655401:GOR655401 GXZ655401:GYN655401 HHV655401:HIJ655401 HRR655401:HSF655401 IBN655401:ICB655401 ILJ655401:ILX655401 IVF655401:IVT655401 JFB655401:JFP655401 JOX655401:JPL655401 JYT655401:JZH655401 KIP655401:KJD655401 KSL655401:KSZ655401 LCH655401:LCV655401 LMD655401:LMR655401 LVZ655401:LWN655401 MFV655401:MGJ655401 MPR655401:MQF655401 MZN655401:NAB655401 NJJ655401:NJX655401 NTF655401:NTT655401 ODB655401:ODP655401 OMX655401:ONL655401 OWT655401:OXH655401 PGP655401:PHD655401 PQL655401:PQZ655401 QAH655401:QAV655401 QKD655401:QKR655401 QTZ655401:QUN655401 RDV655401:REJ655401 RNR655401:ROF655401 RXN655401:RYB655401 SHJ655401:SHX655401 SRF655401:SRT655401 TBB655401:TBP655401 TKX655401:TLL655401 TUT655401:TVH655401 UEP655401:UFD655401 UOL655401:UOZ655401 UYH655401:UYV655401 VID655401:VIR655401 VRZ655401:VSN655401 WBV655401:WCJ655401 WLR655401:WMF655401 WVN655401:WWB655401 F720937:T720937 JB720937:JP720937 SX720937:TL720937 ACT720937:ADH720937 AMP720937:AND720937 AWL720937:AWZ720937 BGH720937:BGV720937 BQD720937:BQR720937 BZZ720937:CAN720937 CJV720937:CKJ720937 CTR720937:CUF720937 DDN720937:DEB720937 DNJ720937:DNX720937 DXF720937:DXT720937 EHB720937:EHP720937 EQX720937:ERL720937 FAT720937:FBH720937 FKP720937:FLD720937 FUL720937:FUZ720937 GEH720937:GEV720937 GOD720937:GOR720937 GXZ720937:GYN720937 HHV720937:HIJ720937 HRR720937:HSF720937 IBN720937:ICB720937 ILJ720937:ILX720937 IVF720937:IVT720937 JFB720937:JFP720937 JOX720937:JPL720937 JYT720937:JZH720937 KIP720937:KJD720937 KSL720937:KSZ720937 LCH720937:LCV720937 LMD720937:LMR720937 LVZ720937:LWN720937 MFV720937:MGJ720937 MPR720937:MQF720937 MZN720937:NAB720937 NJJ720937:NJX720937 NTF720937:NTT720937 ODB720937:ODP720937 OMX720937:ONL720937 OWT720937:OXH720937 PGP720937:PHD720937 PQL720937:PQZ720937 QAH720937:QAV720937 QKD720937:QKR720937 QTZ720937:QUN720937 RDV720937:REJ720937 RNR720937:ROF720937 RXN720937:RYB720937 SHJ720937:SHX720937 SRF720937:SRT720937 TBB720937:TBP720937 TKX720937:TLL720937 TUT720937:TVH720937 UEP720937:UFD720937 UOL720937:UOZ720937 UYH720937:UYV720937 VID720937:VIR720937 VRZ720937:VSN720937 WBV720937:WCJ720937 WLR720937:WMF720937 WVN720937:WWB720937 F786473:T786473 JB786473:JP786473 SX786473:TL786473 ACT786473:ADH786473 AMP786473:AND786473 AWL786473:AWZ786473 BGH786473:BGV786473 BQD786473:BQR786473 BZZ786473:CAN786473 CJV786473:CKJ786473 CTR786473:CUF786473 DDN786473:DEB786473 DNJ786473:DNX786473 DXF786473:DXT786473 EHB786473:EHP786473 EQX786473:ERL786473 FAT786473:FBH786473 FKP786473:FLD786473 FUL786473:FUZ786473 GEH786473:GEV786473 GOD786473:GOR786473 GXZ786473:GYN786473 HHV786473:HIJ786473 HRR786473:HSF786473 IBN786473:ICB786473 ILJ786473:ILX786473 IVF786473:IVT786473 JFB786473:JFP786473 JOX786473:JPL786473 JYT786473:JZH786473 KIP786473:KJD786473 KSL786473:KSZ786473 LCH786473:LCV786473 LMD786473:LMR786473 LVZ786473:LWN786473 MFV786473:MGJ786473 MPR786473:MQF786473 MZN786473:NAB786473 NJJ786473:NJX786473 NTF786473:NTT786473 ODB786473:ODP786473 OMX786473:ONL786473 OWT786473:OXH786473 PGP786473:PHD786473 PQL786473:PQZ786473 QAH786473:QAV786473 QKD786473:QKR786473 QTZ786473:QUN786473 RDV786473:REJ786473 RNR786473:ROF786473 RXN786473:RYB786473 SHJ786473:SHX786473 SRF786473:SRT786473 TBB786473:TBP786473 TKX786473:TLL786473 TUT786473:TVH786473 UEP786473:UFD786473 UOL786473:UOZ786473 UYH786473:UYV786473 VID786473:VIR786473 VRZ786473:VSN786473 WBV786473:WCJ786473 WLR786473:WMF786473 WVN786473:WWB786473 F852009:T852009 JB852009:JP852009 SX852009:TL852009 ACT852009:ADH852009 AMP852009:AND852009 AWL852009:AWZ852009 BGH852009:BGV852009 BQD852009:BQR852009 BZZ852009:CAN852009 CJV852009:CKJ852009 CTR852009:CUF852009 DDN852009:DEB852009 DNJ852009:DNX852009 DXF852009:DXT852009 EHB852009:EHP852009 EQX852009:ERL852009 FAT852009:FBH852009 FKP852009:FLD852009 FUL852009:FUZ852009 GEH852009:GEV852009 GOD852009:GOR852009 GXZ852009:GYN852009 HHV852009:HIJ852009 HRR852009:HSF852009 IBN852009:ICB852009 ILJ852009:ILX852009 IVF852009:IVT852009 JFB852009:JFP852009 JOX852009:JPL852009 JYT852009:JZH852009 KIP852009:KJD852009 KSL852009:KSZ852009 LCH852009:LCV852009 LMD852009:LMR852009 LVZ852009:LWN852009 MFV852009:MGJ852009 MPR852009:MQF852009 MZN852009:NAB852009 NJJ852009:NJX852009 NTF852009:NTT852009 ODB852009:ODP852009 OMX852009:ONL852009 OWT852009:OXH852009 PGP852009:PHD852009 PQL852009:PQZ852009 QAH852009:QAV852009 QKD852009:QKR852009 QTZ852009:QUN852009 RDV852009:REJ852009 RNR852009:ROF852009 RXN852009:RYB852009 SHJ852009:SHX852009 SRF852009:SRT852009 TBB852009:TBP852009 TKX852009:TLL852009 TUT852009:TVH852009 UEP852009:UFD852009 UOL852009:UOZ852009 UYH852009:UYV852009 VID852009:VIR852009 VRZ852009:VSN852009 WBV852009:WCJ852009 WLR852009:WMF852009 WVN852009:WWB852009 F917545:T917545 JB917545:JP917545 SX917545:TL917545 ACT917545:ADH917545 AMP917545:AND917545 AWL917545:AWZ917545 BGH917545:BGV917545 BQD917545:BQR917545 BZZ917545:CAN917545 CJV917545:CKJ917545 CTR917545:CUF917545 DDN917545:DEB917545 DNJ917545:DNX917545 DXF917545:DXT917545 EHB917545:EHP917545 EQX917545:ERL917545 FAT917545:FBH917545 FKP917545:FLD917545 FUL917545:FUZ917545 GEH917545:GEV917545 GOD917545:GOR917545 GXZ917545:GYN917545 HHV917545:HIJ917545 HRR917545:HSF917545 IBN917545:ICB917545 ILJ917545:ILX917545 IVF917545:IVT917545 JFB917545:JFP917545 JOX917545:JPL917545 JYT917545:JZH917545 KIP917545:KJD917545 KSL917545:KSZ917545 LCH917545:LCV917545 LMD917545:LMR917545 LVZ917545:LWN917545 MFV917545:MGJ917545 MPR917545:MQF917545 MZN917545:NAB917545 NJJ917545:NJX917545 NTF917545:NTT917545 ODB917545:ODP917545 OMX917545:ONL917545 OWT917545:OXH917545 PGP917545:PHD917545 PQL917545:PQZ917545 QAH917545:QAV917545 QKD917545:QKR917545 QTZ917545:QUN917545 RDV917545:REJ917545 RNR917545:ROF917545 RXN917545:RYB917545 SHJ917545:SHX917545 SRF917545:SRT917545 TBB917545:TBP917545 TKX917545:TLL917545 TUT917545:TVH917545 UEP917545:UFD917545 UOL917545:UOZ917545 UYH917545:UYV917545 VID917545:VIR917545 VRZ917545:VSN917545 WBV917545:WCJ917545 WLR917545:WMF917545 WVN917545:WWB917545 F983081:T983081 JB983081:JP983081 SX983081:TL983081 ACT983081:ADH983081 AMP983081:AND983081 AWL983081:AWZ983081 BGH983081:BGV983081 BQD983081:BQR983081 BZZ983081:CAN983081 CJV983081:CKJ983081 CTR983081:CUF983081 DDN983081:DEB983081 DNJ983081:DNX983081 DXF983081:DXT983081 EHB983081:EHP983081 EQX983081:ERL983081 FAT983081:FBH983081 FKP983081:FLD983081 FUL983081:FUZ983081 GEH983081:GEV983081 GOD983081:GOR983081 GXZ983081:GYN983081 HHV983081:HIJ983081 HRR983081:HSF983081 IBN983081:ICB983081 ILJ983081:ILX983081 IVF983081:IVT983081 JFB983081:JFP983081 JOX983081:JPL983081 JYT983081:JZH983081 KIP983081:KJD983081 KSL983081:KSZ983081 LCH983081:LCV983081 LMD983081:LMR983081 LVZ983081:LWN983081 MFV983081:MGJ983081 MPR983081:MQF983081 MZN983081:NAB983081 NJJ983081:NJX983081 NTF983081:NTT983081 ODB983081:ODP983081 OMX983081:ONL983081 OWT983081:OXH983081 PGP983081:PHD983081 PQL983081:PQZ983081 QAH983081:QAV983081 QKD983081:QKR983081 QTZ983081:QUN983081 RDV983081:REJ983081 RNR983081:ROF983081 RXN983081:RYB983081 SHJ983081:SHX983081 SRF983081:SRT983081 TBB983081:TBP983081 TKX983081:TLL983081 TUT983081:TVH983081 UEP983081:UFD983081 UOL983081:UOZ983081 UYH983081:UYV983081 VID983081:VIR983081 VRZ983081:VSN983081 WBV983081:WCJ983081 WLR983081:WMF983081 WVN983081:WWB983081">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F49:T49 JB49:JP49 SX49:TL49 ACT49:ADH49 AMP49:AND49 AWL49:AWZ49 BGH49:BGV49 BQD49:BQR49 BZZ49:CAN49 CJV49:CKJ49 CTR49:CUF49 DDN49:DEB49 DNJ49:DNX49 DXF49:DXT49 EHB49:EHP49 EQX49:ERL49 FAT49:FBH49 FKP49:FLD49 FUL49:FUZ49 GEH49:GEV49 GOD49:GOR49 GXZ49:GYN49 HHV49:HIJ49 HRR49:HSF49 IBN49:ICB49 ILJ49:ILX49 IVF49:IVT49 JFB49:JFP49 JOX49:JPL49 JYT49:JZH49 KIP49:KJD49 KSL49:KSZ49 LCH49:LCV49 LMD49:LMR49 LVZ49:LWN49 MFV49:MGJ49 MPR49:MQF49 MZN49:NAB49 NJJ49:NJX49 NTF49:NTT49 ODB49:ODP49 OMX49:ONL49 OWT49:OXH49 PGP49:PHD49 PQL49:PQZ49 QAH49:QAV49 QKD49:QKR49 QTZ49:QUN49 RDV49:REJ49 RNR49:ROF49 RXN49:RYB49 SHJ49:SHX49 SRF49:SRT49 TBB49:TBP49 TKX49:TLL49 TUT49:TVH49 UEP49:UFD49 UOL49:UOZ49 UYH49:UYV49 VID49:VIR49 VRZ49:VSN49 WBV49:WCJ49 WLR49:WMF49 WVN49:WWB49 F65585:T65585 JB65585:JP65585 SX65585:TL65585 ACT65585:ADH65585 AMP65585:AND65585 AWL65585:AWZ65585 BGH65585:BGV65585 BQD65585:BQR65585 BZZ65585:CAN65585 CJV65585:CKJ65585 CTR65585:CUF65585 DDN65585:DEB65585 DNJ65585:DNX65585 DXF65585:DXT65585 EHB65585:EHP65585 EQX65585:ERL65585 FAT65585:FBH65585 FKP65585:FLD65585 FUL65585:FUZ65585 GEH65585:GEV65585 GOD65585:GOR65585 GXZ65585:GYN65585 HHV65585:HIJ65585 HRR65585:HSF65585 IBN65585:ICB65585 ILJ65585:ILX65585 IVF65585:IVT65585 JFB65585:JFP65585 JOX65585:JPL65585 JYT65585:JZH65585 KIP65585:KJD65585 KSL65585:KSZ65585 LCH65585:LCV65585 LMD65585:LMR65585 LVZ65585:LWN65585 MFV65585:MGJ65585 MPR65585:MQF65585 MZN65585:NAB65585 NJJ65585:NJX65585 NTF65585:NTT65585 ODB65585:ODP65585 OMX65585:ONL65585 OWT65585:OXH65585 PGP65585:PHD65585 PQL65585:PQZ65585 QAH65585:QAV65585 QKD65585:QKR65585 QTZ65585:QUN65585 RDV65585:REJ65585 RNR65585:ROF65585 RXN65585:RYB65585 SHJ65585:SHX65585 SRF65585:SRT65585 TBB65585:TBP65585 TKX65585:TLL65585 TUT65585:TVH65585 UEP65585:UFD65585 UOL65585:UOZ65585 UYH65585:UYV65585 VID65585:VIR65585 VRZ65585:VSN65585 WBV65585:WCJ65585 WLR65585:WMF65585 WVN65585:WWB65585 F131121:T131121 JB131121:JP131121 SX131121:TL131121 ACT131121:ADH131121 AMP131121:AND131121 AWL131121:AWZ131121 BGH131121:BGV131121 BQD131121:BQR131121 BZZ131121:CAN131121 CJV131121:CKJ131121 CTR131121:CUF131121 DDN131121:DEB131121 DNJ131121:DNX131121 DXF131121:DXT131121 EHB131121:EHP131121 EQX131121:ERL131121 FAT131121:FBH131121 FKP131121:FLD131121 FUL131121:FUZ131121 GEH131121:GEV131121 GOD131121:GOR131121 GXZ131121:GYN131121 HHV131121:HIJ131121 HRR131121:HSF131121 IBN131121:ICB131121 ILJ131121:ILX131121 IVF131121:IVT131121 JFB131121:JFP131121 JOX131121:JPL131121 JYT131121:JZH131121 KIP131121:KJD131121 KSL131121:KSZ131121 LCH131121:LCV131121 LMD131121:LMR131121 LVZ131121:LWN131121 MFV131121:MGJ131121 MPR131121:MQF131121 MZN131121:NAB131121 NJJ131121:NJX131121 NTF131121:NTT131121 ODB131121:ODP131121 OMX131121:ONL131121 OWT131121:OXH131121 PGP131121:PHD131121 PQL131121:PQZ131121 QAH131121:QAV131121 QKD131121:QKR131121 QTZ131121:QUN131121 RDV131121:REJ131121 RNR131121:ROF131121 RXN131121:RYB131121 SHJ131121:SHX131121 SRF131121:SRT131121 TBB131121:TBP131121 TKX131121:TLL131121 TUT131121:TVH131121 UEP131121:UFD131121 UOL131121:UOZ131121 UYH131121:UYV131121 VID131121:VIR131121 VRZ131121:VSN131121 WBV131121:WCJ131121 WLR131121:WMF131121 WVN131121:WWB131121 F196657:T196657 JB196657:JP196657 SX196657:TL196657 ACT196657:ADH196657 AMP196657:AND196657 AWL196657:AWZ196657 BGH196657:BGV196657 BQD196657:BQR196657 BZZ196657:CAN196657 CJV196657:CKJ196657 CTR196657:CUF196657 DDN196657:DEB196657 DNJ196657:DNX196657 DXF196657:DXT196657 EHB196657:EHP196657 EQX196657:ERL196657 FAT196657:FBH196657 FKP196657:FLD196657 FUL196657:FUZ196657 GEH196657:GEV196657 GOD196657:GOR196657 GXZ196657:GYN196657 HHV196657:HIJ196657 HRR196657:HSF196657 IBN196657:ICB196657 ILJ196657:ILX196657 IVF196657:IVT196657 JFB196657:JFP196657 JOX196657:JPL196657 JYT196657:JZH196657 KIP196657:KJD196657 KSL196657:KSZ196657 LCH196657:LCV196657 LMD196657:LMR196657 LVZ196657:LWN196657 MFV196657:MGJ196657 MPR196657:MQF196657 MZN196657:NAB196657 NJJ196657:NJX196657 NTF196657:NTT196657 ODB196657:ODP196657 OMX196657:ONL196657 OWT196657:OXH196657 PGP196657:PHD196657 PQL196657:PQZ196657 QAH196657:QAV196657 QKD196657:QKR196657 QTZ196657:QUN196657 RDV196657:REJ196657 RNR196657:ROF196657 RXN196657:RYB196657 SHJ196657:SHX196657 SRF196657:SRT196657 TBB196657:TBP196657 TKX196657:TLL196657 TUT196657:TVH196657 UEP196657:UFD196657 UOL196657:UOZ196657 UYH196657:UYV196657 VID196657:VIR196657 VRZ196657:VSN196657 WBV196657:WCJ196657 WLR196657:WMF196657 WVN196657:WWB196657 F262193:T262193 JB262193:JP262193 SX262193:TL262193 ACT262193:ADH262193 AMP262193:AND262193 AWL262193:AWZ262193 BGH262193:BGV262193 BQD262193:BQR262193 BZZ262193:CAN262193 CJV262193:CKJ262193 CTR262193:CUF262193 DDN262193:DEB262193 DNJ262193:DNX262193 DXF262193:DXT262193 EHB262193:EHP262193 EQX262193:ERL262193 FAT262193:FBH262193 FKP262193:FLD262193 FUL262193:FUZ262193 GEH262193:GEV262193 GOD262193:GOR262193 GXZ262193:GYN262193 HHV262193:HIJ262193 HRR262193:HSF262193 IBN262193:ICB262193 ILJ262193:ILX262193 IVF262193:IVT262193 JFB262193:JFP262193 JOX262193:JPL262193 JYT262193:JZH262193 KIP262193:KJD262193 KSL262193:KSZ262193 LCH262193:LCV262193 LMD262193:LMR262193 LVZ262193:LWN262193 MFV262193:MGJ262193 MPR262193:MQF262193 MZN262193:NAB262193 NJJ262193:NJX262193 NTF262193:NTT262193 ODB262193:ODP262193 OMX262193:ONL262193 OWT262193:OXH262193 PGP262193:PHD262193 PQL262193:PQZ262193 QAH262193:QAV262193 QKD262193:QKR262193 QTZ262193:QUN262193 RDV262193:REJ262193 RNR262193:ROF262193 RXN262193:RYB262193 SHJ262193:SHX262193 SRF262193:SRT262193 TBB262193:TBP262193 TKX262193:TLL262193 TUT262193:TVH262193 UEP262193:UFD262193 UOL262193:UOZ262193 UYH262193:UYV262193 VID262193:VIR262193 VRZ262193:VSN262193 WBV262193:WCJ262193 WLR262193:WMF262193 WVN262193:WWB262193 F327729:T327729 JB327729:JP327729 SX327729:TL327729 ACT327729:ADH327729 AMP327729:AND327729 AWL327729:AWZ327729 BGH327729:BGV327729 BQD327729:BQR327729 BZZ327729:CAN327729 CJV327729:CKJ327729 CTR327729:CUF327729 DDN327729:DEB327729 DNJ327729:DNX327729 DXF327729:DXT327729 EHB327729:EHP327729 EQX327729:ERL327729 FAT327729:FBH327729 FKP327729:FLD327729 FUL327729:FUZ327729 GEH327729:GEV327729 GOD327729:GOR327729 GXZ327729:GYN327729 HHV327729:HIJ327729 HRR327729:HSF327729 IBN327729:ICB327729 ILJ327729:ILX327729 IVF327729:IVT327729 JFB327729:JFP327729 JOX327729:JPL327729 JYT327729:JZH327729 KIP327729:KJD327729 KSL327729:KSZ327729 LCH327729:LCV327729 LMD327729:LMR327729 LVZ327729:LWN327729 MFV327729:MGJ327729 MPR327729:MQF327729 MZN327729:NAB327729 NJJ327729:NJX327729 NTF327729:NTT327729 ODB327729:ODP327729 OMX327729:ONL327729 OWT327729:OXH327729 PGP327729:PHD327729 PQL327729:PQZ327729 QAH327729:QAV327729 QKD327729:QKR327729 QTZ327729:QUN327729 RDV327729:REJ327729 RNR327729:ROF327729 RXN327729:RYB327729 SHJ327729:SHX327729 SRF327729:SRT327729 TBB327729:TBP327729 TKX327729:TLL327729 TUT327729:TVH327729 UEP327729:UFD327729 UOL327729:UOZ327729 UYH327729:UYV327729 VID327729:VIR327729 VRZ327729:VSN327729 WBV327729:WCJ327729 WLR327729:WMF327729 WVN327729:WWB327729 F393265:T393265 JB393265:JP393265 SX393265:TL393265 ACT393265:ADH393265 AMP393265:AND393265 AWL393265:AWZ393265 BGH393265:BGV393265 BQD393265:BQR393265 BZZ393265:CAN393265 CJV393265:CKJ393265 CTR393265:CUF393265 DDN393265:DEB393265 DNJ393265:DNX393265 DXF393265:DXT393265 EHB393265:EHP393265 EQX393265:ERL393265 FAT393265:FBH393265 FKP393265:FLD393265 FUL393265:FUZ393265 GEH393265:GEV393265 GOD393265:GOR393265 GXZ393265:GYN393265 HHV393265:HIJ393265 HRR393265:HSF393265 IBN393265:ICB393265 ILJ393265:ILX393265 IVF393265:IVT393265 JFB393265:JFP393265 JOX393265:JPL393265 JYT393265:JZH393265 KIP393265:KJD393265 KSL393265:KSZ393265 LCH393265:LCV393265 LMD393265:LMR393265 LVZ393265:LWN393265 MFV393265:MGJ393265 MPR393265:MQF393265 MZN393265:NAB393265 NJJ393265:NJX393265 NTF393265:NTT393265 ODB393265:ODP393265 OMX393265:ONL393265 OWT393265:OXH393265 PGP393265:PHD393265 PQL393265:PQZ393265 QAH393265:QAV393265 QKD393265:QKR393265 QTZ393265:QUN393265 RDV393265:REJ393265 RNR393265:ROF393265 RXN393265:RYB393265 SHJ393265:SHX393265 SRF393265:SRT393265 TBB393265:TBP393265 TKX393265:TLL393265 TUT393265:TVH393265 UEP393265:UFD393265 UOL393265:UOZ393265 UYH393265:UYV393265 VID393265:VIR393265 VRZ393265:VSN393265 WBV393265:WCJ393265 WLR393265:WMF393265 WVN393265:WWB393265 F458801:T458801 JB458801:JP458801 SX458801:TL458801 ACT458801:ADH458801 AMP458801:AND458801 AWL458801:AWZ458801 BGH458801:BGV458801 BQD458801:BQR458801 BZZ458801:CAN458801 CJV458801:CKJ458801 CTR458801:CUF458801 DDN458801:DEB458801 DNJ458801:DNX458801 DXF458801:DXT458801 EHB458801:EHP458801 EQX458801:ERL458801 FAT458801:FBH458801 FKP458801:FLD458801 FUL458801:FUZ458801 GEH458801:GEV458801 GOD458801:GOR458801 GXZ458801:GYN458801 HHV458801:HIJ458801 HRR458801:HSF458801 IBN458801:ICB458801 ILJ458801:ILX458801 IVF458801:IVT458801 JFB458801:JFP458801 JOX458801:JPL458801 JYT458801:JZH458801 KIP458801:KJD458801 KSL458801:KSZ458801 LCH458801:LCV458801 LMD458801:LMR458801 LVZ458801:LWN458801 MFV458801:MGJ458801 MPR458801:MQF458801 MZN458801:NAB458801 NJJ458801:NJX458801 NTF458801:NTT458801 ODB458801:ODP458801 OMX458801:ONL458801 OWT458801:OXH458801 PGP458801:PHD458801 PQL458801:PQZ458801 QAH458801:QAV458801 QKD458801:QKR458801 QTZ458801:QUN458801 RDV458801:REJ458801 RNR458801:ROF458801 RXN458801:RYB458801 SHJ458801:SHX458801 SRF458801:SRT458801 TBB458801:TBP458801 TKX458801:TLL458801 TUT458801:TVH458801 UEP458801:UFD458801 UOL458801:UOZ458801 UYH458801:UYV458801 VID458801:VIR458801 VRZ458801:VSN458801 WBV458801:WCJ458801 WLR458801:WMF458801 WVN458801:WWB458801 F524337:T524337 JB524337:JP524337 SX524337:TL524337 ACT524337:ADH524337 AMP524337:AND524337 AWL524337:AWZ524337 BGH524337:BGV524337 BQD524337:BQR524337 BZZ524337:CAN524337 CJV524337:CKJ524337 CTR524337:CUF524337 DDN524337:DEB524337 DNJ524337:DNX524337 DXF524337:DXT524337 EHB524337:EHP524337 EQX524337:ERL524337 FAT524337:FBH524337 FKP524337:FLD524337 FUL524337:FUZ524337 GEH524337:GEV524337 GOD524337:GOR524337 GXZ524337:GYN524337 HHV524337:HIJ524337 HRR524337:HSF524337 IBN524337:ICB524337 ILJ524337:ILX524337 IVF524337:IVT524337 JFB524337:JFP524337 JOX524337:JPL524337 JYT524337:JZH524337 KIP524337:KJD524337 KSL524337:KSZ524337 LCH524337:LCV524337 LMD524337:LMR524337 LVZ524337:LWN524337 MFV524337:MGJ524337 MPR524337:MQF524337 MZN524337:NAB524337 NJJ524337:NJX524337 NTF524337:NTT524337 ODB524337:ODP524337 OMX524337:ONL524337 OWT524337:OXH524337 PGP524337:PHD524337 PQL524337:PQZ524337 QAH524337:QAV524337 QKD524337:QKR524337 QTZ524337:QUN524337 RDV524337:REJ524337 RNR524337:ROF524337 RXN524337:RYB524337 SHJ524337:SHX524337 SRF524337:SRT524337 TBB524337:TBP524337 TKX524337:TLL524337 TUT524337:TVH524337 UEP524337:UFD524337 UOL524337:UOZ524337 UYH524337:UYV524337 VID524337:VIR524337 VRZ524337:VSN524337 WBV524337:WCJ524337 WLR524337:WMF524337 WVN524337:WWB524337 F589873:T589873 JB589873:JP589873 SX589873:TL589873 ACT589873:ADH589873 AMP589873:AND589873 AWL589873:AWZ589873 BGH589873:BGV589873 BQD589873:BQR589873 BZZ589873:CAN589873 CJV589873:CKJ589873 CTR589873:CUF589873 DDN589873:DEB589873 DNJ589873:DNX589873 DXF589873:DXT589873 EHB589873:EHP589873 EQX589873:ERL589873 FAT589873:FBH589873 FKP589873:FLD589873 FUL589873:FUZ589873 GEH589873:GEV589873 GOD589873:GOR589873 GXZ589873:GYN589873 HHV589873:HIJ589873 HRR589873:HSF589873 IBN589873:ICB589873 ILJ589873:ILX589873 IVF589873:IVT589873 JFB589873:JFP589873 JOX589873:JPL589873 JYT589873:JZH589873 KIP589873:KJD589873 KSL589873:KSZ589873 LCH589873:LCV589873 LMD589873:LMR589873 LVZ589873:LWN589873 MFV589873:MGJ589873 MPR589873:MQF589873 MZN589873:NAB589873 NJJ589873:NJX589873 NTF589873:NTT589873 ODB589873:ODP589873 OMX589873:ONL589873 OWT589873:OXH589873 PGP589873:PHD589873 PQL589873:PQZ589873 QAH589873:QAV589873 QKD589873:QKR589873 QTZ589873:QUN589873 RDV589873:REJ589873 RNR589873:ROF589873 RXN589873:RYB589873 SHJ589873:SHX589873 SRF589873:SRT589873 TBB589873:TBP589873 TKX589873:TLL589873 TUT589873:TVH589873 UEP589873:UFD589873 UOL589873:UOZ589873 UYH589873:UYV589873 VID589873:VIR589873 VRZ589873:VSN589873 WBV589873:WCJ589873 WLR589873:WMF589873 WVN589873:WWB589873 F655409:T655409 JB655409:JP655409 SX655409:TL655409 ACT655409:ADH655409 AMP655409:AND655409 AWL655409:AWZ655409 BGH655409:BGV655409 BQD655409:BQR655409 BZZ655409:CAN655409 CJV655409:CKJ655409 CTR655409:CUF655409 DDN655409:DEB655409 DNJ655409:DNX655409 DXF655409:DXT655409 EHB655409:EHP655409 EQX655409:ERL655409 FAT655409:FBH655409 FKP655409:FLD655409 FUL655409:FUZ655409 GEH655409:GEV655409 GOD655409:GOR655409 GXZ655409:GYN655409 HHV655409:HIJ655409 HRR655409:HSF655409 IBN655409:ICB655409 ILJ655409:ILX655409 IVF655409:IVT655409 JFB655409:JFP655409 JOX655409:JPL655409 JYT655409:JZH655409 KIP655409:KJD655409 KSL655409:KSZ655409 LCH655409:LCV655409 LMD655409:LMR655409 LVZ655409:LWN655409 MFV655409:MGJ655409 MPR655409:MQF655409 MZN655409:NAB655409 NJJ655409:NJX655409 NTF655409:NTT655409 ODB655409:ODP655409 OMX655409:ONL655409 OWT655409:OXH655409 PGP655409:PHD655409 PQL655409:PQZ655409 QAH655409:QAV655409 QKD655409:QKR655409 QTZ655409:QUN655409 RDV655409:REJ655409 RNR655409:ROF655409 RXN655409:RYB655409 SHJ655409:SHX655409 SRF655409:SRT655409 TBB655409:TBP655409 TKX655409:TLL655409 TUT655409:TVH655409 UEP655409:UFD655409 UOL655409:UOZ655409 UYH655409:UYV655409 VID655409:VIR655409 VRZ655409:VSN655409 WBV655409:WCJ655409 WLR655409:WMF655409 WVN655409:WWB655409 F720945:T720945 JB720945:JP720945 SX720945:TL720945 ACT720945:ADH720945 AMP720945:AND720945 AWL720945:AWZ720945 BGH720945:BGV720945 BQD720945:BQR720945 BZZ720945:CAN720945 CJV720945:CKJ720945 CTR720945:CUF720945 DDN720945:DEB720945 DNJ720945:DNX720945 DXF720945:DXT720945 EHB720945:EHP720945 EQX720945:ERL720945 FAT720945:FBH720945 FKP720945:FLD720945 FUL720945:FUZ720945 GEH720945:GEV720945 GOD720945:GOR720945 GXZ720945:GYN720945 HHV720945:HIJ720945 HRR720945:HSF720945 IBN720945:ICB720945 ILJ720945:ILX720945 IVF720945:IVT720945 JFB720945:JFP720945 JOX720945:JPL720945 JYT720945:JZH720945 KIP720945:KJD720945 KSL720945:KSZ720945 LCH720945:LCV720945 LMD720945:LMR720945 LVZ720945:LWN720945 MFV720945:MGJ720945 MPR720945:MQF720945 MZN720945:NAB720945 NJJ720945:NJX720945 NTF720945:NTT720945 ODB720945:ODP720945 OMX720945:ONL720945 OWT720945:OXH720945 PGP720945:PHD720945 PQL720945:PQZ720945 QAH720945:QAV720945 QKD720945:QKR720945 QTZ720945:QUN720945 RDV720945:REJ720945 RNR720945:ROF720945 RXN720945:RYB720945 SHJ720945:SHX720945 SRF720945:SRT720945 TBB720945:TBP720945 TKX720945:TLL720945 TUT720945:TVH720945 UEP720945:UFD720945 UOL720945:UOZ720945 UYH720945:UYV720945 VID720945:VIR720945 VRZ720945:VSN720945 WBV720945:WCJ720945 WLR720945:WMF720945 WVN720945:WWB720945 F786481:T786481 JB786481:JP786481 SX786481:TL786481 ACT786481:ADH786481 AMP786481:AND786481 AWL786481:AWZ786481 BGH786481:BGV786481 BQD786481:BQR786481 BZZ786481:CAN786481 CJV786481:CKJ786481 CTR786481:CUF786481 DDN786481:DEB786481 DNJ786481:DNX786481 DXF786481:DXT786481 EHB786481:EHP786481 EQX786481:ERL786481 FAT786481:FBH786481 FKP786481:FLD786481 FUL786481:FUZ786481 GEH786481:GEV786481 GOD786481:GOR786481 GXZ786481:GYN786481 HHV786481:HIJ786481 HRR786481:HSF786481 IBN786481:ICB786481 ILJ786481:ILX786481 IVF786481:IVT786481 JFB786481:JFP786481 JOX786481:JPL786481 JYT786481:JZH786481 KIP786481:KJD786481 KSL786481:KSZ786481 LCH786481:LCV786481 LMD786481:LMR786481 LVZ786481:LWN786481 MFV786481:MGJ786481 MPR786481:MQF786481 MZN786481:NAB786481 NJJ786481:NJX786481 NTF786481:NTT786481 ODB786481:ODP786481 OMX786481:ONL786481 OWT786481:OXH786481 PGP786481:PHD786481 PQL786481:PQZ786481 QAH786481:QAV786481 QKD786481:QKR786481 QTZ786481:QUN786481 RDV786481:REJ786481 RNR786481:ROF786481 RXN786481:RYB786481 SHJ786481:SHX786481 SRF786481:SRT786481 TBB786481:TBP786481 TKX786481:TLL786481 TUT786481:TVH786481 UEP786481:UFD786481 UOL786481:UOZ786481 UYH786481:UYV786481 VID786481:VIR786481 VRZ786481:VSN786481 WBV786481:WCJ786481 WLR786481:WMF786481 WVN786481:WWB786481 F852017:T852017 JB852017:JP852017 SX852017:TL852017 ACT852017:ADH852017 AMP852017:AND852017 AWL852017:AWZ852017 BGH852017:BGV852017 BQD852017:BQR852017 BZZ852017:CAN852017 CJV852017:CKJ852017 CTR852017:CUF852017 DDN852017:DEB852017 DNJ852017:DNX852017 DXF852017:DXT852017 EHB852017:EHP852017 EQX852017:ERL852017 FAT852017:FBH852017 FKP852017:FLD852017 FUL852017:FUZ852017 GEH852017:GEV852017 GOD852017:GOR852017 GXZ852017:GYN852017 HHV852017:HIJ852017 HRR852017:HSF852017 IBN852017:ICB852017 ILJ852017:ILX852017 IVF852017:IVT852017 JFB852017:JFP852017 JOX852017:JPL852017 JYT852017:JZH852017 KIP852017:KJD852017 KSL852017:KSZ852017 LCH852017:LCV852017 LMD852017:LMR852017 LVZ852017:LWN852017 MFV852017:MGJ852017 MPR852017:MQF852017 MZN852017:NAB852017 NJJ852017:NJX852017 NTF852017:NTT852017 ODB852017:ODP852017 OMX852017:ONL852017 OWT852017:OXH852017 PGP852017:PHD852017 PQL852017:PQZ852017 QAH852017:QAV852017 QKD852017:QKR852017 QTZ852017:QUN852017 RDV852017:REJ852017 RNR852017:ROF852017 RXN852017:RYB852017 SHJ852017:SHX852017 SRF852017:SRT852017 TBB852017:TBP852017 TKX852017:TLL852017 TUT852017:TVH852017 UEP852017:UFD852017 UOL852017:UOZ852017 UYH852017:UYV852017 VID852017:VIR852017 VRZ852017:VSN852017 WBV852017:WCJ852017 WLR852017:WMF852017 WVN852017:WWB852017 F917553:T917553 JB917553:JP917553 SX917553:TL917553 ACT917553:ADH917553 AMP917553:AND917553 AWL917553:AWZ917553 BGH917553:BGV917553 BQD917553:BQR917553 BZZ917553:CAN917553 CJV917553:CKJ917553 CTR917553:CUF917553 DDN917553:DEB917553 DNJ917553:DNX917553 DXF917553:DXT917553 EHB917553:EHP917553 EQX917553:ERL917553 FAT917553:FBH917553 FKP917553:FLD917553 FUL917553:FUZ917553 GEH917553:GEV917553 GOD917553:GOR917553 GXZ917553:GYN917553 HHV917553:HIJ917553 HRR917553:HSF917553 IBN917553:ICB917553 ILJ917553:ILX917553 IVF917553:IVT917553 JFB917553:JFP917553 JOX917553:JPL917553 JYT917553:JZH917553 KIP917553:KJD917553 KSL917553:KSZ917553 LCH917553:LCV917553 LMD917553:LMR917553 LVZ917553:LWN917553 MFV917553:MGJ917553 MPR917553:MQF917553 MZN917553:NAB917553 NJJ917553:NJX917553 NTF917553:NTT917553 ODB917553:ODP917553 OMX917553:ONL917553 OWT917553:OXH917553 PGP917553:PHD917553 PQL917553:PQZ917553 QAH917553:QAV917553 QKD917553:QKR917553 QTZ917553:QUN917553 RDV917553:REJ917553 RNR917553:ROF917553 RXN917553:RYB917553 SHJ917553:SHX917553 SRF917553:SRT917553 TBB917553:TBP917553 TKX917553:TLL917553 TUT917553:TVH917553 UEP917553:UFD917553 UOL917553:UOZ917553 UYH917553:UYV917553 VID917553:VIR917553 VRZ917553:VSN917553 WBV917553:WCJ917553 WLR917553:WMF917553 WVN917553:WWB917553 F983089:T983089 JB983089:JP983089 SX983089:TL983089 ACT983089:ADH983089 AMP983089:AND983089 AWL983089:AWZ983089 BGH983089:BGV983089 BQD983089:BQR983089 BZZ983089:CAN983089 CJV983089:CKJ983089 CTR983089:CUF983089 DDN983089:DEB983089 DNJ983089:DNX983089 DXF983089:DXT983089 EHB983089:EHP983089 EQX983089:ERL983089 FAT983089:FBH983089 FKP983089:FLD983089 FUL983089:FUZ983089 GEH983089:GEV983089 GOD983089:GOR983089 GXZ983089:GYN983089 HHV983089:HIJ983089 HRR983089:HSF983089 IBN983089:ICB983089 ILJ983089:ILX983089 IVF983089:IVT983089 JFB983089:JFP983089 JOX983089:JPL983089 JYT983089:JZH983089 KIP983089:KJD983089 KSL983089:KSZ983089 LCH983089:LCV983089 LMD983089:LMR983089 LVZ983089:LWN983089 MFV983089:MGJ983089 MPR983089:MQF983089 MZN983089:NAB983089 NJJ983089:NJX983089 NTF983089:NTT983089 ODB983089:ODP983089 OMX983089:ONL983089 OWT983089:OXH983089 PGP983089:PHD983089 PQL983089:PQZ983089 QAH983089:QAV983089 QKD983089:QKR983089 QTZ983089:QUN983089 RDV983089:REJ983089 RNR983089:ROF983089 RXN983089:RYB983089 SHJ983089:SHX983089 SRF983089:SRT983089 TBB983089:TBP983089 TKX983089:TLL983089 TUT983089:TVH983089 UEP983089:UFD983089 UOL983089:UOZ983089 UYH983089:UYV983089 VID983089:VIR983089 VRZ983089:VSN983089 WBV983089:WCJ983089 WLR983089:WMF983089 WVN983089:WWB983089">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:T40 JB40:JP40 SX40:TL40 ACT40:ADH40 AMP40:AND40 AWL40:AWZ40 BGH40:BGV40 BQD40:BQR40 BZZ40:CAN40 CJV40:CKJ40 CTR40:CUF40 DDN40:DEB40 DNJ40:DNX40 DXF40:DXT40 EHB40:EHP40 EQX40:ERL40 FAT40:FBH40 FKP40:FLD40 FUL40:FUZ40 GEH40:GEV40 GOD40:GOR40 GXZ40:GYN40 HHV40:HIJ40 HRR40:HSF40 IBN40:ICB40 ILJ40:ILX40 IVF40:IVT40 JFB40:JFP40 JOX40:JPL40 JYT40:JZH40 KIP40:KJD40 KSL40:KSZ40 LCH40:LCV40 LMD40:LMR40 LVZ40:LWN40 MFV40:MGJ40 MPR40:MQF40 MZN40:NAB40 NJJ40:NJX40 NTF40:NTT40 ODB40:ODP40 OMX40:ONL40 OWT40:OXH40 PGP40:PHD40 PQL40:PQZ40 QAH40:QAV40 QKD40:QKR40 QTZ40:QUN40 RDV40:REJ40 RNR40:ROF40 RXN40:RYB40 SHJ40:SHX40 SRF40:SRT40 TBB40:TBP40 TKX40:TLL40 TUT40:TVH40 UEP40:UFD40 UOL40:UOZ40 UYH40:UYV40 VID40:VIR40 VRZ40:VSN40 WBV40:WCJ40 WLR40:WMF40 WVN40:WWB40 F65576:T65576 JB65576:JP65576 SX65576:TL65576 ACT65576:ADH65576 AMP65576:AND65576 AWL65576:AWZ65576 BGH65576:BGV65576 BQD65576:BQR65576 BZZ65576:CAN65576 CJV65576:CKJ65576 CTR65576:CUF65576 DDN65576:DEB65576 DNJ65576:DNX65576 DXF65576:DXT65576 EHB65576:EHP65576 EQX65576:ERL65576 FAT65576:FBH65576 FKP65576:FLD65576 FUL65576:FUZ65576 GEH65576:GEV65576 GOD65576:GOR65576 GXZ65576:GYN65576 HHV65576:HIJ65576 HRR65576:HSF65576 IBN65576:ICB65576 ILJ65576:ILX65576 IVF65576:IVT65576 JFB65576:JFP65576 JOX65576:JPL65576 JYT65576:JZH65576 KIP65576:KJD65576 KSL65576:KSZ65576 LCH65576:LCV65576 LMD65576:LMR65576 LVZ65576:LWN65576 MFV65576:MGJ65576 MPR65576:MQF65576 MZN65576:NAB65576 NJJ65576:NJX65576 NTF65576:NTT65576 ODB65576:ODP65576 OMX65576:ONL65576 OWT65576:OXH65576 PGP65576:PHD65576 PQL65576:PQZ65576 QAH65576:QAV65576 QKD65576:QKR65576 QTZ65576:QUN65576 RDV65576:REJ65576 RNR65576:ROF65576 RXN65576:RYB65576 SHJ65576:SHX65576 SRF65576:SRT65576 TBB65576:TBP65576 TKX65576:TLL65576 TUT65576:TVH65576 UEP65576:UFD65576 UOL65576:UOZ65576 UYH65576:UYV65576 VID65576:VIR65576 VRZ65576:VSN65576 WBV65576:WCJ65576 WLR65576:WMF65576 WVN65576:WWB65576 F131112:T131112 JB131112:JP131112 SX131112:TL131112 ACT131112:ADH131112 AMP131112:AND131112 AWL131112:AWZ131112 BGH131112:BGV131112 BQD131112:BQR131112 BZZ131112:CAN131112 CJV131112:CKJ131112 CTR131112:CUF131112 DDN131112:DEB131112 DNJ131112:DNX131112 DXF131112:DXT131112 EHB131112:EHP131112 EQX131112:ERL131112 FAT131112:FBH131112 FKP131112:FLD131112 FUL131112:FUZ131112 GEH131112:GEV131112 GOD131112:GOR131112 GXZ131112:GYN131112 HHV131112:HIJ131112 HRR131112:HSF131112 IBN131112:ICB131112 ILJ131112:ILX131112 IVF131112:IVT131112 JFB131112:JFP131112 JOX131112:JPL131112 JYT131112:JZH131112 KIP131112:KJD131112 KSL131112:KSZ131112 LCH131112:LCV131112 LMD131112:LMR131112 LVZ131112:LWN131112 MFV131112:MGJ131112 MPR131112:MQF131112 MZN131112:NAB131112 NJJ131112:NJX131112 NTF131112:NTT131112 ODB131112:ODP131112 OMX131112:ONL131112 OWT131112:OXH131112 PGP131112:PHD131112 PQL131112:PQZ131112 QAH131112:QAV131112 QKD131112:QKR131112 QTZ131112:QUN131112 RDV131112:REJ131112 RNR131112:ROF131112 RXN131112:RYB131112 SHJ131112:SHX131112 SRF131112:SRT131112 TBB131112:TBP131112 TKX131112:TLL131112 TUT131112:TVH131112 UEP131112:UFD131112 UOL131112:UOZ131112 UYH131112:UYV131112 VID131112:VIR131112 VRZ131112:VSN131112 WBV131112:WCJ131112 WLR131112:WMF131112 WVN131112:WWB131112 F196648:T196648 JB196648:JP196648 SX196648:TL196648 ACT196648:ADH196648 AMP196648:AND196648 AWL196648:AWZ196648 BGH196648:BGV196648 BQD196648:BQR196648 BZZ196648:CAN196648 CJV196648:CKJ196648 CTR196648:CUF196648 DDN196648:DEB196648 DNJ196648:DNX196648 DXF196648:DXT196648 EHB196648:EHP196648 EQX196648:ERL196648 FAT196648:FBH196648 FKP196648:FLD196648 FUL196648:FUZ196648 GEH196648:GEV196648 GOD196648:GOR196648 GXZ196648:GYN196648 HHV196648:HIJ196648 HRR196648:HSF196648 IBN196648:ICB196648 ILJ196648:ILX196648 IVF196648:IVT196648 JFB196648:JFP196648 JOX196648:JPL196648 JYT196648:JZH196648 KIP196648:KJD196648 KSL196648:KSZ196648 LCH196648:LCV196648 LMD196648:LMR196648 LVZ196648:LWN196648 MFV196648:MGJ196648 MPR196648:MQF196648 MZN196648:NAB196648 NJJ196648:NJX196648 NTF196648:NTT196648 ODB196648:ODP196648 OMX196648:ONL196648 OWT196648:OXH196648 PGP196648:PHD196648 PQL196648:PQZ196648 QAH196648:QAV196648 QKD196648:QKR196648 QTZ196648:QUN196648 RDV196648:REJ196648 RNR196648:ROF196648 RXN196648:RYB196648 SHJ196648:SHX196648 SRF196648:SRT196648 TBB196648:TBP196648 TKX196648:TLL196648 TUT196648:TVH196648 UEP196648:UFD196648 UOL196648:UOZ196648 UYH196648:UYV196648 VID196648:VIR196648 VRZ196648:VSN196648 WBV196648:WCJ196648 WLR196648:WMF196648 WVN196648:WWB196648 F262184:T262184 JB262184:JP262184 SX262184:TL262184 ACT262184:ADH262184 AMP262184:AND262184 AWL262184:AWZ262184 BGH262184:BGV262184 BQD262184:BQR262184 BZZ262184:CAN262184 CJV262184:CKJ262184 CTR262184:CUF262184 DDN262184:DEB262184 DNJ262184:DNX262184 DXF262184:DXT262184 EHB262184:EHP262184 EQX262184:ERL262184 FAT262184:FBH262184 FKP262184:FLD262184 FUL262184:FUZ262184 GEH262184:GEV262184 GOD262184:GOR262184 GXZ262184:GYN262184 HHV262184:HIJ262184 HRR262184:HSF262184 IBN262184:ICB262184 ILJ262184:ILX262184 IVF262184:IVT262184 JFB262184:JFP262184 JOX262184:JPL262184 JYT262184:JZH262184 KIP262184:KJD262184 KSL262184:KSZ262184 LCH262184:LCV262184 LMD262184:LMR262184 LVZ262184:LWN262184 MFV262184:MGJ262184 MPR262184:MQF262184 MZN262184:NAB262184 NJJ262184:NJX262184 NTF262184:NTT262184 ODB262184:ODP262184 OMX262184:ONL262184 OWT262184:OXH262184 PGP262184:PHD262184 PQL262184:PQZ262184 QAH262184:QAV262184 QKD262184:QKR262184 QTZ262184:QUN262184 RDV262184:REJ262184 RNR262184:ROF262184 RXN262184:RYB262184 SHJ262184:SHX262184 SRF262184:SRT262184 TBB262184:TBP262184 TKX262184:TLL262184 TUT262184:TVH262184 UEP262184:UFD262184 UOL262184:UOZ262184 UYH262184:UYV262184 VID262184:VIR262184 VRZ262184:VSN262184 WBV262184:WCJ262184 WLR262184:WMF262184 WVN262184:WWB262184 F327720:T327720 JB327720:JP327720 SX327720:TL327720 ACT327720:ADH327720 AMP327720:AND327720 AWL327720:AWZ327720 BGH327720:BGV327720 BQD327720:BQR327720 BZZ327720:CAN327720 CJV327720:CKJ327720 CTR327720:CUF327720 DDN327720:DEB327720 DNJ327720:DNX327720 DXF327720:DXT327720 EHB327720:EHP327720 EQX327720:ERL327720 FAT327720:FBH327720 FKP327720:FLD327720 FUL327720:FUZ327720 GEH327720:GEV327720 GOD327720:GOR327720 GXZ327720:GYN327720 HHV327720:HIJ327720 HRR327720:HSF327720 IBN327720:ICB327720 ILJ327720:ILX327720 IVF327720:IVT327720 JFB327720:JFP327720 JOX327720:JPL327720 JYT327720:JZH327720 KIP327720:KJD327720 KSL327720:KSZ327720 LCH327720:LCV327720 LMD327720:LMR327720 LVZ327720:LWN327720 MFV327720:MGJ327720 MPR327720:MQF327720 MZN327720:NAB327720 NJJ327720:NJX327720 NTF327720:NTT327720 ODB327720:ODP327720 OMX327720:ONL327720 OWT327720:OXH327720 PGP327720:PHD327720 PQL327720:PQZ327720 QAH327720:QAV327720 QKD327720:QKR327720 QTZ327720:QUN327720 RDV327720:REJ327720 RNR327720:ROF327720 RXN327720:RYB327720 SHJ327720:SHX327720 SRF327720:SRT327720 TBB327720:TBP327720 TKX327720:TLL327720 TUT327720:TVH327720 UEP327720:UFD327720 UOL327720:UOZ327720 UYH327720:UYV327720 VID327720:VIR327720 VRZ327720:VSN327720 WBV327720:WCJ327720 WLR327720:WMF327720 WVN327720:WWB327720 F393256:T393256 JB393256:JP393256 SX393256:TL393256 ACT393256:ADH393256 AMP393256:AND393256 AWL393256:AWZ393256 BGH393256:BGV393256 BQD393256:BQR393256 BZZ393256:CAN393256 CJV393256:CKJ393256 CTR393256:CUF393256 DDN393256:DEB393256 DNJ393256:DNX393256 DXF393256:DXT393256 EHB393256:EHP393256 EQX393256:ERL393256 FAT393256:FBH393256 FKP393256:FLD393256 FUL393256:FUZ393256 GEH393256:GEV393256 GOD393256:GOR393256 GXZ393256:GYN393256 HHV393256:HIJ393256 HRR393256:HSF393256 IBN393256:ICB393256 ILJ393256:ILX393256 IVF393256:IVT393256 JFB393256:JFP393256 JOX393256:JPL393256 JYT393256:JZH393256 KIP393256:KJD393256 KSL393256:KSZ393256 LCH393256:LCV393256 LMD393256:LMR393256 LVZ393256:LWN393256 MFV393256:MGJ393256 MPR393256:MQF393256 MZN393256:NAB393256 NJJ393256:NJX393256 NTF393256:NTT393256 ODB393256:ODP393256 OMX393256:ONL393256 OWT393256:OXH393256 PGP393256:PHD393256 PQL393256:PQZ393256 QAH393256:QAV393256 QKD393256:QKR393256 QTZ393256:QUN393256 RDV393256:REJ393256 RNR393256:ROF393256 RXN393256:RYB393256 SHJ393256:SHX393256 SRF393256:SRT393256 TBB393256:TBP393256 TKX393256:TLL393256 TUT393256:TVH393256 UEP393256:UFD393256 UOL393256:UOZ393256 UYH393256:UYV393256 VID393256:VIR393256 VRZ393256:VSN393256 WBV393256:WCJ393256 WLR393256:WMF393256 WVN393256:WWB393256 F458792:T458792 JB458792:JP458792 SX458792:TL458792 ACT458792:ADH458792 AMP458792:AND458792 AWL458792:AWZ458792 BGH458792:BGV458792 BQD458792:BQR458792 BZZ458792:CAN458792 CJV458792:CKJ458792 CTR458792:CUF458792 DDN458792:DEB458792 DNJ458792:DNX458792 DXF458792:DXT458792 EHB458792:EHP458792 EQX458792:ERL458792 FAT458792:FBH458792 FKP458792:FLD458792 FUL458792:FUZ458792 GEH458792:GEV458792 GOD458792:GOR458792 GXZ458792:GYN458792 HHV458792:HIJ458792 HRR458792:HSF458792 IBN458792:ICB458792 ILJ458792:ILX458792 IVF458792:IVT458792 JFB458792:JFP458792 JOX458792:JPL458792 JYT458792:JZH458792 KIP458792:KJD458792 KSL458792:KSZ458792 LCH458792:LCV458792 LMD458792:LMR458792 LVZ458792:LWN458792 MFV458792:MGJ458792 MPR458792:MQF458792 MZN458792:NAB458792 NJJ458792:NJX458792 NTF458792:NTT458792 ODB458792:ODP458792 OMX458792:ONL458792 OWT458792:OXH458792 PGP458792:PHD458792 PQL458792:PQZ458792 QAH458792:QAV458792 QKD458792:QKR458792 QTZ458792:QUN458792 RDV458792:REJ458792 RNR458792:ROF458792 RXN458792:RYB458792 SHJ458792:SHX458792 SRF458792:SRT458792 TBB458792:TBP458792 TKX458792:TLL458792 TUT458792:TVH458792 UEP458792:UFD458792 UOL458792:UOZ458792 UYH458792:UYV458792 VID458792:VIR458792 VRZ458792:VSN458792 WBV458792:WCJ458792 WLR458792:WMF458792 WVN458792:WWB458792 F524328:T524328 JB524328:JP524328 SX524328:TL524328 ACT524328:ADH524328 AMP524328:AND524328 AWL524328:AWZ524328 BGH524328:BGV524328 BQD524328:BQR524328 BZZ524328:CAN524328 CJV524328:CKJ524328 CTR524328:CUF524328 DDN524328:DEB524328 DNJ524328:DNX524328 DXF524328:DXT524328 EHB524328:EHP524328 EQX524328:ERL524328 FAT524328:FBH524328 FKP524328:FLD524328 FUL524328:FUZ524328 GEH524328:GEV524328 GOD524328:GOR524328 GXZ524328:GYN524328 HHV524328:HIJ524328 HRR524328:HSF524328 IBN524328:ICB524328 ILJ524328:ILX524328 IVF524328:IVT524328 JFB524328:JFP524328 JOX524328:JPL524328 JYT524328:JZH524328 KIP524328:KJD524328 KSL524328:KSZ524328 LCH524328:LCV524328 LMD524328:LMR524328 LVZ524328:LWN524328 MFV524328:MGJ524328 MPR524328:MQF524328 MZN524328:NAB524328 NJJ524328:NJX524328 NTF524328:NTT524328 ODB524328:ODP524328 OMX524328:ONL524328 OWT524328:OXH524328 PGP524328:PHD524328 PQL524328:PQZ524328 QAH524328:QAV524328 QKD524328:QKR524328 QTZ524328:QUN524328 RDV524328:REJ524328 RNR524328:ROF524328 RXN524328:RYB524328 SHJ524328:SHX524328 SRF524328:SRT524328 TBB524328:TBP524328 TKX524328:TLL524328 TUT524328:TVH524328 UEP524328:UFD524328 UOL524328:UOZ524328 UYH524328:UYV524328 VID524328:VIR524328 VRZ524328:VSN524328 WBV524328:WCJ524328 WLR524328:WMF524328 WVN524328:WWB524328 F589864:T589864 JB589864:JP589864 SX589864:TL589864 ACT589864:ADH589864 AMP589864:AND589864 AWL589864:AWZ589864 BGH589864:BGV589864 BQD589864:BQR589864 BZZ589864:CAN589864 CJV589864:CKJ589864 CTR589864:CUF589864 DDN589864:DEB589864 DNJ589864:DNX589864 DXF589864:DXT589864 EHB589864:EHP589864 EQX589864:ERL589864 FAT589864:FBH589864 FKP589864:FLD589864 FUL589864:FUZ589864 GEH589864:GEV589864 GOD589864:GOR589864 GXZ589864:GYN589864 HHV589864:HIJ589864 HRR589864:HSF589864 IBN589864:ICB589864 ILJ589864:ILX589864 IVF589864:IVT589864 JFB589864:JFP589864 JOX589864:JPL589864 JYT589864:JZH589864 KIP589864:KJD589864 KSL589864:KSZ589864 LCH589864:LCV589864 LMD589864:LMR589864 LVZ589864:LWN589864 MFV589864:MGJ589864 MPR589864:MQF589864 MZN589864:NAB589864 NJJ589864:NJX589864 NTF589864:NTT589864 ODB589864:ODP589864 OMX589864:ONL589864 OWT589864:OXH589864 PGP589864:PHD589864 PQL589864:PQZ589864 QAH589864:QAV589864 QKD589864:QKR589864 QTZ589864:QUN589864 RDV589864:REJ589864 RNR589864:ROF589864 RXN589864:RYB589864 SHJ589864:SHX589864 SRF589864:SRT589864 TBB589864:TBP589864 TKX589864:TLL589864 TUT589864:TVH589864 UEP589864:UFD589864 UOL589864:UOZ589864 UYH589864:UYV589864 VID589864:VIR589864 VRZ589864:VSN589864 WBV589864:WCJ589864 WLR589864:WMF589864 WVN589864:WWB589864 F655400:T655400 JB655400:JP655400 SX655400:TL655400 ACT655400:ADH655400 AMP655400:AND655400 AWL655400:AWZ655400 BGH655400:BGV655400 BQD655400:BQR655400 BZZ655400:CAN655400 CJV655400:CKJ655400 CTR655400:CUF655400 DDN655400:DEB655400 DNJ655400:DNX655400 DXF655400:DXT655400 EHB655400:EHP655400 EQX655400:ERL655400 FAT655400:FBH655400 FKP655400:FLD655400 FUL655400:FUZ655400 GEH655400:GEV655400 GOD655400:GOR655400 GXZ655400:GYN655400 HHV655400:HIJ655400 HRR655400:HSF655400 IBN655400:ICB655400 ILJ655400:ILX655400 IVF655400:IVT655400 JFB655400:JFP655400 JOX655400:JPL655400 JYT655400:JZH655400 KIP655400:KJD655400 KSL655400:KSZ655400 LCH655400:LCV655400 LMD655400:LMR655400 LVZ655400:LWN655400 MFV655400:MGJ655400 MPR655400:MQF655400 MZN655400:NAB655400 NJJ655400:NJX655400 NTF655400:NTT655400 ODB655400:ODP655400 OMX655400:ONL655400 OWT655400:OXH655400 PGP655400:PHD655400 PQL655400:PQZ655400 QAH655400:QAV655400 QKD655400:QKR655400 QTZ655400:QUN655400 RDV655400:REJ655400 RNR655400:ROF655400 RXN655400:RYB655400 SHJ655400:SHX655400 SRF655400:SRT655400 TBB655400:TBP655400 TKX655400:TLL655400 TUT655400:TVH655400 UEP655400:UFD655400 UOL655400:UOZ655400 UYH655400:UYV655400 VID655400:VIR655400 VRZ655400:VSN655400 WBV655400:WCJ655400 WLR655400:WMF655400 WVN655400:WWB655400 F720936:T720936 JB720936:JP720936 SX720936:TL720936 ACT720936:ADH720936 AMP720936:AND720936 AWL720936:AWZ720936 BGH720936:BGV720936 BQD720936:BQR720936 BZZ720936:CAN720936 CJV720936:CKJ720936 CTR720936:CUF720936 DDN720936:DEB720936 DNJ720936:DNX720936 DXF720936:DXT720936 EHB720936:EHP720936 EQX720936:ERL720936 FAT720936:FBH720936 FKP720936:FLD720936 FUL720936:FUZ720936 GEH720936:GEV720936 GOD720936:GOR720936 GXZ720936:GYN720936 HHV720936:HIJ720936 HRR720936:HSF720936 IBN720936:ICB720936 ILJ720936:ILX720936 IVF720936:IVT720936 JFB720936:JFP720936 JOX720936:JPL720936 JYT720936:JZH720936 KIP720936:KJD720936 KSL720936:KSZ720936 LCH720936:LCV720936 LMD720936:LMR720936 LVZ720936:LWN720936 MFV720936:MGJ720936 MPR720936:MQF720936 MZN720936:NAB720936 NJJ720936:NJX720936 NTF720936:NTT720936 ODB720936:ODP720936 OMX720936:ONL720936 OWT720936:OXH720936 PGP720936:PHD720936 PQL720936:PQZ720936 QAH720936:QAV720936 QKD720936:QKR720936 QTZ720936:QUN720936 RDV720936:REJ720936 RNR720936:ROF720936 RXN720936:RYB720936 SHJ720936:SHX720936 SRF720936:SRT720936 TBB720936:TBP720936 TKX720936:TLL720936 TUT720936:TVH720936 UEP720936:UFD720936 UOL720936:UOZ720936 UYH720936:UYV720936 VID720936:VIR720936 VRZ720936:VSN720936 WBV720936:WCJ720936 WLR720936:WMF720936 WVN720936:WWB720936 F786472:T786472 JB786472:JP786472 SX786472:TL786472 ACT786472:ADH786472 AMP786472:AND786472 AWL786472:AWZ786472 BGH786472:BGV786472 BQD786472:BQR786472 BZZ786472:CAN786472 CJV786472:CKJ786472 CTR786472:CUF786472 DDN786472:DEB786472 DNJ786472:DNX786472 DXF786472:DXT786472 EHB786472:EHP786472 EQX786472:ERL786472 FAT786472:FBH786472 FKP786472:FLD786472 FUL786472:FUZ786472 GEH786472:GEV786472 GOD786472:GOR786472 GXZ786472:GYN786472 HHV786472:HIJ786472 HRR786472:HSF786472 IBN786472:ICB786472 ILJ786472:ILX786472 IVF786472:IVT786472 JFB786472:JFP786472 JOX786472:JPL786472 JYT786472:JZH786472 KIP786472:KJD786472 KSL786472:KSZ786472 LCH786472:LCV786472 LMD786472:LMR786472 LVZ786472:LWN786472 MFV786472:MGJ786472 MPR786472:MQF786472 MZN786472:NAB786472 NJJ786472:NJX786472 NTF786472:NTT786472 ODB786472:ODP786472 OMX786472:ONL786472 OWT786472:OXH786472 PGP786472:PHD786472 PQL786472:PQZ786472 QAH786472:QAV786472 QKD786472:QKR786472 QTZ786472:QUN786472 RDV786472:REJ786472 RNR786472:ROF786472 RXN786472:RYB786472 SHJ786472:SHX786472 SRF786472:SRT786472 TBB786472:TBP786472 TKX786472:TLL786472 TUT786472:TVH786472 UEP786472:UFD786472 UOL786472:UOZ786472 UYH786472:UYV786472 VID786472:VIR786472 VRZ786472:VSN786472 WBV786472:WCJ786472 WLR786472:WMF786472 WVN786472:WWB786472 F852008:T852008 JB852008:JP852008 SX852008:TL852008 ACT852008:ADH852008 AMP852008:AND852008 AWL852008:AWZ852008 BGH852008:BGV852008 BQD852008:BQR852008 BZZ852008:CAN852008 CJV852008:CKJ852008 CTR852008:CUF852008 DDN852008:DEB852008 DNJ852008:DNX852008 DXF852008:DXT852008 EHB852008:EHP852008 EQX852008:ERL852008 FAT852008:FBH852008 FKP852008:FLD852008 FUL852008:FUZ852008 GEH852008:GEV852008 GOD852008:GOR852008 GXZ852008:GYN852008 HHV852008:HIJ852008 HRR852008:HSF852008 IBN852008:ICB852008 ILJ852008:ILX852008 IVF852008:IVT852008 JFB852008:JFP852008 JOX852008:JPL852008 JYT852008:JZH852008 KIP852008:KJD852008 KSL852008:KSZ852008 LCH852008:LCV852008 LMD852008:LMR852008 LVZ852008:LWN852008 MFV852008:MGJ852008 MPR852008:MQF852008 MZN852008:NAB852008 NJJ852008:NJX852008 NTF852008:NTT852008 ODB852008:ODP852008 OMX852008:ONL852008 OWT852008:OXH852008 PGP852008:PHD852008 PQL852008:PQZ852008 QAH852008:QAV852008 QKD852008:QKR852008 QTZ852008:QUN852008 RDV852008:REJ852008 RNR852008:ROF852008 RXN852008:RYB852008 SHJ852008:SHX852008 SRF852008:SRT852008 TBB852008:TBP852008 TKX852008:TLL852008 TUT852008:TVH852008 UEP852008:UFD852008 UOL852008:UOZ852008 UYH852008:UYV852008 VID852008:VIR852008 VRZ852008:VSN852008 WBV852008:WCJ852008 WLR852008:WMF852008 WVN852008:WWB852008 F917544:T917544 JB917544:JP917544 SX917544:TL917544 ACT917544:ADH917544 AMP917544:AND917544 AWL917544:AWZ917544 BGH917544:BGV917544 BQD917544:BQR917544 BZZ917544:CAN917544 CJV917544:CKJ917544 CTR917544:CUF917544 DDN917544:DEB917544 DNJ917544:DNX917544 DXF917544:DXT917544 EHB917544:EHP917544 EQX917544:ERL917544 FAT917544:FBH917544 FKP917544:FLD917544 FUL917544:FUZ917544 GEH917544:GEV917544 GOD917544:GOR917544 GXZ917544:GYN917544 HHV917544:HIJ917544 HRR917544:HSF917544 IBN917544:ICB917544 ILJ917544:ILX917544 IVF917544:IVT917544 JFB917544:JFP917544 JOX917544:JPL917544 JYT917544:JZH917544 KIP917544:KJD917544 KSL917544:KSZ917544 LCH917544:LCV917544 LMD917544:LMR917544 LVZ917544:LWN917544 MFV917544:MGJ917544 MPR917544:MQF917544 MZN917544:NAB917544 NJJ917544:NJX917544 NTF917544:NTT917544 ODB917544:ODP917544 OMX917544:ONL917544 OWT917544:OXH917544 PGP917544:PHD917544 PQL917544:PQZ917544 QAH917544:QAV917544 QKD917544:QKR917544 QTZ917544:QUN917544 RDV917544:REJ917544 RNR917544:ROF917544 RXN917544:RYB917544 SHJ917544:SHX917544 SRF917544:SRT917544 TBB917544:TBP917544 TKX917544:TLL917544 TUT917544:TVH917544 UEP917544:UFD917544 UOL917544:UOZ917544 UYH917544:UYV917544 VID917544:VIR917544 VRZ917544:VSN917544 WBV917544:WCJ917544 WLR917544:WMF917544 WVN917544:WWB917544 F983080:T983080 JB983080:JP983080 SX983080:TL983080 ACT983080:ADH983080 AMP983080:AND983080 AWL983080:AWZ983080 BGH983080:BGV983080 BQD983080:BQR983080 BZZ983080:CAN983080 CJV983080:CKJ983080 CTR983080:CUF983080 DDN983080:DEB983080 DNJ983080:DNX983080 DXF983080:DXT983080 EHB983080:EHP983080 EQX983080:ERL983080 FAT983080:FBH983080 FKP983080:FLD983080 FUL983080:FUZ983080 GEH983080:GEV983080 GOD983080:GOR983080 GXZ983080:GYN983080 HHV983080:HIJ983080 HRR983080:HSF983080 IBN983080:ICB983080 ILJ983080:ILX983080 IVF983080:IVT983080 JFB983080:JFP983080 JOX983080:JPL983080 JYT983080:JZH983080 KIP983080:KJD983080 KSL983080:KSZ983080 LCH983080:LCV983080 LMD983080:LMR983080 LVZ983080:LWN983080 MFV983080:MGJ983080 MPR983080:MQF983080 MZN983080:NAB983080 NJJ983080:NJX983080 NTF983080:NTT983080 ODB983080:ODP983080 OMX983080:ONL983080 OWT983080:OXH983080 PGP983080:PHD983080 PQL983080:PQZ983080 QAH983080:QAV983080 QKD983080:QKR983080 QTZ983080:QUN983080 RDV983080:REJ983080 RNR983080:ROF983080 RXN983080:RYB983080 SHJ983080:SHX983080 SRF983080:SRT983080 TBB983080:TBP983080 TKX983080:TLL983080 TUT983080:TVH983080 UEP983080:UFD983080 UOL983080:UOZ983080 UYH983080:UYV983080 VID983080:VIR983080 VRZ983080:VSN983080 WBV983080:WCJ983080 WLR983080:WMF983080 WVN983080:WWB983080">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F47:T48 JB47:JP48 SX47:TL48 ACT47:ADH48 AMP47:AND48 AWL47:AWZ48 BGH47:BGV48 BQD47:BQR48 BZZ47:CAN48 CJV47:CKJ48 CTR47:CUF48 DDN47:DEB48 DNJ47:DNX48 DXF47:DXT48 EHB47:EHP48 EQX47:ERL48 FAT47:FBH48 FKP47:FLD48 FUL47:FUZ48 GEH47:GEV48 GOD47:GOR48 GXZ47:GYN48 HHV47:HIJ48 HRR47:HSF48 IBN47:ICB48 ILJ47:ILX48 IVF47:IVT48 JFB47:JFP48 JOX47:JPL48 JYT47:JZH48 KIP47:KJD48 KSL47:KSZ48 LCH47:LCV48 LMD47:LMR48 LVZ47:LWN48 MFV47:MGJ48 MPR47:MQF48 MZN47:NAB48 NJJ47:NJX48 NTF47:NTT48 ODB47:ODP48 OMX47:ONL48 OWT47:OXH48 PGP47:PHD48 PQL47:PQZ48 QAH47:QAV48 QKD47:QKR48 QTZ47:QUN48 RDV47:REJ48 RNR47:ROF48 RXN47:RYB48 SHJ47:SHX48 SRF47:SRT48 TBB47:TBP48 TKX47:TLL48 TUT47:TVH48 UEP47:UFD48 UOL47:UOZ48 UYH47:UYV48 VID47:VIR48 VRZ47:VSN48 WBV47:WCJ48 WLR47:WMF48 WVN47:WWB48 F65584:T65584 JB65584:JP65584 SX65584:TL65584 ACT65584:ADH65584 AMP65584:AND65584 AWL65584:AWZ65584 BGH65584:BGV65584 BQD65584:BQR65584 BZZ65584:CAN65584 CJV65584:CKJ65584 CTR65584:CUF65584 DDN65584:DEB65584 DNJ65584:DNX65584 DXF65584:DXT65584 EHB65584:EHP65584 EQX65584:ERL65584 FAT65584:FBH65584 FKP65584:FLD65584 FUL65584:FUZ65584 GEH65584:GEV65584 GOD65584:GOR65584 GXZ65584:GYN65584 HHV65584:HIJ65584 HRR65584:HSF65584 IBN65584:ICB65584 ILJ65584:ILX65584 IVF65584:IVT65584 JFB65584:JFP65584 JOX65584:JPL65584 JYT65584:JZH65584 KIP65584:KJD65584 KSL65584:KSZ65584 LCH65584:LCV65584 LMD65584:LMR65584 LVZ65584:LWN65584 MFV65584:MGJ65584 MPR65584:MQF65584 MZN65584:NAB65584 NJJ65584:NJX65584 NTF65584:NTT65584 ODB65584:ODP65584 OMX65584:ONL65584 OWT65584:OXH65584 PGP65584:PHD65584 PQL65584:PQZ65584 QAH65584:QAV65584 QKD65584:QKR65584 QTZ65584:QUN65584 RDV65584:REJ65584 RNR65584:ROF65584 RXN65584:RYB65584 SHJ65584:SHX65584 SRF65584:SRT65584 TBB65584:TBP65584 TKX65584:TLL65584 TUT65584:TVH65584 UEP65584:UFD65584 UOL65584:UOZ65584 UYH65584:UYV65584 VID65584:VIR65584 VRZ65584:VSN65584 WBV65584:WCJ65584 WLR65584:WMF65584 WVN65584:WWB65584 F131120:T131120 JB131120:JP131120 SX131120:TL131120 ACT131120:ADH131120 AMP131120:AND131120 AWL131120:AWZ131120 BGH131120:BGV131120 BQD131120:BQR131120 BZZ131120:CAN131120 CJV131120:CKJ131120 CTR131120:CUF131120 DDN131120:DEB131120 DNJ131120:DNX131120 DXF131120:DXT131120 EHB131120:EHP131120 EQX131120:ERL131120 FAT131120:FBH131120 FKP131120:FLD131120 FUL131120:FUZ131120 GEH131120:GEV131120 GOD131120:GOR131120 GXZ131120:GYN131120 HHV131120:HIJ131120 HRR131120:HSF131120 IBN131120:ICB131120 ILJ131120:ILX131120 IVF131120:IVT131120 JFB131120:JFP131120 JOX131120:JPL131120 JYT131120:JZH131120 KIP131120:KJD131120 KSL131120:KSZ131120 LCH131120:LCV131120 LMD131120:LMR131120 LVZ131120:LWN131120 MFV131120:MGJ131120 MPR131120:MQF131120 MZN131120:NAB131120 NJJ131120:NJX131120 NTF131120:NTT131120 ODB131120:ODP131120 OMX131120:ONL131120 OWT131120:OXH131120 PGP131120:PHD131120 PQL131120:PQZ131120 QAH131120:QAV131120 QKD131120:QKR131120 QTZ131120:QUN131120 RDV131120:REJ131120 RNR131120:ROF131120 RXN131120:RYB131120 SHJ131120:SHX131120 SRF131120:SRT131120 TBB131120:TBP131120 TKX131120:TLL131120 TUT131120:TVH131120 UEP131120:UFD131120 UOL131120:UOZ131120 UYH131120:UYV131120 VID131120:VIR131120 VRZ131120:VSN131120 WBV131120:WCJ131120 WLR131120:WMF131120 WVN131120:WWB131120 F196656:T196656 JB196656:JP196656 SX196656:TL196656 ACT196656:ADH196656 AMP196656:AND196656 AWL196656:AWZ196656 BGH196656:BGV196656 BQD196656:BQR196656 BZZ196656:CAN196656 CJV196656:CKJ196656 CTR196656:CUF196656 DDN196656:DEB196656 DNJ196656:DNX196656 DXF196656:DXT196656 EHB196656:EHP196656 EQX196656:ERL196656 FAT196656:FBH196656 FKP196656:FLD196656 FUL196656:FUZ196656 GEH196656:GEV196656 GOD196656:GOR196656 GXZ196656:GYN196656 HHV196656:HIJ196656 HRR196656:HSF196656 IBN196656:ICB196656 ILJ196656:ILX196656 IVF196656:IVT196656 JFB196656:JFP196656 JOX196656:JPL196656 JYT196656:JZH196656 KIP196656:KJD196656 KSL196656:KSZ196656 LCH196656:LCV196656 LMD196656:LMR196656 LVZ196656:LWN196656 MFV196656:MGJ196656 MPR196656:MQF196656 MZN196656:NAB196656 NJJ196656:NJX196656 NTF196656:NTT196656 ODB196656:ODP196656 OMX196656:ONL196656 OWT196656:OXH196656 PGP196656:PHD196656 PQL196656:PQZ196656 QAH196656:QAV196656 QKD196656:QKR196656 QTZ196656:QUN196656 RDV196656:REJ196656 RNR196656:ROF196656 RXN196656:RYB196656 SHJ196656:SHX196656 SRF196656:SRT196656 TBB196656:TBP196656 TKX196656:TLL196656 TUT196656:TVH196656 UEP196656:UFD196656 UOL196656:UOZ196656 UYH196656:UYV196656 VID196656:VIR196656 VRZ196656:VSN196656 WBV196656:WCJ196656 WLR196656:WMF196656 WVN196656:WWB196656 F262192:T262192 JB262192:JP262192 SX262192:TL262192 ACT262192:ADH262192 AMP262192:AND262192 AWL262192:AWZ262192 BGH262192:BGV262192 BQD262192:BQR262192 BZZ262192:CAN262192 CJV262192:CKJ262192 CTR262192:CUF262192 DDN262192:DEB262192 DNJ262192:DNX262192 DXF262192:DXT262192 EHB262192:EHP262192 EQX262192:ERL262192 FAT262192:FBH262192 FKP262192:FLD262192 FUL262192:FUZ262192 GEH262192:GEV262192 GOD262192:GOR262192 GXZ262192:GYN262192 HHV262192:HIJ262192 HRR262192:HSF262192 IBN262192:ICB262192 ILJ262192:ILX262192 IVF262192:IVT262192 JFB262192:JFP262192 JOX262192:JPL262192 JYT262192:JZH262192 KIP262192:KJD262192 KSL262192:KSZ262192 LCH262192:LCV262192 LMD262192:LMR262192 LVZ262192:LWN262192 MFV262192:MGJ262192 MPR262192:MQF262192 MZN262192:NAB262192 NJJ262192:NJX262192 NTF262192:NTT262192 ODB262192:ODP262192 OMX262192:ONL262192 OWT262192:OXH262192 PGP262192:PHD262192 PQL262192:PQZ262192 QAH262192:QAV262192 QKD262192:QKR262192 QTZ262192:QUN262192 RDV262192:REJ262192 RNR262192:ROF262192 RXN262192:RYB262192 SHJ262192:SHX262192 SRF262192:SRT262192 TBB262192:TBP262192 TKX262192:TLL262192 TUT262192:TVH262192 UEP262192:UFD262192 UOL262192:UOZ262192 UYH262192:UYV262192 VID262192:VIR262192 VRZ262192:VSN262192 WBV262192:WCJ262192 WLR262192:WMF262192 WVN262192:WWB262192 F327728:T327728 JB327728:JP327728 SX327728:TL327728 ACT327728:ADH327728 AMP327728:AND327728 AWL327728:AWZ327728 BGH327728:BGV327728 BQD327728:BQR327728 BZZ327728:CAN327728 CJV327728:CKJ327728 CTR327728:CUF327728 DDN327728:DEB327728 DNJ327728:DNX327728 DXF327728:DXT327728 EHB327728:EHP327728 EQX327728:ERL327728 FAT327728:FBH327728 FKP327728:FLD327728 FUL327728:FUZ327728 GEH327728:GEV327728 GOD327728:GOR327728 GXZ327728:GYN327728 HHV327728:HIJ327728 HRR327728:HSF327728 IBN327728:ICB327728 ILJ327728:ILX327728 IVF327728:IVT327728 JFB327728:JFP327728 JOX327728:JPL327728 JYT327728:JZH327728 KIP327728:KJD327728 KSL327728:KSZ327728 LCH327728:LCV327728 LMD327728:LMR327728 LVZ327728:LWN327728 MFV327728:MGJ327728 MPR327728:MQF327728 MZN327728:NAB327728 NJJ327728:NJX327728 NTF327728:NTT327728 ODB327728:ODP327728 OMX327728:ONL327728 OWT327728:OXH327728 PGP327728:PHD327728 PQL327728:PQZ327728 QAH327728:QAV327728 QKD327728:QKR327728 QTZ327728:QUN327728 RDV327728:REJ327728 RNR327728:ROF327728 RXN327728:RYB327728 SHJ327728:SHX327728 SRF327728:SRT327728 TBB327728:TBP327728 TKX327728:TLL327728 TUT327728:TVH327728 UEP327728:UFD327728 UOL327728:UOZ327728 UYH327728:UYV327728 VID327728:VIR327728 VRZ327728:VSN327728 WBV327728:WCJ327728 WLR327728:WMF327728 WVN327728:WWB327728 F393264:T393264 JB393264:JP393264 SX393264:TL393264 ACT393264:ADH393264 AMP393264:AND393264 AWL393264:AWZ393264 BGH393264:BGV393264 BQD393264:BQR393264 BZZ393264:CAN393264 CJV393264:CKJ393264 CTR393264:CUF393264 DDN393264:DEB393264 DNJ393264:DNX393264 DXF393264:DXT393264 EHB393264:EHP393264 EQX393264:ERL393264 FAT393264:FBH393264 FKP393264:FLD393264 FUL393264:FUZ393264 GEH393264:GEV393264 GOD393264:GOR393264 GXZ393264:GYN393264 HHV393264:HIJ393264 HRR393264:HSF393264 IBN393264:ICB393264 ILJ393264:ILX393264 IVF393264:IVT393264 JFB393264:JFP393264 JOX393264:JPL393264 JYT393264:JZH393264 KIP393264:KJD393264 KSL393264:KSZ393264 LCH393264:LCV393264 LMD393264:LMR393264 LVZ393264:LWN393264 MFV393264:MGJ393264 MPR393264:MQF393264 MZN393264:NAB393264 NJJ393264:NJX393264 NTF393264:NTT393264 ODB393264:ODP393264 OMX393264:ONL393264 OWT393264:OXH393264 PGP393264:PHD393264 PQL393264:PQZ393264 QAH393264:QAV393264 QKD393264:QKR393264 QTZ393264:QUN393264 RDV393264:REJ393264 RNR393264:ROF393264 RXN393264:RYB393264 SHJ393264:SHX393264 SRF393264:SRT393264 TBB393264:TBP393264 TKX393264:TLL393264 TUT393264:TVH393264 UEP393264:UFD393264 UOL393264:UOZ393264 UYH393264:UYV393264 VID393264:VIR393264 VRZ393264:VSN393264 WBV393264:WCJ393264 WLR393264:WMF393264 WVN393264:WWB393264 F458800:T458800 JB458800:JP458800 SX458800:TL458800 ACT458800:ADH458800 AMP458800:AND458800 AWL458800:AWZ458800 BGH458800:BGV458800 BQD458800:BQR458800 BZZ458800:CAN458800 CJV458800:CKJ458800 CTR458800:CUF458800 DDN458800:DEB458800 DNJ458800:DNX458800 DXF458800:DXT458800 EHB458800:EHP458800 EQX458800:ERL458800 FAT458800:FBH458800 FKP458800:FLD458800 FUL458800:FUZ458800 GEH458800:GEV458800 GOD458800:GOR458800 GXZ458800:GYN458800 HHV458800:HIJ458800 HRR458800:HSF458800 IBN458800:ICB458800 ILJ458800:ILX458800 IVF458800:IVT458800 JFB458800:JFP458800 JOX458800:JPL458800 JYT458800:JZH458800 KIP458800:KJD458800 KSL458800:KSZ458800 LCH458800:LCV458800 LMD458800:LMR458800 LVZ458800:LWN458800 MFV458800:MGJ458800 MPR458800:MQF458800 MZN458800:NAB458800 NJJ458800:NJX458800 NTF458800:NTT458800 ODB458800:ODP458800 OMX458800:ONL458800 OWT458800:OXH458800 PGP458800:PHD458800 PQL458800:PQZ458800 QAH458800:QAV458800 QKD458800:QKR458800 QTZ458800:QUN458800 RDV458800:REJ458800 RNR458800:ROF458800 RXN458800:RYB458800 SHJ458800:SHX458800 SRF458800:SRT458800 TBB458800:TBP458800 TKX458800:TLL458800 TUT458800:TVH458800 UEP458800:UFD458800 UOL458800:UOZ458800 UYH458800:UYV458800 VID458800:VIR458800 VRZ458800:VSN458800 WBV458800:WCJ458800 WLR458800:WMF458800 WVN458800:WWB458800 F524336:T524336 JB524336:JP524336 SX524336:TL524336 ACT524336:ADH524336 AMP524336:AND524336 AWL524336:AWZ524336 BGH524336:BGV524336 BQD524336:BQR524336 BZZ524336:CAN524336 CJV524336:CKJ524336 CTR524336:CUF524336 DDN524336:DEB524336 DNJ524336:DNX524336 DXF524336:DXT524336 EHB524336:EHP524336 EQX524336:ERL524336 FAT524336:FBH524336 FKP524336:FLD524336 FUL524336:FUZ524336 GEH524336:GEV524336 GOD524336:GOR524336 GXZ524336:GYN524336 HHV524336:HIJ524336 HRR524336:HSF524336 IBN524336:ICB524336 ILJ524336:ILX524336 IVF524336:IVT524336 JFB524336:JFP524336 JOX524336:JPL524336 JYT524336:JZH524336 KIP524336:KJD524336 KSL524336:KSZ524336 LCH524336:LCV524336 LMD524336:LMR524336 LVZ524336:LWN524336 MFV524336:MGJ524336 MPR524336:MQF524336 MZN524336:NAB524336 NJJ524336:NJX524336 NTF524336:NTT524336 ODB524336:ODP524336 OMX524336:ONL524336 OWT524336:OXH524336 PGP524336:PHD524336 PQL524336:PQZ524336 QAH524336:QAV524336 QKD524336:QKR524336 QTZ524336:QUN524336 RDV524336:REJ524336 RNR524336:ROF524336 RXN524336:RYB524336 SHJ524336:SHX524336 SRF524336:SRT524336 TBB524336:TBP524336 TKX524336:TLL524336 TUT524336:TVH524336 UEP524336:UFD524336 UOL524336:UOZ524336 UYH524336:UYV524336 VID524336:VIR524336 VRZ524336:VSN524336 WBV524336:WCJ524336 WLR524336:WMF524336 WVN524336:WWB524336 F589872:T589872 JB589872:JP589872 SX589872:TL589872 ACT589872:ADH589872 AMP589872:AND589872 AWL589872:AWZ589872 BGH589872:BGV589872 BQD589872:BQR589872 BZZ589872:CAN589872 CJV589872:CKJ589872 CTR589872:CUF589872 DDN589872:DEB589872 DNJ589872:DNX589872 DXF589872:DXT589872 EHB589872:EHP589872 EQX589872:ERL589872 FAT589872:FBH589872 FKP589872:FLD589872 FUL589872:FUZ589872 GEH589872:GEV589872 GOD589872:GOR589872 GXZ589872:GYN589872 HHV589872:HIJ589872 HRR589872:HSF589872 IBN589872:ICB589872 ILJ589872:ILX589872 IVF589872:IVT589872 JFB589872:JFP589872 JOX589872:JPL589872 JYT589872:JZH589872 KIP589872:KJD589872 KSL589872:KSZ589872 LCH589872:LCV589872 LMD589872:LMR589872 LVZ589872:LWN589872 MFV589872:MGJ589872 MPR589872:MQF589872 MZN589872:NAB589872 NJJ589872:NJX589872 NTF589872:NTT589872 ODB589872:ODP589872 OMX589872:ONL589872 OWT589872:OXH589872 PGP589872:PHD589872 PQL589872:PQZ589872 QAH589872:QAV589872 QKD589872:QKR589872 QTZ589872:QUN589872 RDV589872:REJ589872 RNR589872:ROF589872 RXN589872:RYB589872 SHJ589872:SHX589872 SRF589872:SRT589872 TBB589872:TBP589872 TKX589872:TLL589872 TUT589872:TVH589872 UEP589872:UFD589872 UOL589872:UOZ589872 UYH589872:UYV589872 VID589872:VIR589872 VRZ589872:VSN589872 WBV589872:WCJ589872 WLR589872:WMF589872 WVN589872:WWB589872 F655408:T655408 JB655408:JP655408 SX655408:TL655408 ACT655408:ADH655408 AMP655408:AND655408 AWL655408:AWZ655408 BGH655408:BGV655408 BQD655408:BQR655408 BZZ655408:CAN655408 CJV655408:CKJ655408 CTR655408:CUF655408 DDN655408:DEB655408 DNJ655408:DNX655408 DXF655408:DXT655408 EHB655408:EHP655408 EQX655408:ERL655408 FAT655408:FBH655408 FKP655408:FLD655408 FUL655408:FUZ655408 GEH655408:GEV655408 GOD655408:GOR655408 GXZ655408:GYN655408 HHV655408:HIJ655408 HRR655408:HSF655408 IBN655408:ICB655408 ILJ655408:ILX655408 IVF655408:IVT655408 JFB655408:JFP655408 JOX655408:JPL655408 JYT655408:JZH655408 KIP655408:KJD655408 KSL655408:KSZ655408 LCH655408:LCV655408 LMD655408:LMR655408 LVZ655408:LWN655408 MFV655408:MGJ655408 MPR655408:MQF655408 MZN655408:NAB655408 NJJ655408:NJX655408 NTF655408:NTT655408 ODB655408:ODP655408 OMX655408:ONL655408 OWT655408:OXH655408 PGP655408:PHD655408 PQL655408:PQZ655408 QAH655408:QAV655408 QKD655408:QKR655408 QTZ655408:QUN655408 RDV655408:REJ655408 RNR655408:ROF655408 RXN655408:RYB655408 SHJ655408:SHX655408 SRF655408:SRT655408 TBB655408:TBP655408 TKX655408:TLL655408 TUT655408:TVH655408 UEP655408:UFD655408 UOL655408:UOZ655408 UYH655408:UYV655408 VID655408:VIR655408 VRZ655408:VSN655408 WBV655408:WCJ655408 WLR655408:WMF655408 WVN655408:WWB655408 F720944:T720944 JB720944:JP720944 SX720944:TL720944 ACT720944:ADH720944 AMP720944:AND720944 AWL720944:AWZ720944 BGH720944:BGV720944 BQD720944:BQR720944 BZZ720944:CAN720944 CJV720944:CKJ720944 CTR720944:CUF720944 DDN720944:DEB720944 DNJ720944:DNX720944 DXF720944:DXT720944 EHB720944:EHP720944 EQX720944:ERL720944 FAT720944:FBH720944 FKP720944:FLD720944 FUL720944:FUZ720944 GEH720944:GEV720944 GOD720944:GOR720944 GXZ720944:GYN720944 HHV720944:HIJ720944 HRR720944:HSF720944 IBN720944:ICB720944 ILJ720944:ILX720944 IVF720944:IVT720944 JFB720944:JFP720944 JOX720944:JPL720944 JYT720944:JZH720944 KIP720944:KJD720944 KSL720944:KSZ720944 LCH720944:LCV720944 LMD720944:LMR720944 LVZ720944:LWN720944 MFV720944:MGJ720944 MPR720944:MQF720944 MZN720944:NAB720944 NJJ720944:NJX720944 NTF720944:NTT720944 ODB720944:ODP720944 OMX720944:ONL720944 OWT720944:OXH720944 PGP720944:PHD720944 PQL720944:PQZ720944 QAH720944:QAV720944 QKD720944:QKR720944 QTZ720944:QUN720944 RDV720944:REJ720944 RNR720944:ROF720944 RXN720944:RYB720944 SHJ720944:SHX720944 SRF720944:SRT720944 TBB720944:TBP720944 TKX720944:TLL720944 TUT720944:TVH720944 UEP720944:UFD720944 UOL720944:UOZ720944 UYH720944:UYV720944 VID720944:VIR720944 VRZ720944:VSN720944 WBV720944:WCJ720944 WLR720944:WMF720944 WVN720944:WWB720944 F786480:T786480 JB786480:JP786480 SX786480:TL786480 ACT786480:ADH786480 AMP786480:AND786480 AWL786480:AWZ786480 BGH786480:BGV786480 BQD786480:BQR786480 BZZ786480:CAN786480 CJV786480:CKJ786480 CTR786480:CUF786480 DDN786480:DEB786480 DNJ786480:DNX786480 DXF786480:DXT786480 EHB786480:EHP786480 EQX786480:ERL786480 FAT786480:FBH786480 FKP786480:FLD786480 FUL786480:FUZ786480 GEH786480:GEV786480 GOD786480:GOR786480 GXZ786480:GYN786480 HHV786480:HIJ786480 HRR786480:HSF786480 IBN786480:ICB786480 ILJ786480:ILX786480 IVF786480:IVT786480 JFB786480:JFP786480 JOX786480:JPL786480 JYT786480:JZH786480 KIP786480:KJD786480 KSL786480:KSZ786480 LCH786480:LCV786480 LMD786480:LMR786480 LVZ786480:LWN786480 MFV786480:MGJ786480 MPR786480:MQF786480 MZN786480:NAB786480 NJJ786480:NJX786480 NTF786480:NTT786480 ODB786480:ODP786480 OMX786480:ONL786480 OWT786480:OXH786480 PGP786480:PHD786480 PQL786480:PQZ786480 QAH786480:QAV786480 QKD786480:QKR786480 QTZ786480:QUN786480 RDV786480:REJ786480 RNR786480:ROF786480 RXN786480:RYB786480 SHJ786480:SHX786480 SRF786480:SRT786480 TBB786480:TBP786480 TKX786480:TLL786480 TUT786480:TVH786480 UEP786480:UFD786480 UOL786480:UOZ786480 UYH786480:UYV786480 VID786480:VIR786480 VRZ786480:VSN786480 WBV786480:WCJ786480 WLR786480:WMF786480 WVN786480:WWB786480 F852016:T852016 JB852016:JP852016 SX852016:TL852016 ACT852016:ADH852016 AMP852016:AND852016 AWL852016:AWZ852016 BGH852016:BGV852016 BQD852016:BQR852016 BZZ852016:CAN852016 CJV852016:CKJ852016 CTR852016:CUF852016 DDN852016:DEB852016 DNJ852016:DNX852016 DXF852016:DXT852016 EHB852016:EHP852016 EQX852016:ERL852016 FAT852016:FBH852016 FKP852016:FLD852016 FUL852016:FUZ852016 GEH852016:GEV852016 GOD852016:GOR852016 GXZ852016:GYN852016 HHV852016:HIJ852016 HRR852016:HSF852016 IBN852016:ICB852016 ILJ852016:ILX852016 IVF852016:IVT852016 JFB852016:JFP852016 JOX852016:JPL852016 JYT852016:JZH852016 KIP852016:KJD852016 KSL852016:KSZ852016 LCH852016:LCV852016 LMD852016:LMR852016 LVZ852016:LWN852016 MFV852016:MGJ852016 MPR852016:MQF852016 MZN852016:NAB852016 NJJ852016:NJX852016 NTF852016:NTT852016 ODB852016:ODP852016 OMX852016:ONL852016 OWT852016:OXH852016 PGP852016:PHD852016 PQL852016:PQZ852016 QAH852016:QAV852016 QKD852016:QKR852016 QTZ852016:QUN852016 RDV852016:REJ852016 RNR852016:ROF852016 RXN852016:RYB852016 SHJ852016:SHX852016 SRF852016:SRT852016 TBB852016:TBP852016 TKX852016:TLL852016 TUT852016:TVH852016 UEP852016:UFD852016 UOL852016:UOZ852016 UYH852016:UYV852016 VID852016:VIR852016 VRZ852016:VSN852016 WBV852016:WCJ852016 WLR852016:WMF852016 WVN852016:WWB852016 F917552:T917552 JB917552:JP917552 SX917552:TL917552 ACT917552:ADH917552 AMP917552:AND917552 AWL917552:AWZ917552 BGH917552:BGV917552 BQD917552:BQR917552 BZZ917552:CAN917552 CJV917552:CKJ917552 CTR917552:CUF917552 DDN917552:DEB917552 DNJ917552:DNX917552 DXF917552:DXT917552 EHB917552:EHP917552 EQX917552:ERL917552 FAT917552:FBH917552 FKP917552:FLD917552 FUL917552:FUZ917552 GEH917552:GEV917552 GOD917552:GOR917552 GXZ917552:GYN917552 HHV917552:HIJ917552 HRR917552:HSF917552 IBN917552:ICB917552 ILJ917552:ILX917552 IVF917552:IVT917552 JFB917552:JFP917552 JOX917552:JPL917552 JYT917552:JZH917552 KIP917552:KJD917552 KSL917552:KSZ917552 LCH917552:LCV917552 LMD917552:LMR917552 LVZ917552:LWN917552 MFV917552:MGJ917552 MPR917552:MQF917552 MZN917552:NAB917552 NJJ917552:NJX917552 NTF917552:NTT917552 ODB917552:ODP917552 OMX917552:ONL917552 OWT917552:OXH917552 PGP917552:PHD917552 PQL917552:PQZ917552 QAH917552:QAV917552 QKD917552:QKR917552 QTZ917552:QUN917552 RDV917552:REJ917552 RNR917552:ROF917552 RXN917552:RYB917552 SHJ917552:SHX917552 SRF917552:SRT917552 TBB917552:TBP917552 TKX917552:TLL917552 TUT917552:TVH917552 UEP917552:UFD917552 UOL917552:UOZ917552 UYH917552:UYV917552 VID917552:VIR917552 VRZ917552:VSN917552 WBV917552:WCJ917552 WLR917552:WMF917552 WVN917552:WWB917552 F983088:T983088 JB983088:JP983088 SX983088:TL983088 ACT983088:ADH983088 AMP983088:AND983088 AWL983088:AWZ983088 BGH983088:BGV983088 BQD983088:BQR983088 BZZ983088:CAN983088 CJV983088:CKJ983088 CTR983088:CUF983088 DDN983088:DEB983088 DNJ983088:DNX983088 DXF983088:DXT983088 EHB983088:EHP983088 EQX983088:ERL983088 FAT983088:FBH983088 FKP983088:FLD983088 FUL983088:FUZ983088 GEH983088:GEV983088 GOD983088:GOR983088 GXZ983088:GYN983088 HHV983088:HIJ983088 HRR983088:HSF983088 IBN983088:ICB983088 ILJ983088:ILX983088 IVF983088:IVT983088 JFB983088:JFP983088 JOX983088:JPL983088 JYT983088:JZH983088 KIP983088:KJD983088 KSL983088:KSZ983088 LCH983088:LCV983088 LMD983088:LMR983088 LVZ983088:LWN983088 MFV983088:MGJ983088 MPR983088:MQF983088 MZN983088:NAB983088 NJJ983088:NJX983088 NTF983088:NTT983088 ODB983088:ODP983088 OMX983088:ONL983088 OWT983088:OXH983088 PGP983088:PHD983088 PQL983088:PQZ983088 QAH983088:QAV983088 QKD983088:QKR983088 QTZ983088:QUN983088 RDV983088:REJ983088 RNR983088:ROF983088 RXN983088:RYB983088 SHJ983088:SHX983088 SRF983088:SRT983088 TBB983088:TBP983088 TKX983088:TLL983088 TUT983088:TVH983088 UEP983088:UFD983088 UOL983088:UOZ983088 UYH983088:UYV983088 VID983088:VIR983088 VRZ983088:VSN983088 WBV983088:WCJ983088 WLR983088:WMF983088 WVN983088:WWB983088">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -4358,301 +5272,533 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="3.21875" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" customWidth="1"/>
     <col min="11" max="11" width="6.21875" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+    <row r="1" spans="1:19" ht="82.2" customHeight="1">
+      <c r="A1" s="192" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="K1" s="192" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="192"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="204" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="K2" s="204" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="204"/>
-    </row>
-    <row r="3" spans="1:19" ht="43.2">
-      <c r="A3" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="101" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="K3" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+    </row>
+    <row r="4" spans="1:19" ht="43.2">
+      <c r="A4" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="101" t="s">
+      <c r="C4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="95" t="s">
+      <c r="M4" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="96" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="143"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="143"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="143"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="126"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="143"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="143"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="143"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="126"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="103"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="123"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="102"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="102"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="102"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="102"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="100"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
+      <c r="N4" s="81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="61.2" customHeight="1">
+      <c r="A5" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="213" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="213" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="215" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="215" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="213" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="213" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="215" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="215" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="195"/>
+      <c r="K5" s="196">
+        <v>1</v>
+      </c>
+      <c r="L5" s="197" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="197" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="197" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="31.2">
+      <c r="A6" s="218"/>
+      <c r="B6" s="216" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="213" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="215" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="215" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="213" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="213" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="215" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="215" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="195"/>
+      <c r="K6" s="226">
+        <v>2</v>
+      </c>
+      <c r="L6" s="227" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="228" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="227" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.6">
+      <c r="A7" s="218"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="215" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="215" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="214"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="198"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6">
+      <c r="A8" s="219"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="215" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="215" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="214"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="199"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.6">
+      <c r="A9" s="220" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="223" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="213" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="224" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="225" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="223" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="223" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="225" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="225" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="195"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="199"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.6">
+      <c r="A10" s="220"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="224" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="225" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="223" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="223" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="225" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="225" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="195"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="199"/>
+      <c r="M10" s="199"/>
+      <c r="N10" s="199"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.6">
+      <c r="A11" s="220"/>
+      <c r="B11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="224" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="225" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="221"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="221"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199"/>
+      <c r="N11" s="199"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.6">
+      <c r="A12" s="220"/>
+      <c r="B12" s="222"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="222"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="199"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.6">
+      <c r="A13" s="207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.6">
+      <c r="A14" s="207"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="199"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.6">
+      <c r="A15" s="207" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="199"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.6">
+      <c r="A16" s="207"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="199"/>
+      <c r="M16" s="199"/>
+      <c r="N16" s="199"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.6">
+      <c r="A17" s="208" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="211" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="211" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="212" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="200"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="199"/>
+      <c r="N17" s="199"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.6">
+      <c r="A18" s="208"/>
+      <c r="B18" s="205"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="212" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.6">
+      <c r="A19" s="208" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="203"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="199"/>
+      <c r="N19" s="199"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.6">
+      <c r="A20" s="208"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="199"/>
+      <c r="M20" s="199"/>
+      <c r="N20" s="199"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.6">
+      <c r="A21" s="208" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="203"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="199"/>
+      <c r="N21" s="199"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="209"/>
+      <c r="B22" s="206"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="210" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A2:I2"/>
+  <mergeCells count="5">
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4660,416 +5806,445 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.199999999999999"/>
   <cols>
-    <col min="1" max="1" width="8" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="27" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="27" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="8" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="23" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.8">
-      <c r="B1" s="108"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110" t="str">
+      <c r="B1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90" t="str">
         <f>"Pass: "&amp;COUNTIF($F$7:$F$943,"Pass")</f>
-        <v>Pass: 0</v>
-      </c>
-      <c r="E1" s="111" t="str">
+        <v>Pass: 1</v>
+      </c>
+      <c r="E1" s="91" t="str">
         <f>"Untested: "&amp;COUNTIF($F$7:$F$943,"Untest")</f>
         <v>Untested: 0</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9" ht="13.8">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" spans="1:9" ht="26.4">
-      <c r="A3" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="110" t="str">
+      <c r="A3" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="90" t="str">
         <f>"Fail: "&amp;COUNTIF($F$7:$F$943,"Fail")</f>
         <v>Fail: 0</v>
       </c>
-      <c r="E3" s="111" t="str">
+      <c r="E3" s="91" t="str">
         <f>"N/A: "&amp;COUNTIF($F$7:$F$943,"N/A")</f>
         <v>N/A: 0</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
     </row>
     <row r="4" spans="1:9" ht="13.8">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99" t="str">
+        <f>"Percent Complete: "&amp;ROUND((COUNTIF($F$7:$F$943,"Pass")*100)/((COUNTA($A$7:$A$943)*5)-COUNTIF($F$6:$F$953,"N/A")),2)&amp;"%"</f>
+        <v>Percent Complete: 10%</v>
+      </c>
+      <c r="E4" s="100" t="str">
+        <f>"Number of cases: "&amp;(COUNTA($A$6:$A$943))</f>
+        <v>Number of cases: 3</v>
+      </c>
+      <c r="F4" s="92"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.399999999999999">
+      <c r="A5" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B5" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="61.2">
+      <c r="A6" s="229" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="230" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="230" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="231" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="231" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="230" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="231" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="232"/>
+      <c r="I6" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119" t="str">
-        <f>"Percent Complete: "&amp;ROUND((COUNTIF($F$7:$F$943,"Pass")*100)/((COUNTA($A$7:$A$943)*5)-COUNTIF($F$6:$F$953,"N/A")),2)&amp;"%"</f>
-        <v>Percent Complete: 0%</v>
-      </c>
-      <c r="E4" s="120" t="str">
-        <f>"Number of cases: "&amp;(COUNTA($A$6:$A$943))</f>
-        <v>Number of cases: 2</v>
-      </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.399999999999999">
-      <c r="A5" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="61.2">
-      <c r="A6" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="90" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="89" t="str">
-        <f t="shared" ref="A7" si="0">IF(OR(B7&lt;&gt;"",E7&lt;&gt;""),"["&amp;TEXT($B$3,"#")&amp;"-"&amp;TEXT(ROW()-4,"##")&amp;"]","")</f>
-        <v/>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="89"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="89"/>
+    </row>
+    <row r="7" spans="1:9" ht="97.2" customHeight="1">
+      <c r="A7" s="233" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="233" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="234" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="234" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="239" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="233" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="235"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="238" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" customHeight="1">
+      <c r="A8" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="240" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="76"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="77" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="85"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="85"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="93"/>
-      <c r="B11" s="122" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="1:9" ht="30.6">
+      <c r="A11" s="79"/>
+      <c r="B11" s="237" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="237" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="237" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
+      <c r="A12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6">
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+    </row>
+    <row r="17" spans="1:9" ht="31.2">
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="227" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="228"/>
+      <c r="E17" s="227" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="93"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="93"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="93"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="93"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="93"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
     </row>
   </sheetData>
   <dataValidations count="1">
